--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748702</v>
+        <v>111748663</v>
       </c>
       <c r="B2" t="n">
-        <v>85089</v>
+        <v>101703</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3762</v>
+        <v>222412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664852.3607732435</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R2" t="n">
-        <v>6699289.765398038</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748686</v>
+        <v>111748761</v>
       </c>
       <c r="B3" t="n">
-        <v>96326</v>
+        <v>98535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219798</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664675.2689733801</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R3" t="n">
-        <v>6699052.073605827</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748737</v>
+        <v>111748707</v>
       </c>
       <c r="B4" t="n">
-        <v>88918</v>
+        <v>96369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5745</v>
+        <v>219862</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664808.6128849701</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R4" t="n">
-        <v>6699172.460106185</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -998,7 +998,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1017,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748739</v>
+        <v>111748689</v>
       </c>
       <c r="B5" t="n">
-        <v>103288</v>
+        <v>90678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221144</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1057,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664649.5501774848</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R5" t="n">
-        <v>6699105.349934292</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1129,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748707</v>
+        <v>111748692</v>
       </c>
       <c r="B6" t="n">
-        <v>96369</v>
+        <v>89183</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219862</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1169,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664850.52293942</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R6" t="n">
-        <v>6699362.928853855</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1241,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748764</v>
+        <v>111748670</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1281,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664769.3711021288</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R7" t="n">
-        <v>6698955.870736851</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1311,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1321,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1353,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748671</v>
+        <v>111748711</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>96381</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>219874</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1393,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664638.2983129583</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R8" t="n">
-        <v>6699364.178068399</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1465,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748703</v>
+        <v>111748648</v>
       </c>
       <c r="B9" t="n">
-        <v>85089</v>
+        <v>94134</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1477,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3762</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1505,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664569.3144499823</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R9" t="n">
-        <v>6698972.52796749</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1535,7 +1534,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1545,7 +1544,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1689,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748713</v>
+        <v>111748735</v>
       </c>
       <c r="B11" t="n">
-        <v>96381</v>
+        <v>88966</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1701,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219874</v>
+        <v>5754</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1729,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664764.1319274458</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R11" t="n">
-        <v>6698962.067276149</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1759,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1769,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1801,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748648</v>
+        <v>111748668</v>
       </c>
       <c r="B12" t="n">
-        <v>94134</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1841,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664655.3316318352</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R12" t="n">
-        <v>6699447.599252445</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1871,7 +1870,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1881,7 +1880,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1913,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748666</v>
+        <v>111748649</v>
       </c>
       <c r="B13" t="n">
-        <v>101703</v>
+        <v>94134</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1925,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>53</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1953,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664762.3323740696</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R13" t="n">
-        <v>6698958.025865254</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2025,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748663</v>
+        <v>111748703</v>
       </c>
       <c r="B14" t="n">
-        <v>101703</v>
+        <v>85089</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222412</v>
+        <v>3762</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2065,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664850.306320559</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R14" t="n">
-        <v>6699193.161951311</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2137,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748735</v>
+        <v>111748690</v>
       </c>
       <c r="B15" t="n">
-        <v>88966</v>
+        <v>89183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2149,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5754</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2177,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664801.9547313601</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R15" t="n">
-        <v>6699384.477357466</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2249,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748772</v>
+        <v>111748647</v>
       </c>
       <c r="B16" t="n">
-        <v>85253</v>
+        <v>88909</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2261,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3674</v>
+        <v>720</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2289,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664599.8235772498</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R16" t="n">
-        <v>6698922.931241977</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2335,6 +2334,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2361,10 +2365,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748674</v>
+        <v>111748731</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>90674</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2373,25 +2377,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>2058</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2401,10 +2405,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664708.4139202497</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R17" t="n">
-        <v>6698857.079132927</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2473,10 +2477,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748687</v>
+        <v>111748741</v>
       </c>
       <c r="B18" t="n">
-        <v>96326</v>
+        <v>103288</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2489,21 +2493,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219798</v>
+        <v>221144</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2513,10 +2517,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664642.3199653549</v>
+        <v>664568.8475301198</v>
       </c>
       <c r="R18" t="n">
-        <v>6698871.403136684</v>
+        <v>6699004.678774409</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2543,7 +2547,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2553,7 +2557,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2585,10 +2589,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748643</v>
+        <v>111748671</v>
       </c>
       <c r="B19" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2601,21 +2605,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2625,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664631.4714806431</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R19" t="n">
-        <v>6699427.215353329</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2655,7 +2659,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2665,7 +2669,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2697,10 +2701,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748670</v>
+        <v>111748665</v>
       </c>
       <c r="B20" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2713,21 +2717,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2737,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664583.6729684926</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R20" t="n">
-        <v>6699322.601555262</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2767,7 +2771,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2777,7 +2781,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2809,10 +2813,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748647</v>
+        <v>111748764</v>
       </c>
       <c r="B21" t="n">
-        <v>88909</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2821,25 +2825,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>720</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2849,10 +2853,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664820.8300099263</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R21" t="n">
-        <v>6699241.810120963</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2879,7 +2883,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2889,17 +2893,12 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2926,10 +2925,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748770</v>
+        <v>111748729</v>
       </c>
       <c r="B22" t="n">
-        <v>85253</v>
+        <v>90674</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2938,25 +2937,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3674</v>
+        <v>2058</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2966,10 +2965,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664698.8371583781</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R22" t="n">
-        <v>6699057.103091458</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3038,10 +3037,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748693</v>
+        <v>111748687</v>
       </c>
       <c r="B23" t="n">
-        <v>89183</v>
+        <v>96326</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3054,21 +3053,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3215</v>
+        <v>219798</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3078,10 +3077,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664610.9204746395</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R23" t="n">
-        <v>6698842.259884536</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3108,7 +3107,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3118,7 +3117,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3150,10 +3149,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748774</v>
+        <v>111748765</v>
       </c>
       <c r="B24" t="n">
-        <v>85253</v>
+        <v>90660</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3162,25 +3161,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3674</v>
+        <v>4362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3190,10 +3189,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664776.9458788878</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R24" t="n">
-        <v>6698920.082440153</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3262,10 +3261,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748675</v>
+        <v>111748771</v>
       </c>
       <c r="B25" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3278,21 +3277,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3302,10 +3301,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664764.0858319701</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R25" t="n">
-        <v>6698952.165968419</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3374,10 +3373,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748700</v>
+        <v>111748736</v>
       </c>
       <c r="B26" t="n">
-        <v>85089</v>
+        <v>88966</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3386,25 +3385,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3762</v>
+        <v>5754</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3414,10 +3413,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664853.490245176</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R26" t="n">
-        <v>6699352.175737353</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3486,10 +3485,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748761</v>
+        <v>111748683</v>
       </c>
       <c r="B27" t="n">
-        <v>98535</v>
+        <v>96266</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3502,21 +3501,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>223591</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3526,10 +3525,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664669.2408998127</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R27" t="n">
-        <v>6699042.890928292</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3598,10 +3597,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748759</v>
+        <v>111748704</v>
       </c>
       <c r="B28" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3614,21 +3613,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3638,10 +3637,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664565.3140634815</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R28" t="n">
-        <v>6699541.501402936</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3668,7 +3667,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3678,7 +3677,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3710,10 +3709,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748689</v>
+        <v>111748759</v>
       </c>
       <c r="B29" t="n">
-        <v>90678</v>
+        <v>98535</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3726,21 +3725,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3750,10 +3749,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664821.6049801367</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R29" t="n">
-        <v>6699355.67585695</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3780,7 +3779,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3790,7 +3789,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3822,10 +3821,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748741</v>
+        <v>111748774</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>85253</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3838,21 +3837,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>3674</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3862,10 +3861,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664568.8475301198</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R30" t="n">
-        <v>6699004.678774409</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3934,10 +3933,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748669</v>
+        <v>111748642</v>
       </c>
       <c r="B31" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3950,21 +3949,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3974,10 +3973,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664686.8541501703</v>
+        <v>664567.4272046218</v>
       </c>
       <c r="R31" t="n">
-        <v>6699080.811365802</v>
+        <v>6699538.628004844</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4004,7 +4003,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4014,7 +4013,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4046,10 +4045,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748640</v>
+        <v>111748740</v>
       </c>
       <c r="B32" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,21 +4061,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4086,10 +4085,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664568.5768465291</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R32" t="n">
-        <v>6698999.716977227</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4158,10 +4157,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748736</v>
+        <v>111748760</v>
       </c>
       <c r="B33" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4170,25 +4169,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4198,10 +4197,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664803.3322592583</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R33" t="n">
-        <v>6699212.309487404</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4228,7 +4227,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4238,7 +4237,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4270,10 +4269,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748760</v>
+        <v>111748669</v>
       </c>
       <c r="B34" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4286,21 +4285,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +4309,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664590.5125486635</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R34" t="n">
-        <v>6699346.66743302</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4340,7 +4339,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4350,7 +4349,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4382,10 +4381,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748742</v>
+        <v>111748693</v>
       </c>
       <c r="B35" t="n">
-        <v>93248</v>
+        <v>89183</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4398,38 +4397,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>210</v>
+        <v>3215</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664616.566347321</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R35" t="n">
-        <v>6698848.950711449</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4498,10 +4493,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748673</v>
+        <v>111748666</v>
       </c>
       <c r="B36" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4514,21 +4509,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4538,10 +4533,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664574.9395623421</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R36" t="n">
-        <v>6698990.601510798</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4568,7 +4563,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4578,7 +4573,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4610,10 +4605,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748683</v>
+        <v>111748664</v>
       </c>
       <c r="B37" t="n">
-        <v>96266</v>
+        <v>101703</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4626,21 +4621,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>223591</v>
+        <v>222412</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4650,10 +4645,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664638.5631493796</v>
+        <v>664795.7286883136</v>
       </c>
       <c r="R37" t="n">
-        <v>6699489.398619195</v>
+        <v>6699183.258195299</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4680,7 +4675,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4690,7 +4685,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4722,10 +4717,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748712</v>
+        <v>111748695</v>
       </c>
       <c r="B38" t="n">
-        <v>96381</v>
+        <v>89183</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4738,21 +4733,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219874</v>
+        <v>3215</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4762,10 +4757,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664826.5343673588</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R38" t="n">
-        <v>6699410.834182931</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4834,10 +4829,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748649</v>
+        <v>111748672</v>
       </c>
       <c r="B39" t="n">
-        <v>94134</v>
+        <v>90332</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4846,25 +4841,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53</v>
+        <v>4769</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4874,10 +4869,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664603.5764787464</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R39" t="n">
-        <v>6699342.806076139</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4904,7 +4899,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4914,7 +4909,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -4946,10 +4941,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748684</v>
+        <v>111748640</v>
       </c>
       <c r="B40" t="n">
-        <v>96326</v>
+        <v>99413</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4962,21 +4957,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>219798</v>
+        <v>221235</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4986,10 +4981,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664604.7573992921</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R40" t="n">
-        <v>6698836.040565506</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5058,10 +5053,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748665</v>
+        <v>111748739</v>
       </c>
       <c r="B41" t="n">
-        <v>101703</v>
+        <v>103288</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5074,21 +5069,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222412</v>
+        <v>221144</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5098,10 +5093,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664831.6371875083</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R41" t="n">
-        <v>6699658.507831291</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5128,7 +5123,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5138,7 +5133,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5170,10 +5165,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748738</v>
+        <v>111748737</v>
       </c>
       <c r="B42" t="n">
-        <v>103288</v>
+        <v>88918</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5182,25 +5177,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221144</v>
+        <v>5745</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5210,10 +5205,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664658.7886288867</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R42" t="n">
-        <v>6699076.567729114</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5264,6 +5259,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5282,10 +5278,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748668</v>
+        <v>111748650</v>
       </c>
       <c r="B43" t="n">
-        <v>56543</v>
+        <v>94134</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5298,21 +5294,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>103021</v>
+        <v>53</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5322,10 +5318,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664732.4426041286</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R43" t="n">
-        <v>6698939.344871927</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5352,7 +5348,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5362,7 +5358,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5394,10 +5390,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748765</v>
+        <v>111748713</v>
       </c>
       <c r="B44" t="n">
-        <v>90660</v>
+        <v>96381</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5406,25 +5402,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4362</v>
+        <v>219874</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5434,10 +5430,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664575.0291913702</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R44" t="n">
-        <v>6698988.625762361</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5464,7 +5460,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5474,7 +5470,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5506,10 +5502,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748654</v>
+        <v>111748712</v>
       </c>
       <c r="B45" t="n">
-        <v>96370</v>
+        <v>96381</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5522,21 +5518,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>219847</v>
+        <v>219874</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5546,10 +5542,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664579.5402544152</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R45" t="n">
-        <v>6698932.900203395</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5576,7 +5572,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5586,7 +5582,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5618,10 +5614,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748695</v>
+        <v>111748770</v>
       </c>
       <c r="B46" t="n">
-        <v>89183</v>
+        <v>85253</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5634,21 +5630,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3215</v>
+        <v>3674</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5658,10 +5654,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664758.1487707719</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R46" t="n">
-        <v>6698951.896335257</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5730,10 +5726,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748705</v>
+        <v>111748654</v>
       </c>
       <c r="B47" t="n">
-        <v>96369</v>
+        <v>96370</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5746,21 +5742,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>219862</v>
+        <v>219847</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5766,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664770.1427733348</v>
+        <v>664579.5402544152</v>
       </c>
       <c r="R47" t="n">
-        <v>6699440.935377424</v>
+        <v>6698932.900203395</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5800,7 +5796,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5810,7 +5806,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5842,10 +5838,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748642</v>
+        <v>111748662</v>
       </c>
       <c r="B48" t="n">
-        <v>99413</v>
+        <v>101703</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5858,21 +5854,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221235</v>
+        <v>222412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5882,10 +5878,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664567.4272046218</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R48" t="n">
-        <v>6699538.628004844</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5912,7 +5908,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -5922,7 +5918,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -5954,10 +5950,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748773</v>
+        <v>111748730</v>
       </c>
       <c r="B49" t="n">
-        <v>85253</v>
+        <v>90674</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5966,25 +5962,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3674</v>
+        <v>2058</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5990,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664724.9064109002</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R49" t="n">
-        <v>6698919.69909039</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6066,10 +6062,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748729</v>
+        <v>111748673</v>
       </c>
       <c r="B50" t="n">
-        <v>90674</v>
+        <v>90332</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6078,25 +6074,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2058</v>
+        <v>4769</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6106,10 +6102,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664589.6062576605</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R50" t="n">
-        <v>6699017.004385524</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6178,10 +6174,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748667</v>
+        <v>111748686</v>
       </c>
       <c r="B51" t="n">
-        <v>56543</v>
+        <v>96326</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6190,25 +6186,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>103021</v>
+        <v>219798</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6218,10 +6214,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664676.6366606337</v>
+        <v>664675.2689733801</v>
       </c>
       <c r="R51" t="n">
-        <v>6699021.943822397</v>
+        <v>6699052.073605827</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6248,7 +6244,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6258,7 +6254,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6290,10 +6286,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748762</v>
+        <v>111748742</v>
       </c>
       <c r="B52" t="n">
-        <v>98535</v>
+        <v>93248</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6306,34 +6302,38 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222498</v>
+        <v>210</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664635.6605944363</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R52" t="n">
-        <v>6698854.271896686</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6402,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748708</v>
+        <v>111748643</v>
       </c>
       <c r="B53" t="n">
-        <v>96369</v>
+        <v>99413</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6418,21 +6418,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>219862</v>
+        <v>221235</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664872.0610342777</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R53" t="n">
-        <v>6699314.416695234</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6514,10 +6514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748771</v>
+        <v>111748709</v>
       </c>
       <c r="B54" t="n">
-        <v>85253</v>
+        <v>96369</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6530,21 +6530,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3674</v>
+        <v>219862</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664803.0104039316</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R54" t="n">
-        <v>6699372.152713455</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6738,10 +6738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748715</v>
+        <v>111748688</v>
       </c>
       <c r="B56" t="n">
-        <v>88956</v>
+        <v>96326</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6750,25 +6750,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5747</v>
+        <v>219798</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664855.4976383725</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R56" t="n">
-        <v>6699427.987196152</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6850,10 +6850,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748692</v>
+        <v>111748705</v>
       </c>
       <c r="B57" t="n">
-        <v>89183</v>
+        <v>96369</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6866,21 +6866,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3215</v>
+        <v>219862</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6890,10 +6890,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664778.1089783342</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R57" t="n">
-        <v>6699069.116974886</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6962,10 +6962,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748641</v>
+        <v>111748667</v>
       </c>
       <c r="B58" t="n">
-        <v>99413</v>
+        <v>56543</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6974,25 +6974,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221235</v>
+        <v>103021</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7002,10 +7002,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664626.8808813933</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R58" t="n">
-        <v>6699561.121136454</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7074,10 +7074,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748709</v>
+        <v>111748684</v>
       </c>
       <c r="B59" t="n">
-        <v>96369</v>
+        <v>96326</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7090,21 +7090,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>219862</v>
+        <v>219798</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664847.7700305003</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R59" t="n">
-        <v>6699248.973355746</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748730</v>
+        <v>111748700</v>
       </c>
       <c r="B60" t="n">
-        <v>90674</v>
+        <v>85089</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7198,25 +7198,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2058</v>
+        <v>3762</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7226,10 +7226,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664867.8416141088</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R60" t="n">
-        <v>6699418.15535864</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7298,10 +7298,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748690</v>
+        <v>111748773</v>
       </c>
       <c r="B61" t="n">
-        <v>89183</v>
+        <v>85253</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7314,21 +7314,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3215</v>
+        <v>3674</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7338,10 +7338,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664698.8371583781</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R61" t="n">
-        <v>6699057.103091458</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7410,10 +7410,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748691</v>
+        <v>111748708</v>
       </c>
       <c r="B62" t="n">
-        <v>89183</v>
+        <v>96369</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7426,21 +7426,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3215</v>
+        <v>219862</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7450,10 +7450,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664620.6444729717</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R62" t="n">
-        <v>6699349.02459933</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748662</v>
+        <v>111748677</v>
       </c>
       <c r="B63" t="n">
-        <v>101703</v>
+        <v>56414</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7534,38 +7534,43 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222412</v>
+        <v>100049</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664770.1427733348</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R63" t="n">
-        <v>6699440.935377424</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7592,7 +7597,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -7602,7 +7607,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -7634,10 +7639,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748650</v>
+        <v>111748762</v>
       </c>
       <c r="B64" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7646,25 +7651,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7674,10 +7679,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664567.5443468138</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R64" t="n">
-        <v>6699011.548972152</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7746,10 +7751,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748731</v>
+        <v>111748641</v>
       </c>
       <c r="B65" t="n">
-        <v>90674</v>
+        <v>99413</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7758,25 +7763,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2058</v>
+        <v>221235</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7786,10 +7791,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664818.6562284525</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R65" t="n">
-        <v>6699322.382911628</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7816,7 +7821,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7826,7 +7831,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7858,10 +7863,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748644</v>
+        <v>111748674</v>
       </c>
       <c r="B66" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7874,21 +7879,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7898,10 +7903,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664676.080560883</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R66" t="n">
-        <v>6699066.958814406</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7928,7 +7933,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7938,7 +7943,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -7970,10 +7975,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748672</v>
+        <v>111748644</v>
       </c>
       <c r="B67" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7986,21 +7991,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8010,10 +8015,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664757.060744858</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R67" t="n">
-        <v>6699074.10032806</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8040,7 +8045,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8050,7 +8055,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -8082,10 +8087,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748688</v>
+        <v>111748772</v>
       </c>
       <c r="B68" t="n">
-        <v>96326</v>
+        <v>85253</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8098,21 +8103,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>219798</v>
+        <v>3674</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8122,10 +8127,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664770.4952141214</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R68" t="n">
-        <v>6698952.952024489</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8152,7 +8157,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8162,7 +8167,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8194,7 +8199,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748740</v>
+        <v>111748738</v>
       </c>
       <c r="B69" t="n">
         <v>103288</v>
@@ -8234,10 +8239,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664604.2181931254</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R69" t="n">
-        <v>6699274.042581626</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8306,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748664</v>
+        <v>111748715</v>
       </c>
       <c r="B70" t="n">
-        <v>101703</v>
+        <v>88956</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8318,25 +8323,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222412</v>
+        <v>5747</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8346,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664795.7286883136</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R70" t="n">
-        <v>6699183.258195299</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8418,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748711</v>
+        <v>111748691</v>
       </c>
       <c r="B71" t="n">
-        <v>96381</v>
+        <v>89183</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8434,21 +8439,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>219874</v>
+        <v>3215</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8458,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664758.9699501268</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R71" t="n">
-        <v>6699053.894244161</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8530,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748677</v>
+        <v>111748702</v>
       </c>
       <c r="B72" t="n">
-        <v>56414</v>
+        <v>85089</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8542,43 +8547,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100049</v>
+        <v>3762</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664615.8542000444</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R72" t="n">
-        <v>6699498.265643556</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -8647,10 +8647,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748704</v>
+        <v>111748675</v>
       </c>
       <c r="B73" t="n">
-        <v>85089</v>
+        <v>90332</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8663,21 +8663,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664771.2603847764</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R73" t="n">
-        <v>6698957.93638737</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748663</v>
+        <v>111748644</v>
       </c>
       <c r="B2" t="n">
-        <v>101703</v>
+        <v>99413</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664850.306320559</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R2" t="n">
-        <v>6699193.161951311</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748761</v>
+        <v>111748667</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664669.2408998127</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R3" t="n">
-        <v>6699042.890928292</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748707</v>
+        <v>111748712</v>
       </c>
       <c r="B4" t="n">
-        <v>96369</v>
+        <v>96381</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,16 +920,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219862</v>
+        <v>219874</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664850.52293942</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R4" t="n">
-        <v>6699362.928853855</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748689</v>
+        <v>111748695</v>
       </c>
       <c r="B5" t="n">
-        <v>90678</v>
+        <v>89183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664821.6049801367</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R5" t="n">
-        <v>6699355.67585695</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748692</v>
+        <v>111748708</v>
       </c>
       <c r="B6" t="n">
-        <v>89183</v>
+        <v>96369</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>219862</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664778.1089783342</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R6" t="n">
-        <v>6699069.116974886</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748670</v>
+        <v>111748760</v>
       </c>
       <c r="B7" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664583.6729684926</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R7" t="n">
-        <v>6699322.601555262</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748711</v>
+        <v>111748654</v>
       </c>
       <c r="B8" t="n">
-        <v>96381</v>
+        <v>96370</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219874</v>
+        <v>219847</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664758.9699501268</v>
+        <v>664579.5402544152</v>
       </c>
       <c r="R8" t="n">
-        <v>6699053.894244161</v>
+        <v>6698932.900203395</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748648</v>
+        <v>111748672</v>
       </c>
       <c r="B9" t="n">
-        <v>94134</v>
+        <v>90332</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664655.3316318352</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R9" t="n">
-        <v>6699447.599252445</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748732</v>
+        <v>111748738</v>
       </c>
       <c r="B10" t="n">
-        <v>85290</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6003295</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664830.0022340771</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R10" t="n">
-        <v>6699214.511088434</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748735</v>
+        <v>111748693</v>
       </c>
       <c r="B11" t="n">
-        <v>88966</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5754</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664801.9547313601</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R11" t="n">
-        <v>6699384.477357466</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748668</v>
+        <v>111748772</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>85253</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>3674</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664732.4426041286</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R12" t="n">
-        <v>6698939.344871927</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748649</v>
+        <v>111748664</v>
       </c>
       <c r="B13" t="n">
-        <v>94134</v>
+        <v>101703</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>222412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664603.5764787464</v>
+        <v>664795.7286883136</v>
       </c>
       <c r="R13" t="n">
-        <v>6699342.806076139</v>
+        <v>6699183.258195299</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748703</v>
+        <v>111748674</v>
       </c>
       <c r="B14" t="n">
-        <v>85089</v>
+        <v>90332</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664569.3144499823</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R14" t="n">
-        <v>6698972.52796749</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748690</v>
+        <v>111748730</v>
       </c>
       <c r="B15" t="n">
-        <v>89183</v>
+        <v>90674</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>2058</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664698.8371583781</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R15" t="n">
-        <v>6699057.103091458</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748647</v>
+        <v>111748729</v>
       </c>
       <c r="B16" t="n">
-        <v>88909</v>
+        <v>90674</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664820.8300099263</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R16" t="n">
-        <v>6699241.810120963</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2334,11 +2334,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2365,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748731</v>
+        <v>111748732</v>
       </c>
       <c r="B17" t="n">
-        <v>90674</v>
+        <v>85290</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2377,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2058</v>
+        <v>6003295</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2405,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664818.6562284525</v>
+        <v>664830.0022340771</v>
       </c>
       <c r="R17" t="n">
-        <v>6699322.382911628</v>
+        <v>6699214.511088434</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2477,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748741</v>
+        <v>111748665</v>
       </c>
       <c r="B18" t="n">
-        <v>103288</v>
+        <v>101703</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2517,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664568.8475301198</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R18" t="n">
-        <v>6699004.678774409</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2547,7 +2542,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2557,7 +2552,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2589,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748671</v>
+        <v>111748642</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,21 +2600,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2629,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664638.2983129583</v>
+        <v>664567.4272046218</v>
       </c>
       <c r="R19" t="n">
-        <v>6699364.178068399</v>
+        <v>6699538.628004844</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2659,7 +2654,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2669,7 +2664,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2701,7 +2696,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748665</v>
+        <v>111748666</v>
       </c>
       <c r="B20" t="n">
         <v>101703</v>
@@ -2741,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664831.6371875083</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R20" t="n">
-        <v>6699658.507831291</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2813,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748764</v>
+        <v>111748651</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2825,25 +2820,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2853,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664769.3711021288</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R21" t="n">
-        <v>6698955.870736851</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2883,7 +2878,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2893,7 +2888,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2925,7 +2920,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748729</v>
+        <v>111748731</v>
       </c>
       <c r="B22" t="n">
         <v>90674</v>
@@ -2965,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664589.6062576605</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R22" t="n">
-        <v>6699017.004385524</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3037,10 +3032,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748687</v>
+        <v>111748668</v>
       </c>
       <c r="B23" t="n">
-        <v>96326</v>
+        <v>56543</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3049,25 +3044,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219798</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3077,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664642.3199653549</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R23" t="n">
-        <v>6698871.403136684</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3107,7 +3102,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3117,7 +3112,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3149,10 +3144,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748765</v>
+        <v>111748669</v>
       </c>
       <c r="B24" t="n">
-        <v>90660</v>
+        <v>90332</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3161,25 +3156,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4362</v>
+        <v>4769</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3189,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664575.0291913702</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R24" t="n">
-        <v>6698988.625762361</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3261,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748771</v>
+        <v>111748735</v>
       </c>
       <c r="B25" t="n">
-        <v>85253</v>
+        <v>88966</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3273,25 +3268,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3301,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664803.0104039316</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R25" t="n">
-        <v>6699372.152713455</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3373,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748736</v>
+        <v>111748643</v>
       </c>
       <c r="B26" t="n">
-        <v>88966</v>
+        <v>99413</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3385,25 +3380,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5754</v>
+        <v>221235</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3413,10 +3408,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664803.3322592583</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R26" t="n">
-        <v>6699212.309487404</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3443,7 +3438,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3453,7 +3448,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3485,10 +3480,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748683</v>
+        <v>111748737</v>
       </c>
       <c r="B27" t="n">
-        <v>96266</v>
+        <v>88918</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3497,25 +3492,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>223591</v>
+        <v>5745</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3525,10 +3520,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664638.5631493796</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R27" t="n">
-        <v>6699489.398619195</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3555,7 +3550,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3565,7 +3560,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3579,6 +3574,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3597,10 +3593,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748704</v>
+        <v>111748690</v>
       </c>
       <c r="B28" t="n">
-        <v>85089</v>
+        <v>89183</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3613,21 +3609,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3762</v>
+        <v>3215</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3637,10 +3633,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664771.2603847764</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R28" t="n">
-        <v>6698957.93638737</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3709,10 +3705,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748759</v>
+        <v>111748715</v>
       </c>
       <c r="B29" t="n">
-        <v>98535</v>
+        <v>88956</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3721,25 +3717,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222498</v>
+        <v>5747</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3749,10 +3745,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664565.3140634815</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R29" t="n">
-        <v>6699541.501402936</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3779,7 +3775,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3789,7 +3785,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3821,10 +3817,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748774</v>
+        <v>111748702</v>
       </c>
       <c r="B30" t="n">
-        <v>85253</v>
+        <v>85089</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3837,21 +3833,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3674</v>
+        <v>3762</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3861,10 +3857,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664776.9458788878</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R30" t="n">
-        <v>6698920.082440153</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3933,10 +3929,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748642</v>
+        <v>111748677</v>
       </c>
       <c r="B31" t="n">
-        <v>99413</v>
+        <v>56414</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3945,38 +3941,43 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221235</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664567.4272046218</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R31" t="n">
-        <v>6699538.628004844</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4045,10 +4046,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748740</v>
+        <v>111748742</v>
       </c>
       <c r="B32" t="n">
-        <v>103288</v>
+        <v>93248</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4061,34 +4062,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221144</v>
+        <v>210</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664604.2181931254</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R32" t="n">
-        <v>6699274.042581626</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4157,7 +4162,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748760</v>
+        <v>111748761</v>
       </c>
       <c r="B33" t="n">
         <v>98535</v>
@@ -4197,10 +4202,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664590.5125486635</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R33" t="n">
-        <v>6699346.66743302</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4269,10 +4274,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748669</v>
+        <v>111748759</v>
       </c>
       <c r="B34" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4285,21 +4290,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4309,10 +4314,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664686.8541501703</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R34" t="n">
-        <v>6699080.811365802</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4339,7 +4344,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4349,7 +4354,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4381,10 +4386,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748693</v>
+        <v>111748675</v>
       </c>
       <c r="B35" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4397,21 +4402,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4421,10 +4426,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664610.9204746395</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R35" t="n">
-        <v>6698842.259884536</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4493,10 +4498,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748666</v>
+        <v>111748683</v>
       </c>
       <c r="B36" t="n">
-        <v>101703</v>
+        <v>96266</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4509,21 +4514,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222412</v>
+        <v>223591</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4533,10 +4538,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664762.3323740696</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R36" t="n">
-        <v>6698958.025865254</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4605,10 +4610,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748664</v>
+        <v>111748707</v>
       </c>
       <c r="B37" t="n">
-        <v>101703</v>
+        <v>96369</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4621,21 +4626,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222412</v>
+        <v>219862</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4645,10 +4650,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664795.7286883136</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R37" t="n">
-        <v>6699183.258195299</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4717,10 +4722,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748695</v>
+        <v>111748673</v>
       </c>
       <c r="B38" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4733,21 +4738,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4757,10 +4762,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664758.1487707719</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R38" t="n">
-        <v>6698951.896335257</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4829,10 +4834,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748672</v>
+        <v>111748740</v>
       </c>
       <c r="B39" t="n">
-        <v>90332</v>
+        <v>103288</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4845,21 +4850,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4769</v>
+        <v>221144</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4869,10 +4874,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664757.060744858</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R39" t="n">
-        <v>6699074.10032806</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4941,10 +4946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748640</v>
+        <v>111748703</v>
       </c>
       <c r="B40" t="n">
-        <v>99413</v>
+        <v>85089</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4957,21 +4962,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221235</v>
+        <v>3762</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4981,10 +4986,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664568.5768465291</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R40" t="n">
-        <v>6698999.716977227</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5053,10 +5058,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748739</v>
+        <v>111748700</v>
       </c>
       <c r="B41" t="n">
-        <v>103288</v>
+        <v>85089</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5069,21 +5074,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221144</v>
+        <v>3762</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5093,10 +5098,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664649.5501774848</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R41" t="n">
-        <v>6699105.349934292</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5165,10 +5170,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748737</v>
+        <v>111748691</v>
       </c>
       <c r="B42" t="n">
-        <v>88918</v>
+        <v>89183</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5177,25 +5182,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5745</v>
+        <v>3215</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5205,10 +5210,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664808.6128849701</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R42" t="n">
-        <v>6699172.460106185</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5259,7 +5264,6 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5278,10 +5282,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748650</v>
+        <v>111748762</v>
       </c>
       <c r="B43" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5290,25 +5294,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5318,10 +5322,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664567.5443468138</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R43" t="n">
-        <v>6699011.548972152</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5390,10 +5394,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748713</v>
+        <v>111748671</v>
       </c>
       <c r="B44" t="n">
-        <v>96381</v>
+        <v>90332</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5406,21 +5410,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>219874</v>
+        <v>4769</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5430,10 +5434,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664764.1319274458</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R44" t="n">
-        <v>6698962.067276149</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5460,7 +5464,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5470,7 +5474,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5502,10 +5506,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748712</v>
+        <v>111748650</v>
       </c>
       <c r="B45" t="n">
-        <v>96381</v>
+        <v>94134</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5514,25 +5518,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>219874</v>
+        <v>53</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5542,10 +5546,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664826.5343673588</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R45" t="n">
-        <v>6699410.834182931</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5572,7 +5576,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5582,7 +5586,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5614,7 +5618,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748770</v>
+        <v>111748771</v>
       </c>
       <c r="B46" t="n">
         <v>85253</v>
@@ -5654,10 +5658,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664698.8371583781</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R46" t="n">
-        <v>6699057.103091458</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5726,10 +5730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748654</v>
+        <v>111748704</v>
       </c>
       <c r="B47" t="n">
-        <v>96370</v>
+        <v>85089</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,21 +5746,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>219847</v>
+        <v>3762</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5766,10 +5770,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664579.5402544152</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R47" t="n">
-        <v>6698932.900203395</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5796,7 +5800,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5806,7 +5810,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5838,10 +5842,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748662</v>
+        <v>111748641</v>
       </c>
       <c r="B48" t="n">
-        <v>101703</v>
+        <v>99413</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5854,21 +5858,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5878,10 +5882,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664770.1427733348</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R48" t="n">
-        <v>6699440.935377424</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5908,7 +5912,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -5918,7 +5922,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -5950,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748730</v>
+        <v>111748764</v>
       </c>
       <c r="B49" t="n">
-        <v>90674</v>
+        <v>98535</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5962,25 +5966,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2058</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5990,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664867.8416141088</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R49" t="n">
-        <v>6699418.15535864</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6020,7 +6024,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6030,7 +6034,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6062,10 +6066,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748673</v>
+        <v>111748648</v>
       </c>
       <c r="B50" t="n">
-        <v>90332</v>
+        <v>94134</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6074,25 +6078,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4769</v>
+        <v>53</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6102,10 +6106,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664574.9395623421</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R50" t="n">
-        <v>6698990.601510798</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6132,7 +6136,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6142,7 +6146,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6286,10 +6290,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748742</v>
+        <v>111748670</v>
       </c>
       <c r="B52" t="n">
-        <v>93248</v>
+        <v>90332</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6302,38 +6306,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>210</v>
+        <v>4769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664616.566347321</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R52" t="n">
-        <v>6698848.950711449</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748643</v>
+        <v>111748765</v>
       </c>
       <c r="B53" t="n">
-        <v>99413</v>
+        <v>90660</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6414,25 +6414,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221235</v>
+        <v>4362</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664631.4714806431</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R53" t="n">
-        <v>6699427.215353329</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6514,10 +6514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748709</v>
+        <v>111748689</v>
       </c>
       <c r="B54" t="n">
-        <v>96369</v>
+        <v>90678</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6530,21 +6530,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>219862</v>
+        <v>4366</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664847.7700305003</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R54" t="n">
-        <v>6699248.973355746</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748651</v>
+        <v>111748770</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>85253</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6638,25 +6638,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>3674</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6666,10 +6666,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664849.7319311691</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R55" t="n">
-        <v>6699314.886606451</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6738,10 +6738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748688</v>
+        <v>111748662</v>
       </c>
       <c r="B56" t="n">
-        <v>96326</v>
+        <v>101703</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6754,21 +6754,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>219798</v>
+        <v>222412</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664770.4952141214</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R56" t="n">
-        <v>6698952.952024489</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6850,10 +6850,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748705</v>
+        <v>111748688</v>
       </c>
       <c r="B57" t="n">
-        <v>96369</v>
+        <v>96326</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6866,21 +6866,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>219862</v>
+        <v>219798</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6890,10 +6890,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664770.1427733348</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R57" t="n">
-        <v>6699440.935377424</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -6962,10 +6962,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748667</v>
+        <v>111748709</v>
       </c>
       <c r="B58" t="n">
-        <v>56543</v>
+        <v>96369</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6974,25 +6974,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>103021</v>
+        <v>219862</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7002,10 +7002,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664676.6366606337</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R58" t="n">
-        <v>6699021.943822397</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7074,10 +7074,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748684</v>
+        <v>111748705</v>
       </c>
       <c r="B59" t="n">
-        <v>96326</v>
+        <v>96369</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7090,21 +7090,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>219798</v>
+        <v>219862</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664604.7573992921</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R59" t="n">
-        <v>6698836.040565506</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748700</v>
+        <v>111748711</v>
       </c>
       <c r="B60" t="n">
-        <v>85089</v>
+        <v>96381</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7202,21 +7202,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3762</v>
+        <v>219874</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7226,10 +7226,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664853.490245176</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R60" t="n">
-        <v>6699352.175737353</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7298,10 +7298,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748773</v>
+        <v>111748684</v>
       </c>
       <c r="B61" t="n">
-        <v>85253</v>
+        <v>96326</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7314,21 +7314,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3674</v>
+        <v>219798</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7338,10 +7338,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664724.9064109002</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R61" t="n">
-        <v>6698919.69909039</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7410,10 +7410,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748708</v>
+        <v>111748713</v>
       </c>
       <c r="B62" t="n">
-        <v>96369</v>
+        <v>96381</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7426,16 +7426,16 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>219862</v>
+        <v>219874</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7450,10 +7450,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664872.0610342777</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R62" t="n">
-        <v>6699314.416695234</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7522,10 +7522,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748677</v>
+        <v>111748687</v>
       </c>
       <c r="B63" t="n">
-        <v>56414</v>
+        <v>96326</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7534,43 +7534,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100049</v>
+        <v>219798</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664615.8542000444</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R63" t="n">
-        <v>6699498.265643556</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7639,10 +7634,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748762</v>
+        <v>111748649</v>
       </c>
       <c r="B64" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7651,25 +7646,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7679,10 +7674,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664635.6605944363</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R64" t="n">
-        <v>6698854.271896686</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7751,7 +7746,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748641</v>
+        <v>111748640</v>
       </c>
       <c r="B65" t="n">
         <v>99413</v>
@@ -7791,10 +7786,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664626.8808813933</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R65" t="n">
-        <v>6699561.121136454</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7821,7 +7816,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7831,7 +7826,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7863,10 +7858,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748674</v>
+        <v>111748692</v>
       </c>
       <c r="B66" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7879,21 +7874,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7903,10 +7898,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664708.4139202497</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R66" t="n">
-        <v>6698857.079132927</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7975,10 +7970,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748644</v>
+        <v>111748773</v>
       </c>
       <c r="B67" t="n">
-        <v>99413</v>
+        <v>85253</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7991,21 +7986,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>221235</v>
+        <v>3674</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8015,10 +8010,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664676.080560883</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R67" t="n">
-        <v>6699066.958814406</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8045,7 +8040,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8055,7 +8050,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -8087,10 +8082,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748772</v>
+        <v>111748739</v>
       </c>
       <c r="B68" t="n">
-        <v>85253</v>
+        <v>103288</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8103,21 +8098,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3674</v>
+        <v>221144</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8127,10 +8122,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664599.8235772498</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R68" t="n">
-        <v>6698922.931241977</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8199,10 +8194,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748738</v>
+        <v>111748647</v>
       </c>
       <c r="B69" t="n">
-        <v>103288</v>
+        <v>88909</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8211,25 +8206,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>221144</v>
+        <v>720</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8239,10 +8234,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664658.7886288867</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R69" t="n">
-        <v>6699076.567729114</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8285,6 +8280,11 @@
       <c r="AB69" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8311,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748715</v>
+        <v>111748741</v>
       </c>
       <c r="B70" t="n">
-        <v>88956</v>
+        <v>103288</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8323,25 +8323,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5747</v>
+        <v>221144</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664855.4976383725</v>
+        <v>664568.8475301198</v>
       </c>
       <c r="R70" t="n">
-        <v>6699427.987196152</v>
+        <v>6699004.678774409</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748691</v>
+        <v>111748736</v>
       </c>
       <c r="B71" t="n">
-        <v>89183</v>
+        <v>88966</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3215</v>
+        <v>5754</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664620.6444729717</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R71" t="n">
-        <v>6699349.02459933</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8535,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748702</v>
+        <v>111748663</v>
       </c>
       <c r="B72" t="n">
-        <v>85089</v>
+        <v>101703</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8551,21 +8551,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3762</v>
+        <v>222412</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664852.3607732435</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R72" t="n">
-        <v>6699289.765398038</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748675</v>
+        <v>111748774</v>
       </c>
       <c r="B73" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8663,21 +8663,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664764.0858319701</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R73" t="n">
-        <v>6698952.165968419</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748644</v>
+        <v>111748665</v>
       </c>
       <c r="B2" t="n">
-        <v>99413</v>
+        <v>101703</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221235</v>
+        <v>222412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664676.080560883</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R2" t="n">
-        <v>6699066.958814406</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748667</v>
+        <v>111748739</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664676.6366606337</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R3" t="n">
-        <v>6699021.943822397</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748712</v>
+        <v>111748708</v>
       </c>
       <c r="B4" t="n">
-        <v>96381</v>
+        <v>96369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,16 +920,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219874</v>
+        <v>219862</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664826.5343673588</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R4" t="n">
-        <v>6699410.834182931</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748695</v>
+        <v>111748677</v>
       </c>
       <c r="B5" t="n">
-        <v>89183</v>
+        <v>56414</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,38 +1028,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3215</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664758.1487707719</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R5" t="n">
-        <v>6698951.896335257</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1086,7 +1091,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1101,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748708</v>
+        <v>111748642</v>
       </c>
       <c r="B6" t="n">
-        <v>96369</v>
+        <v>99413</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1149,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219862</v>
+        <v>221235</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664872.0610342777</v>
+        <v>664567.4272046218</v>
       </c>
       <c r="R6" t="n">
-        <v>6699314.416695234</v>
+        <v>6699538.628004844</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1198,7 +1203,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1213,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1240,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748760</v>
+        <v>111748700</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664590.5125486635</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R7" t="n">
-        <v>6699346.66743302</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1310,7 +1315,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1325,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1352,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748654</v>
+        <v>111748689</v>
       </c>
       <c r="B8" t="n">
-        <v>96370</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1373,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219847</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664579.5402544152</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R8" t="n">
-        <v>6698932.900203395</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1422,7 +1427,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1437,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1464,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748672</v>
+        <v>111748691</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1485,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1509,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664757.060744858</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R9" t="n">
-        <v>6699074.10032806</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1576,10 +1581,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748738</v>
+        <v>111748662</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>101703</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1597,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1621,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664658.7886288867</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R10" t="n">
-        <v>6699076.567729114</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1688,10 +1693,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748693</v>
+        <v>111748668</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1705,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1733,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664610.9204746395</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R11" t="n">
-        <v>6698842.259884536</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1800,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748772</v>
+        <v>111748737</v>
       </c>
       <c r="B12" t="n">
-        <v>85253</v>
+        <v>88918</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1817,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3674</v>
+        <v>5745</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664599.8235772498</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R12" t="n">
-        <v>6698922.931241977</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1894,6 +1899,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1912,10 +1918,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748664</v>
+        <v>111748692</v>
       </c>
       <c r="B13" t="n">
-        <v>101703</v>
+        <v>89183</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1934,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>3215</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664795.7286883136</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R13" t="n">
-        <v>6699183.258195299</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2024,10 +2030,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748674</v>
+        <v>111748693</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2046,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2070,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664708.4139202497</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R14" t="n">
-        <v>6698857.079132927</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2136,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748730</v>
+        <v>111748709</v>
       </c>
       <c r="B15" t="n">
-        <v>90674</v>
+        <v>96369</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2154,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2058</v>
+        <v>219862</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2182,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664867.8416141088</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R15" t="n">
-        <v>6699418.15535864</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2248,10 +2254,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748729</v>
+        <v>111748736</v>
       </c>
       <c r="B16" t="n">
-        <v>90674</v>
+        <v>88966</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2266,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2058</v>
+        <v>5754</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2294,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664589.6062576605</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R16" t="n">
-        <v>6699017.004385524</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2360,10 +2366,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748732</v>
+        <v>111748663</v>
       </c>
       <c r="B17" t="n">
-        <v>85290</v>
+        <v>101703</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2378,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6003295</v>
+        <v>222412</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2406,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664830.0022340771</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R17" t="n">
-        <v>6699214.511088434</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2472,10 +2478,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748665</v>
+        <v>111748654</v>
       </c>
       <c r="B18" t="n">
-        <v>101703</v>
+        <v>96370</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2494,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222412</v>
+        <v>219847</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2518,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664831.6371875083</v>
+        <v>664579.5402544152</v>
       </c>
       <c r="R18" t="n">
-        <v>6699658.507831291</v>
+        <v>6698932.900203395</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2584,10 +2590,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748642</v>
+        <v>111748675</v>
       </c>
       <c r="B19" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2606,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2630,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664567.4272046218</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R19" t="n">
-        <v>6699538.628004844</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2654,7 +2660,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2664,7 +2670,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2696,10 +2702,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748666</v>
+        <v>111748773</v>
       </c>
       <c r="B20" t="n">
-        <v>101703</v>
+        <v>85253</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2718,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222412</v>
+        <v>3674</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2742,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664762.3323740696</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R20" t="n">
-        <v>6698958.025865254</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2766,7 +2772,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2776,7 +2782,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2808,10 +2814,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748651</v>
+        <v>111748738</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>103288</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2820,25 +2826,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>221144</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2854,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664849.7319311691</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R21" t="n">
-        <v>6699314.886606451</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2920,10 +2926,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748731</v>
+        <v>111748759</v>
       </c>
       <c r="B22" t="n">
-        <v>90674</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2932,25 +2938,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2058</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2966,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664818.6562284525</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R22" t="n">
-        <v>6699322.382911628</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -2990,7 +2996,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3000,7 +3006,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3032,10 +3038,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748668</v>
+        <v>111748666</v>
       </c>
       <c r="B23" t="n">
-        <v>56543</v>
+        <v>101703</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3044,25 +3050,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>222412</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3072,10 +3078,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664732.4426041286</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R23" t="n">
-        <v>6698939.344871927</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3102,7 +3108,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3112,7 +3118,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3144,10 +3150,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748669</v>
+        <v>111748761</v>
       </c>
       <c r="B24" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3160,21 +3166,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3184,10 +3190,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664686.8541501703</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R24" t="n">
-        <v>6699080.811365802</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3214,7 +3220,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3224,7 +3230,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3256,10 +3262,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748735</v>
+        <v>111748672</v>
       </c>
       <c r="B25" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3268,25 +3274,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3302,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664801.9547313601</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R25" t="n">
-        <v>6699384.477357466</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748643</v>
+        <v>111748641</v>
       </c>
       <c r="B26" t="n">
         <v>99413</v>
@@ -3408,10 +3414,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664631.4714806431</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R26" t="n">
-        <v>6699427.215353329</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3480,10 +3486,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748737</v>
+        <v>111748764</v>
       </c>
       <c r="B27" t="n">
-        <v>88918</v>
+        <v>98535</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3492,25 +3498,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5745</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3520,10 +3526,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664808.6128849701</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R27" t="n">
-        <v>6699172.460106185</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3550,7 +3556,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3560,7 +3566,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3574,7 +3580,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3593,10 +3598,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748690</v>
+        <v>111748715</v>
       </c>
       <c r="B28" t="n">
-        <v>89183</v>
+        <v>88956</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3605,25 +3610,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3215</v>
+        <v>5747</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3633,10 +3638,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664698.8371583781</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R28" t="n">
-        <v>6699057.103091458</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3705,10 +3710,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748715</v>
+        <v>111748713</v>
       </c>
       <c r="B29" t="n">
-        <v>88956</v>
+        <v>96381</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3717,25 +3722,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5747</v>
+        <v>219874</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3745,10 +3750,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664855.4976383725</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R29" t="n">
-        <v>6699427.987196152</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3775,7 +3780,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3785,7 +3790,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3817,10 +3822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748702</v>
+        <v>111748705</v>
       </c>
       <c r="B30" t="n">
-        <v>85089</v>
+        <v>96369</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3833,21 +3838,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3762</v>
+        <v>219862</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3857,10 +3862,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664852.3607732435</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R30" t="n">
-        <v>6699289.765398038</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3929,10 +3934,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748677</v>
+        <v>111748742</v>
       </c>
       <c r="B31" t="n">
-        <v>56414</v>
+        <v>93248</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3941,31 +3946,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100049</v>
+        <v>210</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3974,10 +3978,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664615.8542000444</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R31" t="n">
-        <v>6699498.265643556</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4004,7 +4008,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4014,7 +4018,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4046,10 +4050,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748742</v>
+        <v>111748740</v>
       </c>
       <c r="B32" t="n">
-        <v>93248</v>
+        <v>103288</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,38 +4066,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>210</v>
+        <v>221144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664616.566347321</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R32" t="n">
-        <v>6698848.950711449</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748761</v>
+        <v>111748687</v>
       </c>
       <c r="B33" t="n">
-        <v>98535</v>
+        <v>96326</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4178,21 +4178,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>219798</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4202,10 +4202,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664669.2408998127</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R33" t="n">
-        <v>6699042.890928292</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748759</v>
+        <v>111748648</v>
       </c>
       <c r="B34" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4286,25 +4286,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664565.3140634815</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R34" t="n">
-        <v>6699541.501402936</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748675</v>
+        <v>111748732</v>
       </c>
       <c r="B35" t="n">
-        <v>90332</v>
+        <v>85290</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4398,25 +4398,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4769</v>
+        <v>6003295</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4426,10 +4426,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664764.0858319701</v>
+        <v>664830.0022340771</v>
       </c>
       <c r="R35" t="n">
-        <v>6698952.165968419</v>
+        <v>6699214.511088434</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4498,10 +4498,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748683</v>
+        <v>111748772</v>
       </c>
       <c r="B36" t="n">
-        <v>96266</v>
+        <v>85253</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4514,21 +4514,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>223591</v>
+        <v>3674</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4538,10 +4538,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664638.5631493796</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R36" t="n">
-        <v>6699489.398619195</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4610,10 +4610,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748707</v>
+        <v>111748651</v>
       </c>
       <c r="B37" t="n">
-        <v>96369</v>
+        <v>89405</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4622,25 +4622,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>219862</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664850.52293942</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R37" t="n">
-        <v>6699362.928853855</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748673</v>
+        <v>111748690</v>
       </c>
       <c r="B38" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4738,21 +4738,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4762,10 +4762,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664574.9395623421</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R38" t="n">
-        <v>6698990.601510798</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748740</v>
+        <v>111748674</v>
       </c>
       <c r="B39" t="n">
-        <v>103288</v>
+        <v>90332</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4850,21 +4850,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221144</v>
+        <v>4769</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4874,10 +4874,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664604.2181931254</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R39" t="n">
-        <v>6699274.042581626</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4946,10 +4946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748703</v>
+        <v>111748762</v>
       </c>
       <c r="B40" t="n">
-        <v>85089</v>
+        <v>98535</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4962,21 +4962,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4986,10 +4986,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664569.3144499823</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R40" t="n">
-        <v>6698972.52796749</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5058,10 +5058,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748700</v>
+        <v>111748669</v>
       </c>
       <c r="B41" t="n">
-        <v>85089</v>
+        <v>90332</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5074,21 +5074,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664853.490245176</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R41" t="n">
-        <v>6699352.175737353</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5170,10 +5170,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748691</v>
+        <v>111748643</v>
       </c>
       <c r="B42" t="n">
-        <v>89183</v>
+        <v>99413</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5186,21 +5186,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3215</v>
+        <v>221235</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5210,10 +5210,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664620.6444729717</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R42" t="n">
-        <v>6699349.02459933</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5282,10 +5282,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748762</v>
+        <v>111748644</v>
       </c>
       <c r="B43" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5298,21 +5298,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664635.6605944363</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R43" t="n">
-        <v>6698854.271896686</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5394,10 +5394,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748671</v>
+        <v>111748650</v>
       </c>
       <c r="B44" t="n">
-        <v>90332</v>
+        <v>94134</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5406,25 +5406,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4769</v>
+        <v>53</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664638.2983129583</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R44" t="n">
-        <v>6699364.178068399</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5506,10 +5506,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748650</v>
+        <v>111748707</v>
       </c>
       <c r="B45" t="n">
-        <v>94134</v>
+        <v>96369</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5518,25 +5518,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53</v>
+        <v>219862</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5546,10 +5546,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664567.5443468138</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R45" t="n">
-        <v>6699011.548972152</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5618,10 +5618,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748771</v>
+        <v>111748712</v>
       </c>
       <c r="B46" t="n">
-        <v>85253</v>
+        <v>96381</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5634,21 +5634,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3674</v>
+        <v>219874</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664803.0104039316</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R46" t="n">
-        <v>6699372.152713455</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748704</v>
+        <v>111748765</v>
       </c>
       <c r="B47" t="n">
-        <v>85089</v>
+        <v>90660</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,25 +5742,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3762</v>
+        <v>4362</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664771.2603847764</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R47" t="n">
-        <v>6698957.93638737</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748641</v>
+        <v>111748760</v>
       </c>
       <c r="B48" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5858,21 +5858,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5882,10 +5882,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664626.8808813933</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R48" t="n">
-        <v>6699561.121136454</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748764</v>
+        <v>111748647</v>
       </c>
       <c r="B49" t="n">
-        <v>98535</v>
+        <v>88909</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5966,25 +5966,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>720</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664769.3711021288</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R49" t="n">
-        <v>6698955.870736851</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6034,12 +6034,17 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6066,10 +6071,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748648</v>
+        <v>111748711</v>
       </c>
       <c r="B50" t="n">
-        <v>94134</v>
+        <v>96381</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6078,25 +6083,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>53</v>
+        <v>219874</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6106,10 +6111,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664655.3316318352</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R50" t="n">
-        <v>6699447.599252445</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6136,7 +6141,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6146,7 +6151,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6178,10 +6183,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748686</v>
+        <v>111748771</v>
       </c>
       <c r="B51" t="n">
-        <v>96326</v>
+        <v>85253</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6194,21 +6199,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>219798</v>
+        <v>3674</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6218,10 +6223,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664675.2689733801</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R51" t="n">
-        <v>6699052.073605827</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6248,7 +6253,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6258,7 +6263,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6290,10 +6295,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748670</v>
+        <v>111748731</v>
       </c>
       <c r="B52" t="n">
-        <v>90332</v>
+        <v>90674</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6302,25 +6307,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4769</v>
+        <v>2058</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6330,10 +6335,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664583.6729684926</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R52" t="n">
-        <v>6699322.601555262</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6402,10 +6407,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748765</v>
+        <v>111748688</v>
       </c>
       <c r="B53" t="n">
-        <v>90660</v>
+        <v>96326</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6414,25 +6419,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4362</v>
+        <v>219798</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6447,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664575.0291913702</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R53" t="n">
-        <v>6698988.625762361</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6472,7 +6477,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6482,7 +6487,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6514,10 +6519,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748689</v>
+        <v>111748667</v>
       </c>
       <c r="B54" t="n">
-        <v>90678</v>
+        <v>56543</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6526,25 +6531,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4366</v>
+        <v>103021</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6559,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664821.6049801367</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R54" t="n">
-        <v>6699355.67585695</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6626,10 +6631,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748770</v>
+        <v>111748704</v>
       </c>
       <c r="B55" t="n">
-        <v>85253</v>
+        <v>85089</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6642,21 +6647,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3674</v>
+        <v>3762</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6666,10 +6671,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664698.8371583781</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R55" t="n">
-        <v>6699057.103091458</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6738,10 +6743,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748662</v>
+        <v>111748703</v>
       </c>
       <c r="B56" t="n">
-        <v>101703</v>
+        <v>85089</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6754,21 +6759,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222412</v>
+        <v>3762</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6778,10 +6783,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664770.1427733348</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R56" t="n">
-        <v>6699440.935377424</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6850,7 +6855,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748688</v>
+        <v>111748686</v>
       </c>
       <c r="B57" t="n">
         <v>96326</v>
@@ -6890,10 +6895,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664770.4952141214</v>
+        <v>664675.2689733801</v>
       </c>
       <c r="R57" t="n">
-        <v>6698952.952024489</v>
+        <v>6699052.073605827</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6962,10 +6967,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748709</v>
+        <v>111748735</v>
       </c>
       <c r="B58" t="n">
-        <v>96369</v>
+        <v>88966</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6974,25 +6979,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>219862</v>
+        <v>5754</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7002,10 +7007,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664847.7700305003</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R58" t="n">
-        <v>6699248.973355746</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7074,10 +7079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748705</v>
+        <v>111748684</v>
       </c>
       <c r="B59" t="n">
-        <v>96369</v>
+        <v>96326</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7090,21 +7095,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>219862</v>
+        <v>219798</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7114,10 +7119,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664770.1427733348</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R59" t="n">
-        <v>6699440.935377424</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7186,10 +7191,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748711</v>
+        <v>111748664</v>
       </c>
       <c r="B60" t="n">
-        <v>96381</v>
+        <v>101703</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7202,21 +7207,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>219874</v>
+        <v>222412</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7226,10 +7231,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664758.9699501268</v>
+        <v>664795.7286883136</v>
       </c>
       <c r="R60" t="n">
-        <v>6699053.894244161</v>
+        <v>6699183.258195299</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7298,10 +7303,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748684</v>
+        <v>111748695</v>
       </c>
       <c r="B61" t="n">
-        <v>96326</v>
+        <v>89183</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7314,21 +7319,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>219798</v>
+        <v>3215</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7338,10 +7343,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664604.7573992921</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R61" t="n">
-        <v>6698836.040565506</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7410,10 +7415,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748713</v>
+        <v>111748770</v>
       </c>
       <c r="B62" t="n">
-        <v>96381</v>
+        <v>85253</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7426,21 +7431,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>219874</v>
+        <v>3674</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7450,10 +7455,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664764.1319274458</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R62" t="n">
-        <v>6698962.067276149</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7480,7 +7485,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7490,7 +7495,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7522,10 +7527,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748687</v>
+        <v>111748640</v>
       </c>
       <c r="B63" t="n">
-        <v>96326</v>
+        <v>99413</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7538,21 +7543,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>219798</v>
+        <v>221235</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7562,10 +7567,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664642.3199653549</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R63" t="n">
-        <v>6698871.403136684</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7592,7 +7597,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -7602,7 +7607,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -7634,10 +7639,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748649</v>
+        <v>111748670</v>
       </c>
       <c r="B64" t="n">
-        <v>94134</v>
+        <v>90332</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7646,25 +7651,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>53</v>
+        <v>4769</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7674,10 +7679,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664603.5764787464</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R64" t="n">
-        <v>6699342.806076139</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7704,7 +7709,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7714,7 +7719,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -7746,10 +7751,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748640</v>
+        <v>111748729</v>
       </c>
       <c r="B65" t="n">
-        <v>99413</v>
+        <v>90674</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7758,25 +7763,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221235</v>
+        <v>2058</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7786,10 +7791,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664568.5768465291</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R65" t="n">
-        <v>6698999.716977227</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7858,10 +7863,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748692</v>
+        <v>111748673</v>
       </c>
       <c r="B66" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7874,21 +7879,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7898,10 +7903,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664778.1089783342</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R66" t="n">
-        <v>6699069.116974886</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7970,10 +7975,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748773</v>
+        <v>111748683</v>
       </c>
       <c r="B67" t="n">
-        <v>85253</v>
+        <v>96266</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7986,21 +7991,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3674</v>
+        <v>223591</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8010,10 +8015,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664724.9064109002</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R67" t="n">
-        <v>6698919.69909039</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8040,7 +8045,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8050,7 +8055,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -8082,10 +8087,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748739</v>
+        <v>111748671</v>
       </c>
       <c r="B68" t="n">
-        <v>103288</v>
+        <v>90332</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8098,21 +8103,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>221144</v>
+        <v>4769</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8122,10 +8127,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664649.5501774848</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R68" t="n">
-        <v>6699105.349934292</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8194,10 +8199,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748647</v>
+        <v>111748741</v>
       </c>
       <c r="B69" t="n">
-        <v>88909</v>
+        <v>103288</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8206,25 +8211,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>720</v>
+        <v>221144</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8234,10 +8239,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664820.8300099263</v>
+        <v>664568.8475301198</v>
       </c>
       <c r="R69" t="n">
-        <v>6699241.810120963</v>
+        <v>6699004.678774409</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8280,11 +8285,6 @@
       <c r="AB69" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8311,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748741</v>
+        <v>111748702</v>
       </c>
       <c r="B70" t="n">
-        <v>103288</v>
+        <v>85089</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8327,21 +8327,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221144</v>
+        <v>3762</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664568.8475301198</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R70" t="n">
-        <v>6699004.678774409</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748736</v>
+        <v>111748730</v>
       </c>
       <c r="B71" t="n">
-        <v>88966</v>
+        <v>90674</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5754</v>
+        <v>2058</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664803.3322592583</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R71" t="n">
-        <v>6699212.309487404</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8535,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748663</v>
+        <v>111748774</v>
       </c>
       <c r="B72" t="n">
-        <v>101703</v>
+        <v>85253</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8551,21 +8551,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>222412</v>
+        <v>3674</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664850.306320559</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R72" t="n">
-        <v>6699193.161951311</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748774</v>
+        <v>111748649</v>
       </c>
       <c r="B73" t="n">
-        <v>85253</v>
+        <v>94134</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8659,25 +8659,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3674</v>
+        <v>53</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664776.9458788878</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R73" t="n">
-        <v>6698920.082440153</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748665</v>
+        <v>111748663</v>
       </c>
       <c r="B2" t="n">
         <v>101703</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664831.6371875083</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R2" t="n">
-        <v>6699658.507831291</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748739</v>
+        <v>111748759</v>
       </c>
       <c r="B3" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664649.5501774848</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R3" t="n">
-        <v>6699105.349934292</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748708</v>
+        <v>111748702</v>
       </c>
       <c r="B4" t="n">
-        <v>96369</v>
+        <v>85089</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219862</v>
+        <v>3762</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664872.0610342777</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R4" t="n">
-        <v>6699314.416695234</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748677</v>
+        <v>111748740</v>
       </c>
       <c r="B5" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,43 +1028,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664615.8542000444</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R5" t="n">
-        <v>6699498.265643556</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1091,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1101,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1133,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748642</v>
+        <v>111748640</v>
       </c>
       <c r="B6" t="n">
         <v>99413</v>
@@ -1173,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664567.4272046218</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R6" t="n">
-        <v>6699538.628004844</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1203,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1213,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1245,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748700</v>
+        <v>111748690</v>
       </c>
       <c r="B7" t="n">
-        <v>85089</v>
+        <v>89183</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3762</v>
+        <v>3215</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664853.490245176</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R7" t="n">
-        <v>6699352.175737353</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1357,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748689</v>
+        <v>111748686</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>96326</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>219798</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664821.6049801367</v>
+        <v>664675.2689733801</v>
       </c>
       <c r="R8" t="n">
-        <v>6699355.67585695</v>
+        <v>6699052.073605827</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1427,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1437,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1469,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748691</v>
+        <v>111748666</v>
       </c>
       <c r="B9" t="n">
-        <v>89183</v>
+        <v>101703</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3215</v>
+        <v>222412</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1509,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664620.6444729717</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R9" t="n">
-        <v>6699349.02459933</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1539,7 +1534,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1549,7 +1544,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1581,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748662</v>
+        <v>111748731</v>
       </c>
       <c r="B10" t="n">
-        <v>101703</v>
+        <v>90674</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1593,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222412</v>
+        <v>2058</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1621,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664770.1427733348</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R10" t="n">
-        <v>6699440.935377424</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1693,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748668</v>
+        <v>111748761</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>98535</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1705,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1733,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664732.4426041286</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R11" t="n">
-        <v>6698939.344871927</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1763,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1773,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1805,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748737</v>
+        <v>111748709</v>
       </c>
       <c r="B12" t="n">
-        <v>88918</v>
+        <v>96369</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5745</v>
+        <v>219862</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664808.6128849701</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R12" t="n">
-        <v>6699172.460106185</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1899,7 +1894,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1918,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748692</v>
+        <v>111748742</v>
       </c>
       <c r="B13" t="n">
-        <v>89183</v>
+        <v>93248</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1934,34 +1928,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3215</v>
+        <v>210</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664778.1089783342</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R13" t="n">
-        <v>6699069.116974886</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2030,7 +2028,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748693</v>
+        <v>111748695</v>
       </c>
       <c r="B14" t="n">
         <v>89183</v>
@@ -2070,10 +2068,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664610.9204746395</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R14" t="n">
-        <v>6698842.259884536</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2142,10 +2140,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748709</v>
+        <v>111748773</v>
       </c>
       <c r="B15" t="n">
-        <v>96369</v>
+        <v>85253</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2158,21 +2156,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219862</v>
+        <v>3674</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2182,10 +2180,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664847.7700305003</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R15" t="n">
-        <v>6699248.973355746</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2254,10 +2252,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748736</v>
+        <v>111748669</v>
       </c>
       <c r="B16" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2266,25 +2264,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2294,10 +2292,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664803.3322592583</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R16" t="n">
-        <v>6699212.309487404</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2366,10 +2364,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748663</v>
+        <v>111748692</v>
       </c>
       <c r="B17" t="n">
-        <v>101703</v>
+        <v>89183</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2382,21 +2380,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222412</v>
+        <v>3215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2406,10 +2404,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664850.306320559</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R17" t="n">
-        <v>6699193.161951311</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2590,10 +2588,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748675</v>
+        <v>111748713</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>96381</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2606,21 +2604,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>219874</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2630,10 +2628,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664764.0858319701</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R19" t="n">
-        <v>6698952.165968419</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2660,7 +2658,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2670,7 +2668,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2702,10 +2700,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748773</v>
+        <v>111748668</v>
       </c>
       <c r="B20" t="n">
-        <v>85253</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2714,25 +2712,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3674</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2742,10 +2740,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664724.9064109002</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R20" t="n">
-        <v>6698919.69909039</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2814,10 +2812,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748738</v>
+        <v>111748673</v>
       </c>
       <c r="B21" t="n">
-        <v>103288</v>
+        <v>90332</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2830,21 +2828,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221144</v>
+        <v>4769</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2854,10 +2852,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664658.7886288867</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R21" t="n">
-        <v>6699076.567729114</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2926,7 +2924,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748759</v>
+        <v>111748762</v>
       </c>
       <c r="B22" t="n">
         <v>98535</v>
@@ -2966,10 +2964,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664565.3140634815</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R22" t="n">
-        <v>6699541.501402936</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3038,10 +3036,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748666</v>
+        <v>111748765</v>
       </c>
       <c r="B23" t="n">
-        <v>101703</v>
+        <v>90660</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3050,25 +3048,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222412</v>
+        <v>4362</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3078,10 +3076,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664762.3323740696</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R23" t="n">
-        <v>6698958.025865254</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3108,7 +3106,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3118,7 +3116,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3150,10 +3148,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748761</v>
+        <v>111748688</v>
       </c>
       <c r="B24" t="n">
-        <v>98535</v>
+        <v>96326</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3166,21 +3164,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>219798</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3190,10 +3188,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664669.2408998127</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R24" t="n">
-        <v>6699042.890928292</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3262,10 +3260,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748672</v>
+        <v>111748738</v>
       </c>
       <c r="B25" t="n">
-        <v>90332</v>
+        <v>103288</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3278,21 +3276,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4769</v>
+        <v>221144</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3302,10 +3300,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664757.060744858</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R25" t="n">
-        <v>6699074.10032806</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3374,10 +3372,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748641</v>
+        <v>111748712</v>
       </c>
       <c r="B26" t="n">
-        <v>99413</v>
+        <v>96381</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3390,21 +3388,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221235</v>
+        <v>219874</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3414,10 +3412,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664626.8808813933</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R26" t="n">
-        <v>6699561.121136454</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3444,7 +3442,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3454,7 +3452,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3486,10 +3484,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748764</v>
+        <v>111748732</v>
       </c>
       <c r="B27" t="n">
-        <v>98535</v>
+        <v>85290</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3498,25 +3496,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>6003295</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3526,10 +3524,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664769.3711021288</v>
+        <v>664830.0022340771</v>
       </c>
       <c r="R27" t="n">
-        <v>6698955.870736851</v>
+        <v>6699214.511088434</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3556,7 +3554,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3566,7 +3564,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3598,10 +3596,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748715</v>
+        <v>111748674</v>
       </c>
       <c r="B28" t="n">
-        <v>88956</v>
+        <v>90332</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3610,25 +3608,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5747</v>
+        <v>4769</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3638,10 +3636,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664855.4976383725</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R28" t="n">
-        <v>6699427.987196152</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3710,10 +3708,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748713</v>
+        <v>111748693</v>
       </c>
       <c r="B29" t="n">
-        <v>96381</v>
+        <v>89183</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3726,21 +3724,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219874</v>
+        <v>3215</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3750,10 +3748,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664764.1319274458</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R29" t="n">
-        <v>6698962.067276149</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3780,7 +3778,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3790,7 +3788,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3822,10 +3820,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748705</v>
+        <v>111748711</v>
       </c>
       <c r="B30" t="n">
-        <v>96369</v>
+        <v>96381</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3838,16 +3836,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>219862</v>
+        <v>219874</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3862,10 +3860,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664770.1427733348</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R30" t="n">
-        <v>6699440.935377424</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3934,10 +3932,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748742</v>
+        <v>111748641</v>
       </c>
       <c r="B31" t="n">
-        <v>93248</v>
+        <v>99413</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3950,38 +3948,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>210</v>
+        <v>221235</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664616.566347321</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R31" t="n">
-        <v>6698848.950711449</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4008,7 +4002,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4018,7 +4012,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4050,10 +4044,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748740</v>
+        <v>111748736</v>
       </c>
       <c r="B32" t="n">
-        <v>103288</v>
+        <v>88966</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,25 +4056,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221144</v>
+        <v>5754</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4090,10 +4084,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664604.2181931254</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R32" t="n">
-        <v>6699274.042581626</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4162,10 +4156,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748687</v>
+        <v>111748704</v>
       </c>
       <c r="B33" t="n">
-        <v>96326</v>
+        <v>85089</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4178,21 +4172,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>219798</v>
+        <v>3762</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4202,10 +4196,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664642.3199653549</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R33" t="n">
-        <v>6698871.403136684</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4232,7 +4226,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4242,7 +4236,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4274,10 +4268,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748648</v>
+        <v>111748730</v>
       </c>
       <c r="B34" t="n">
-        <v>94134</v>
+        <v>90674</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4286,25 +4280,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53</v>
+        <v>2058</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4314,10 +4308,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664655.3316318352</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R34" t="n">
-        <v>6699447.599252445</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4344,7 +4338,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4354,7 +4348,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4386,10 +4380,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748732</v>
+        <v>111748691</v>
       </c>
       <c r="B35" t="n">
-        <v>85290</v>
+        <v>89183</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4398,25 +4392,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6003295</v>
+        <v>3215</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4426,10 +4420,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664830.0022340771</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R35" t="n">
-        <v>6699214.511088434</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4498,10 +4492,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748772</v>
+        <v>111748644</v>
       </c>
       <c r="B36" t="n">
-        <v>85253</v>
+        <v>99413</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4514,21 +4508,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3674</v>
+        <v>221235</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4538,10 +4532,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664599.8235772498</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R36" t="n">
-        <v>6698922.931241977</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4568,7 +4562,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4578,7 +4572,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4610,10 +4604,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748651</v>
+        <v>111748703</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>85089</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4622,25 +4616,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>3762</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4650,10 +4644,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664849.7319311691</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R37" t="n">
-        <v>6699314.886606451</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4722,10 +4716,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748690</v>
+        <v>111748708</v>
       </c>
       <c r="B38" t="n">
-        <v>89183</v>
+        <v>96369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4738,21 +4732,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3215</v>
+        <v>219862</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4762,10 +4756,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664698.8371583781</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R38" t="n">
-        <v>6699057.103091458</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4834,10 +4828,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748674</v>
+        <v>111748760</v>
       </c>
       <c r="B39" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4850,21 +4844,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4874,10 +4868,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664708.4139202497</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R39" t="n">
-        <v>6698857.079132927</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4904,7 +4898,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4914,7 +4908,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -4946,10 +4940,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748762</v>
+        <v>111748649</v>
       </c>
       <c r="B40" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4958,25 +4952,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4986,10 +4980,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664635.6605944363</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R40" t="n">
-        <v>6698854.271896686</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5058,10 +5052,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748669</v>
+        <v>111748683</v>
       </c>
       <c r="B41" t="n">
-        <v>90332</v>
+        <v>96266</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5074,21 +5068,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4769</v>
+        <v>223591</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5098,10 +5092,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664686.8541501703</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R41" t="n">
-        <v>6699080.811365802</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5128,7 +5122,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5138,7 +5132,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5170,10 +5164,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748643</v>
+        <v>111748737</v>
       </c>
       <c r="B42" t="n">
-        <v>99413</v>
+        <v>88918</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5182,25 +5176,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221235</v>
+        <v>5745</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5210,10 +5204,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664631.4714806431</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R42" t="n">
-        <v>6699427.215353329</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5240,7 +5234,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5250,7 +5244,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5264,6 +5258,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5282,10 +5277,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748644</v>
+        <v>111748671</v>
       </c>
       <c r="B43" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5298,21 +5293,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5322,10 +5317,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664676.080560883</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R43" t="n">
-        <v>6699066.958814406</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5352,7 +5347,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5362,7 +5357,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5394,10 +5389,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748650</v>
+        <v>111748772</v>
       </c>
       <c r="B44" t="n">
-        <v>94134</v>
+        <v>85253</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5406,25 +5401,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>3674</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5434,10 +5429,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664567.5443468138</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R44" t="n">
-        <v>6699011.548972152</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5464,7 +5459,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5474,7 +5469,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5506,10 +5501,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748707</v>
+        <v>111748687</v>
       </c>
       <c r="B45" t="n">
-        <v>96369</v>
+        <v>96326</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5522,21 +5517,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>219862</v>
+        <v>219798</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5546,10 +5541,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664850.52293942</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R45" t="n">
-        <v>6699362.928853855</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5576,7 +5571,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5586,7 +5581,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5618,10 +5613,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748712</v>
+        <v>111748647</v>
       </c>
       <c r="B46" t="n">
-        <v>96381</v>
+        <v>88909</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5630,25 +5625,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>219874</v>
+        <v>720</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5658,10 +5653,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664826.5343673588</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R46" t="n">
-        <v>6699410.834182931</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5704,6 +5699,11 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5730,10 +5730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748765</v>
+        <v>111748707</v>
       </c>
       <c r="B47" t="n">
-        <v>90660</v>
+        <v>96369</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,25 +5742,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4362</v>
+        <v>219862</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664575.0291913702</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R47" t="n">
-        <v>6698988.625762361</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748760</v>
+        <v>111748689</v>
       </c>
       <c r="B48" t="n">
-        <v>98535</v>
+        <v>90678</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5858,21 +5858,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5882,10 +5882,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664590.5125486635</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R48" t="n">
-        <v>6699346.66743302</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -5954,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748647</v>
+        <v>111748729</v>
       </c>
       <c r="B49" t="n">
-        <v>88909</v>
+        <v>90674</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5970,21 +5970,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664820.8300099263</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R49" t="n">
-        <v>6699241.810120963</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6040,11 +6040,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6071,10 +6066,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748711</v>
+        <v>111748770</v>
       </c>
       <c r="B50" t="n">
-        <v>96381</v>
+        <v>85253</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6087,21 +6082,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>219874</v>
+        <v>3674</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6111,10 +6106,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664758.9699501268</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R50" t="n">
-        <v>6699053.894244161</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6183,10 +6178,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748771</v>
+        <v>111748672</v>
       </c>
       <c r="B51" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6199,21 +6194,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6223,10 +6218,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664803.0104039316</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R51" t="n">
-        <v>6699372.152713455</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6295,10 +6290,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748731</v>
+        <v>111748662</v>
       </c>
       <c r="B52" t="n">
-        <v>90674</v>
+        <v>101703</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6307,25 +6302,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2058</v>
+        <v>222412</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6335,10 +6330,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664818.6562284525</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R52" t="n">
-        <v>6699322.382911628</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6407,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748688</v>
+        <v>111748664</v>
       </c>
       <c r="B53" t="n">
-        <v>96326</v>
+        <v>101703</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6423,21 +6418,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>219798</v>
+        <v>222412</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6447,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664770.4952141214</v>
+        <v>664795.7286883136</v>
       </c>
       <c r="R53" t="n">
-        <v>6698952.952024489</v>
+        <v>6699183.258195299</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6477,7 +6472,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6487,7 +6482,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6519,10 +6514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748667</v>
+        <v>111748771</v>
       </c>
       <c r="B54" t="n">
-        <v>56543</v>
+        <v>85253</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6531,25 +6526,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>103021</v>
+        <v>3674</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6559,10 +6554,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664676.6366606337</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R54" t="n">
-        <v>6699021.943822397</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6631,10 +6626,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748704</v>
+        <v>111748670</v>
       </c>
       <c r="B55" t="n">
-        <v>85089</v>
+        <v>90332</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6647,21 +6642,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6671,10 +6666,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664771.2603847764</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R55" t="n">
-        <v>6698957.93638737</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6743,10 +6738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748703</v>
+        <v>111748651</v>
       </c>
       <c r="B56" t="n">
-        <v>85089</v>
+        <v>89405</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6755,25 +6750,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3762</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6783,10 +6778,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664569.3144499823</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R56" t="n">
-        <v>6698972.52796749</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6855,7 +6850,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748686</v>
+        <v>111748684</v>
       </c>
       <c r="B57" t="n">
         <v>96326</v>
@@ -6895,10 +6890,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664675.2689733801</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R57" t="n">
-        <v>6699052.073605827</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6925,7 +6920,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -6935,7 +6930,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -6967,10 +6962,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748735</v>
+        <v>111748643</v>
       </c>
       <c r="B58" t="n">
-        <v>88966</v>
+        <v>99413</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6979,25 +6974,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5754</v>
+        <v>221235</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7007,10 +7002,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664801.9547313601</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R58" t="n">
-        <v>6699384.477357466</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7037,7 +7032,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7047,7 +7042,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7079,10 +7074,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748684</v>
+        <v>111748675</v>
       </c>
       <c r="B59" t="n">
-        <v>96326</v>
+        <v>90332</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7095,21 +7090,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>219798</v>
+        <v>4769</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7119,10 +7114,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664604.7573992921</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R59" t="n">
-        <v>6698836.040565506</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7191,10 +7186,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748664</v>
+        <v>111748735</v>
       </c>
       <c r="B60" t="n">
-        <v>101703</v>
+        <v>88966</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7203,25 +7198,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222412</v>
+        <v>5754</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7231,10 +7226,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664795.7286883136</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R60" t="n">
-        <v>6699183.258195299</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7303,10 +7298,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748695</v>
+        <v>111748648</v>
       </c>
       <c r="B61" t="n">
-        <v>89183</v>
+        <v>94134</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7315,25 +7310,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3215</v>
+        <v>53</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7343,10 +7338,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664758.1487707719</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R61" t="n">
-        <v>6698951.896335257</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7373,7 +7368,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7383,7 +7378,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7415,10 +7410,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748770</v>
+        <v>111748677</v>
       </c>
       <c r="B62" t="n">
-        <v>85253</v>
+        <v>56414</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7427,38 +7422,43 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3674</v>
+        <v>100049</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664698.8371583781</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R62" t="n">
-        <v>6699057.103091458</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7527,10 +7527,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748640</v>
+        <v>111748739</v>
       </c>
       <c r="B63" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7543,21 +7543,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7567,10 +7567,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664568.5768465291</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R63" t="n">
-        <v>6698999.716977227</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7639,10 +7639,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748670</v>
+        <v>111748700</v>
       </c>
       <c r="B64" t="n">
-        <v>90332</v>
+        <v>85089</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7655,21 +7655,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7679,10 +7679,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664583.6729684926</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R64" t="n">
-        <v>6699322.601555262</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7751,10 +7751,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748729</v>
+        <v>111748705</v>
       </c>
       <c r="B65" t="n">
-        <v>90674</v>
+        <v>96369</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7763,25 +7763,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2058</v>
+        <v>219862</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7791,10 +7791,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664589.6062576605</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R65" t="n">
-        <v>6699017.004385524</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7863,10 +7863,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748673</v>
+        <v>111748667</v>
       </c>
       <c r="B66" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664574.9395623421</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R66" t="n">
-        <v>6698990.601510798</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7975,10 +7975,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748683</v>
+        <v>111748774</v>
       </c>
       <c r="B67" t="n">
-        <v>96266</v>
+        <v>85253</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7991,21 +7991,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>223591</v>
+        <v>3674</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8015,10 +8015,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664638.5631493796</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R67" t="n">
-        <v>6699489.398619195</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -8087,10 +8087,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748671</v>
+        <v>111748764</v>
       </c>
       <c r="B68" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8103,21 +8103,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8127,10 +8127,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664638.2983129583</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R68" t="n">
-        <v>6699364.178068399</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8311,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748702</v>
+        <v>111748642</v>
       </c>
       <c r="B70" t="n">
-        <v>85089</v>
+        <v>99413</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8327,21 +8327,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3762</v>
+        <v>221235</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664852.3607732435</v>
+        <v>664567.4272046218</v>
       </c>
       <c r="R70" t="n">
-        <v>6699289.765398038</v>
+        <v>6699538.628004844</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -8423,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748730</v>
+        <v>111748665</v>
       </c>
       <c r="B71" t="n">
-        <v>90674</v>
+        <v>101703</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2058</v>
+        <v>222412</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664867.8416141088</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R71" t="n">
-        <v>6699418.15535864</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8535,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748774</v>
+        <v>111748715</v>
       </c>
       <c r="B72" t="n">
-        <v>85253</v>
+        <v>88956</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8547,25 +8547,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3674</v>
+        <v>5747</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664776.9458788878</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R72" t="n">
-        <v>6698920.082440153</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748649</v>
+        <v>111748650</v>
       </c>
       <c r="B73" t="n">
         <v>94134</v>
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664603.5764787464</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R73" t="n">
-        <v>6699342.806076139</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -4044,10 +4044,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748736</v>
+        <v>111748730</v>
       </c>
       <c r="B32" t="n">
-        <v>88966</v>
+        <v>90674</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5754</v>
+        <v>2058</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664803.3322592583</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R32" t="n">
-        <v>6699212.309487404</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748704</v>
+        <v>111748691</v>
       </c>
       <c r="B33" t="n">
-        <v>85089</v>
+        <v>89183</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4172,21 +4172,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3762</v>
+        <v>3215</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4196,10 +4196,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664771.2603847764</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R33" t="n">
-        <v>6698957.93638737</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748730</v>
+        <v>111748644</v>
       </c>
       <c r="B34" t="n">
-        <v>90674</v>
+        <v>99413</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4280,25 +4280,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2058</v>
+        <v>221235</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4308,10 +4308,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664867.8416141088</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R34" t="n">
-        <v>6699418.15535864</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4380,10 +4380,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748691</v>
+        <v>111748736</v>
       </c>
       <c r="B35" t="n">
-        <v>89183</v>
+        <v>88966</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4392,25 +4392,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3215</v>
+        <v>5754</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664620.6444729717</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R35" t="n">
-        <v>6699349.02459933</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748644</v>
+        <v>111748704</v>
       </c>
       <c r="B36" t="n">
-        <v>99413</v>
+        <v>85089</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4508,21 +4508,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221235</v>
+        <v>3762</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664676.080560883</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R36" t="n">
-        <v>6699066.958814406</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4940,10 +4940,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748649</v>
+        <v>111748683</v>
       </c>
       <c r="B40" t="n">
-        <v>94134</v>
+        <v>96266</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4952,25 +4952,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>53</v>
+        <v>223591</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664603.5764787464</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R40" t="n">
-        <v>6699342.806076139</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5052,10 +5052,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748683</v>
+        <v>111748737</v>
       </c>
       <c r="B41" t="n">
-        <v>96266</v>
+        <v>88918</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5064,25 +5064,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>223591</v>
+        <v>5745</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5092,10 +5092,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664638.5631493796</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R41" t="n">
-        <v>6699489.398619195</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5146,6 +5146,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5164,10 +5165,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748737</v>
+        <v>111748649</v>
       </c>
       <c r="B42" t="n">
-        <v>88918</v>
+        <v>94134</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5176,25 +5177,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5745</v>
+        <v>53</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5204,10 +5205,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664808.6128849701</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R42" t="n">
-        <v>6699172.460106185</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5234,7 +5235,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5244,7 +5245,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5258,7 +5259,6 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748707</v>
+        <v>111748729</v>
       </c>
       <c r="B47" t="n">
-        <v>96369</v>
+        <v>90674</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,25 +5742,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>219862</v>
+        <v>2058</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664850.52293942</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R47" t="n">
-        <v>6699362.928853855</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748689</v>
+        <v>111748707</v>
       </c>
       <c r="B48" t="n">
-        <v>90678</v>
+        <v>96369</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5858,21 +5858,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4366</v>
+        <v>219862</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5882,10 +5882,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664821.6049801367</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R48" t="n">
-        <v>6699355.67585695</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748729</v>
+        <v>111748689</v>
       </c>
       <c r="B49" t="n">
-        <v>90674</v>
+        <v>90678</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5966,25 +5966,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2058</v>
+        <v>4366</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664589.6062576605</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R49" t="n">
-        <v>6699017.004385524</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748735</v>
+        <v>111748739</v>
       </c>
       <c r="B60" t="n">
-        <v>88966</v>
+        <v>103288</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7198,25 +7198,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5754</v>
+        <v>221144</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7226,10 +7226,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664801.9547313601</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R60" t="n">
-        <v>6699384.477357466</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7298,10 +7298,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748648</v>
+        <v>111748735</v>
       </c>
       <c r="B61" t="n">
-        <v>94134</v>
+        <v>88966</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7314,21 +7314,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>5754</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7338,10 +7338,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664655.3316318352</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R61" t="n">
-        <v>6699447.599252445</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7410,10 +7410,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748677</v>
+        <v>111748648</v>
       </c>
       <c r="B62" t="n">
-        <v>56414</v>
+        <v>94134</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7426,39 +7426,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100049</v>
+        <v>53</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664615.8542000444</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R62" t="n">
-        <v>6699498.265643556</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7527,10 +7522,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748739</v>
+        <v>111748700</v>
       </c>
       <c r="B63" t="n">
-        <v>103288</v>
+        <v>85089</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7543,21 +7538,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221144</v>
+        <v>3762</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7567,10 +7562,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664649.5501774848</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R63" t="n">
-        <v>6699105.349934292</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7639,10 +7634,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748700</v>
+        <v>111748705</v>
       </c>
       <c r="B64" t="n">
-        <v>85089</v>
+        <v>96369</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7655,21 +7650,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3762</v>
+        <v>219862</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7679,10 +7674,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664853.490245176</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R64" t="n">
-        <v>6699352.175737353</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7751,10 +7746,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748705</v>
+        <v>111748677</v>
       </c>
       <c r="B65" t="n">
-        <v>96369</v>
+        <v>56414</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7763,38 +7758,43 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>219862</v>
+        <v>100049</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664770.1427733348</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R65" t="n">
-        <v>6699440.935377424</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748663</v>
+        <v>111748704</v>
       </c>
       <c r="B2" t="n">
-        <v>101703</v>
+        <v>85089</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222412</v>
+        <v>3762</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664850.306320559</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R2" t="n">
-        <v>6699193.161951311</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748759</v>
+        <v>111748666</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>101703</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664565.3140634815</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R3" t="n">
-        <v>6699541.501402936</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748702</v>
+        <v>111748708</v>
       </c>
       <c r="B4" t="n">
-        <v>85089</v>
+        <v>96369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3762</v>
+        <v>219862</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664852.3607732435</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R4" t="n">
-        <v>6699289.765398038</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748740</v>
+        <v>111748709</v>
       </c>
       <c r="B5" t="n">
-        <v>103288</v>
+        <v>96369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221144</v>
+        <v>219862</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664604.2181931254</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R5" t="n">
-        <v>6699274.042581626</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748640</v>
+        <v>111748762</v>
       </c>
       <c r="B6" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664568.5768465291</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R6" t="n">
-        <v>6698999.716977227</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748690</v>
+        <v>111748689</v>
       </c>
       <c r="B7" t="n">
-        <v>89183</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3215</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664698.8371583781</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R7" t="n">
-        <v>6699057.103091458</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748686</v>
+        <v>111748713</v>
       </c>
       <c r="B8" t="n">
-        <v>96326</v>
+        <v>96381</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219798</v>
+        <v>219874</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664675.2689733801</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R8" t="n">
-        <v>6699052.073605827</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748666</v>
+        <v>111748644</v>
       </c>
       <c r="B9" t="n">
-        <v>101703</v>
+        <v>99413</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664762.3323740696</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R9" t="n">
-        <v>6698958.025865254</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748731</v>
+        <v>111748663</v>
       </c>
       <c r="B10" t="n">
-        <v>90674</v>
+        <v>101703</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2058</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664818.6562284525</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R10" t="n">
-        <v>6699322.382911628</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748761</v>
+        <v>111748665</v>
       </c>
       <c r="B11" t="n">
-        <v>98535</v>
+        <v>101703</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664669.2408998127</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R11" t="n">
-        <v>6699042.890928292</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748709</v>
+        <v>111748772</v>
       </c>
       <c r="B12" t="n">
-        <v>96369</v>
+        <v>85253</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219862</v>
+        <v>3674</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664847.7700305003</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R12" t="n">
-        <v>6699248.973355746</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748742</v>
+        <v>111748648</v>
       </c>
       <c r="B13" t="n">
-        <v>93248</v>
+        <v>94134</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,42 +1924,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664616.566347321</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R13" t="n">
-        <v>6698848.950711449</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -1986,7 +1982,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1996,7 +1992,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2028,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748695</v>
+        <v>111748705</v>
       </c>
       <c r="B14" t="n">
-        <v>89183</v>
+        <v>96369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2044,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3215</v>
+        <v>219862</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2068,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664758.1487707719</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R14" t="n">
-        <v>6698951.896335257</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2140,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748773</v>
+        <v>111748691</v>
       </c>
       <c r="B15" t="n">
-        <v>85253</v>
+        <v>89183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2156,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3674</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2180,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664724.9064109002</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R15" t="n">
-        <v>6698919.69909039</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2252,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748669</v>
+        <v>111748739</v>
       </c>
       <c r="B16" t="n">
-        <v>90332</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2268,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2292,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664686.8541501703</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R16" t="n">
-        <v>6699080.811365802</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2364,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748692</v>
+        <v>111748642</v>
       </c>
       <c r="B17" t="n">
-        <v>89183</v>
+        <v>99413</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2380,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3215</v>
+        <v>221235</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2404,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664778.1089783342</v>
+        <v>664567.4272046218</v>
       </c>
       <c r="R17" t="n">
-        <v>6699069.116974886</v>
+        <v>6699538.628004844</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2434,7 +2430,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2444,7 +2440,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2476,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748654</v>
+        <v>111748672</v>
       </c>
       <c r="B18" t="n">
-        <v>96370</v>
+        <v>90332</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219847</v>
+        <v>4769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2516,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664579.5402544152</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R18" t="n">
-        <v>6698932.900203395</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2546,7 +2542,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2588,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748713</v>
+        <v>111748674</v>
       </c>
       <c r="B19" t="n">
-        <v>96381</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2604,21 +2600,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>219874</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2628,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664764.1319274458</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R19" t="n">
-        <v>6698962.067276149</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2658,7 +2654,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2668,7 +2664,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2700,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748668</v>
+        <v>111748684</v>
       </c>
       <c r="B20" t="n">
-        <v>56543</v>
+        <v>96326</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,25 +2708,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>219798</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2740,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664732.4426041286</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R20" t="n">
-        <v>6698939.344871927</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2812,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748673</v>
+        <v>111748649</v>
       </c>
       <c r="B21" t="n">
-        <v>90332</v>
+        <v>94134</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,25 +2820,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4769</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2852,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664574.9395623421</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R21" t="n">
-        <v>6698990.601510798</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2882,7 +2878,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2892,7 +2888,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2924,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748762</v>
+        <v>111748641</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2940,21 +2936,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2964,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664635.6605944363</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R22" t="n">
-        <v>6698854.271896686</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3036,10 +3032,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748765</v>
+        <v>111748770</v>
       </c>
       <c r="B23" t="n">
-        <v>90660</v>
+        <v>85253</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3048,25 +3044,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4362</v>
+        <v>3674</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3076,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664575.0291913702</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R23" t="n">
-        <v>6698988.625762361</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3148,10 +3144,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748688</v>
+        <v>111748692</v>
       </c>
       <c r="B24" t="n">
-        <v>96326</v>
+        <v>89183</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3164,21 +3160,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>219798</v>
+        <v>3215</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3188,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664770.4952141214</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R24" t="n">
-        <v>6698952.952024489</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3218,7 +3214,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3228,7 +3224,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3260,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748738</v>
+        <v>111748650</v>
       </c>
       <c r="B25" t="n">
-        <v>103288</v>
+        <v>94134</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3272,25 +3268,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221144</v>
+        <v>53</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3300,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664658.7886288867</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R25" t="n">
-        <v>6699076.567729114</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3330,7 +3326,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3340,7 +3336,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3372,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748712</v>
+        <v>111748729</v>
       </c>
       <c r="B26" t="n">
-        <v>96381</v>
+        <v>90674</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3384,25 +3380,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219874</v>
+        <v>2058</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3412,10 +3408,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664826.5343673588</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R26" t="n">
-        <v>6699410.834182931</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3484,10 +3480,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748732</v>
+        <v>111748651</v>
       </c>
       <c r="B27" t="n">
-        <v>85290</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3500,21 +3496,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6003295</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3524,10 +3520,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664830.0022340771</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R27" t="n">
-        <v>6699214.511088434</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3596,10 +3592,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748674</v>
+        <v>111748693</v>
       </c>
       <c r="B28" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3612,21 +3608,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3636,10 +3632,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664708.4139202497</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R28" t="n">
-        <v>6698857.079132927</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3708,10 +3704,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748693</v>
+        <v>111748759</v>
       </c>
       <c r="B29" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3724,21 +3720,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3748,10 +3744,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664610.9204746395</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R29" t="n">
-        <v>6698842.259884536</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3778,7 +3774,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3788,7 +3784,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3820,10 +3816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748711</v>
+        <v>111748731</v>
       </c>
       <c r="B30" t="n">
-        <v>96381</v>
+        <v>90674</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3832,25 +3828,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>219874</v>
+        <v>2058</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3860,10 +3856,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664758.9699501268</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R30" t="n">
-        <v>6699053.894244161</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3932,10 +3928,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748641</v>
+        <v>111748742</v>
       </c>
       <c r="B31" t="n">
-        <v>99413</v>
+        <v>93248</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3948,34 +3944,38 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221235</v>
+        <v>210</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664626.8808813933</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R31" t="n">
-        <v>6699561.121136454</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4044,10 +4044,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748730</v>
+        <v>111748740</v>
       </c>
       <c r="B32" t="n">
-        <v>90674</v>
+        <v>103288</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2058</v>
+        <v>221144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664867.8416141088</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R32" t="n">
-        <v>6699418.15535864</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748691</v>
+        <v>111748738</v>
       </c>
       <c r="B33" t="n">
-        <v>89183</v>
+        <v>103288</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4172,21 +4172,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3215</v>
+        <v>221144</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4196,10 +4196,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664620.6444729717</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R33" t="n">
-        <v>6699349.02459933</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748644</v>
+        <v>111748735</v>
       </c>
       <c r="B34" t="n">
-        <v>99413</v>
+        <v>88966</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4280,25 +4280,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221235</v>
+        <v>5754</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4308,10 +4308,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664676.080560883</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R34" t="n">
-        <v>6699066.958814406</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4380,10 +4380,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748736</v>
+        <v>111748711</v>
       </c>
       <c r="B35" t="n">
-        <v>88966</v>
+        <v>96381</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4392,25 +4392,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5754</v>
+        <v>219874</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664803.3322592583</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R35" t="n">
-        <v>6699212.309487404</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748704</v>
+        <v>111748643</v>
       </c>
       <c r="B36" t="n">
-        <v>85089</v>
+        <v>99413</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4508,21 +4508,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3762</v>
+        <v>221235</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664771.2603847764</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R36" t="n">
-        <v>6698957.93638737</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4604,10 +4604,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748703</v>
+        <v>111748760</v>
       </c>
       <c r="B37" t="n">
-        <v>85089</v>
+        <v>98535</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4620,21 +4620,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664569.3144499823</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R37" t="n">
-        <v>6698972.52796749</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4716,10 +4716,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748708</v>
+        <v>111748712</v>
       </c>
       <c r="B38" t="n">
-        <v>96369</v>
+        <v>96381</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4732,16 +4732,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219862</v>
+        <v>219874</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664872.0610342777</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R38" t="n">
-        <v>6699314.416695234</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748760</v>
+        <v>111748761</v>
       </c>
       <c r="B39" t="n">
         <v>98535</v>
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664590.5125486635</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R39" t="n">
-        <v>6699346.66743302</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748683</v>
+        <v>111748741</v>
       </c>
       <c r="B40" t="n">
-        <v>96266</v>
+        <v>103288</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4956,21 +4956,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>223591</v>
+        <v>221144</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664638.5631493796</v>
+        <v>664568.8475301198</v>
       </c>
       <c r="R40" t="n">
-        <v>6699489.398619195</v>
+        <v>6699004.678774409</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5052,10 +5052,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748737</v>
+        <v>111748677</v>
       </c>
       <c r="B41" t="n">
-        <v>88918</v>
+        <v>56414</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5064,38 +5064,43 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5745</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664808.6128849701</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R41" t="n">
-        <v>6699172.460106185</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5122,7 +5127,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5132,7 +5137,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5146,7 +5151,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5165,10 +5169,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748649</v>
+        <v>111748688</v>
       </c>
       <c r="B42" t="n">
-        <v>94134</v>
+        <v>96326</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5177,25 +5181,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53</v>
+        <v>219798</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5205,10 +5209,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664603.5764787464</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R42" t="n">
-        <v>6699342.806076139</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5277,10 +5281,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748671</v>
+        <v>111748764</v>
       </c>
       <c r="B43" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5293,21 +5297,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5317,10 +5321,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664638.2983129583</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R43" t="n">
-        <v>6699364.178068399</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5347,7 +5351,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5357,7 +5361,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5389,10 +5393,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748772</v>
+        <v>111748686</v>
       </c>
       <c r="B44" t="n">
-        <v>85253</v>
+        <v>96326</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5405,21 +5409,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3674</v>
+        <v>219798</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5429,10 +5433,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664599.8235772498</v>
+        <v>664675.2689733801</v>
       </c>
       <c r="R44" t="n">
-        <v>6698922.931241977</v>
+        <v>6699052.073605827</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5459,7 +5463,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5469,7 +5473,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5501,10 +5505,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748687</v>
+        <v>111748673</v>
       </c>
       <c r="B45" t="n">
-        <v>96326</v>
+        <v>90332</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5517,21 +5521,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>219798</v>
+        <v>4769</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5541,10 +5545,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664642.3199653549</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R45" t="n">
-        <v>6698871.403136684</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5571,7 +5575,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5581,7 +5585,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5613,10 +5617,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748647</v>
+        <v>111748702</v>
       </c>
       <c r="B46" t="n">
-        <v>88909</v>
+        <v>85089</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5625,25 +5629,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>720</v>
+        <v>3762</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5653,10 +5657,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664820.8300099263</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R46" t="n">
-        <v>6699241.810120963</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5699,11 +5703,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5730,10 +5729,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748729</v>
+        <v>111748765</v>
       </c>
       <c r="B47" t="n">
-        <v>90674</v>
+        <v>90660</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,25 +5741,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2058</v>
+        <v>4362</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5769,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664589.6062576605</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R47" t="n">
-        <v>6699017.004385524</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5842,10 +5841,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748707</v>
+        <v>111748664</v>
       </c>
       <c r="B48" t="n">
-        <v>96369</v>
+        <v>101703</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5858,21 +5857,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>219862</v>
+        <v>222412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5882,10 +5881,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664850.52293942</v>
+        <v>664795.7286883136</v>
       </c>
       <c r="R48" t="n">
-        <v>6699362.928853855</v>
+        <v>6699183.258195299</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5954,10 +5953,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748689</v>
+        <v>111748732</v>
       </c>
       <c r="B49" t="n">
-        <v>90678</v>
+        <v>85290</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5966,25 +5965,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4366</v>
+        <v>6003295</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5993,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664821.6049801367</v>
+        <v>664830.0022340771</v>
       </c>
       <c r="R49" t="n">
-        <v>6699355.67585695</v>
+        <v>6699214.511088434</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6066,10 +6065,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748770</v>
+        <v>111748700</v>
       </c>
       <c r="B50" t="n">
-        <v>85253</v>
+        <v>85089</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6082,21 +6081,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3674</v>
+        <v>3762</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6106,10 +6105,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664698.8371583781</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R50" t="n">
-        <v>6699057.103091458</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6178,10 +6177,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748672</v>
+        <v>111748774</v>
       </c>
       <c r="B51" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6194,21 +6193,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6218,10 +6217,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664757.060744858</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R51" t="n">
-        <v>6699074.10032806</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6290,10 +6289,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748662</v>
+        <v>111748707</v>
       </c>
       <c r="B52" t="n">
-        <v>101703</v>
+        <v>96369</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6306,21 +6305,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222412</v>
+        <v>219862</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6330,10 +6329,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664770.1427733348</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R52" t="n">
-        <v>6699440.935377424</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6402,10 +6401,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748664</v>
+        <v>111748640</v>
       </c>
       <c r="B53" t="n">
-        <v>101703</v>
+        <v>99413</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6418,21 +6417,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6441,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664795.7286883136</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R53" t="n">
-        <v>6699183.258195299</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6514,10 +6513,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748771</v>
+        <v>111748690</v>
       </c>
       <c r="B54" t="n">
-        <v>85253</v>
+        <v>89183</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6530,21 +6529,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3674</v>
+        <v>3215</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6553,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664803.0104039316</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R54" t="n">
-        <v>6699372.152713455</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6626,10 +6625,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748670</v>
+        <v>111748687</v>
       </c>
       <c r="B55" t="n">
-        <v>90332</v>
+        <v>96326</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6642,21 +6641,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4769</v>
+        <v>219798</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6666,10 +6665,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664583.6729684926</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R55" t="n">
-        <v>6699322.601555262</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6696,7 +6695,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6706,7 +6705,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6738,10 +6737,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748651</v>
+        <v>111748670</v>
       </c>
       <c r="B56" t="n">
-        <v>89405</v>
+        <v>90332</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6750,25 +6749,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6778,10 +6777,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664849.7319311691</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R56" t="n">
-        <v>6699314.886606451</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6850,10 +6849,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748684</v>
+        <v>111748730</v>
       </c>
       <c r="B57" t="n">
-        <v>96326</v>
+        <v>90674</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6862,25 +6861,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>219798</v>
+        <v>2058</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6890,10 +6889,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664604.7573992921</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R57" t="n">
-        <v>6698836.040565506</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6962,10 +6961,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748643</v>
+        <v>111748736</v>
       </c>
       <c r="B58" t="n">
-        <v>99413</v>
+        <v>88966</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6974,25 +6973,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221235</v>
+        <v>5754</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7002,10 +7001,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664631.4714806431</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R58" t="n">
-        <v>6699427.215353329</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7032,7 +7031,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7042,7 +7041,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7074,10 +7073,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748675</v>
+        <v>111748654</v>
       </c>
       <c r="B59" t="n">
-        <v>90332</v>
+        <v>96370</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7090,21 +7089,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>219847</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7114,10 +7113,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664764.0858319701</v>
+        <v>664579.5402544152</v>
       </c>
       <c r="R59" t="n">
-        <v>6698952.165968419</v>
+        <v>6698932.900203395</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7144,7 +7143,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7154,7 +7153,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -7186,10 +7185,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748739</v>
+        <v>111748773</v>
       </c>
       <c r="B60" t="n">
-        <v>103288</v>
+        <v>85253</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7202,21 +7201,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>221144</v>
+        <v>3674</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7226,10 +7225,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664649.5501774848</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R60" t="n">
-        <v>6699105.349934292</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7298,10 +7297,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748735</v>
+        <v>111748668</v>
       </c>
       <c r="B61" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7314,21 +7313,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7338,10 +7337,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664801.9547313601</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R61" t="n">
-        <v>6699384.477357466</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7410,10 +7409,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748648</v>
+        <v>111748671</v>
       </c>
       <c r="B62" t="n">
-        <v>94134</v>
+        <v>90332</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7422,25 +7421,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>53</v>
+        <v>4769</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7450,10 +7449,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664655.3316318352</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R62" t="n">
-        <v>6699447.599252445</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7480,7 +7479,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7490,7 +7489,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7522,10 +7521,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748700</v>
+        <v>111748695</v>
       </c>
       <c r="B63" t="n">
-        <v>85089</v>
+        <v>89183</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7538,21 +7537,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3762</v>
+        <v>3215</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7562,10 +7561,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664853.490245176</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R63" t="n">
-        <v>6699352.175737353</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7634,10 +7633,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748705</v>
+        <v>111748647</v>
       </c>
       <c r="B64" t="n">
-        <v>96369</v>
+        <v>88909</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7646,25 +7645,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>219862</v>
+        <v>720</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7674,10 +7673,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664770.1427733348</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R64" t="n">
-        <v>6699440.935377424</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7720,6 +7719,11 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7746,10 +7750,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748677</v>
+        <v>111748703</v>
       </c>
       <c r="B65" t="n">
-        <v>56414</v>
+        <v>85089</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7758,43 +7762,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100049</v>
+        <v>3762</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664615.8542000444</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R65" t="n">
-        <v>6699498.265643556</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7821,7 +7820,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7831,7 +7830,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7863,10 +7862,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748667</v>
+        <v>111748683</v>
       </c>
       <c r="B66" t="n">
-        <v>56543</v>
+        <v>96266</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7875,25 +7874,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>103021</v>
+        <v>223591</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7903,10 +7902,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664676.6366606337</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R66" t="n">
-        <v>6699021.943822397</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7933,7 +7932,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7943,7 +7942,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -7975,10 +7974,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748774</v>
+        <v>111748669</v>
       </c>
       <c r="B67" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7991,21 +7990,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8015,10 +8014,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664776.9458788878</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R67" t="n">
-        <v>6698920.082440153</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8087,10 +8086,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748764</v>
+        <v>111748715</v>
       </c>
       <c r="B68" t="n">
-        <v>98535</v>
+        <v>88956</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8099,25 +8098,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>222498</v>
+        <v>5747</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8127,10 +8126,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664769.3711021288</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R68" t="n">
-        <v>6698955.870736851</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8157,7 +8156,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8167,7 +8166,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8199,10 +8198,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748741</v>
+        <v>111748675</v>
       </c>
       <c r="B69" t="n">
-        <v>103288</v>
+        <v>90332</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8215,21 +8214,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>221144</v>
+        <v>4769</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8239,10 +8238,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664568.8475301198</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R69" t="n">
-        <v>6699004.678774409</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8311,10 +8310,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748642</v>
+        <v>111748662</v>
       </c>
       <c r="B70" t="n">
-        <v>99413</v>
+        <v>101703</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8327,21 +8326,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221235</v>
+        <v>222412</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +8350,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664567.4272046218</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R70" t="n">
-        <v>6699538.628004844</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8381,7 +8380,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8391,7 +8390,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -8423,10 +8422,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748665</v>
+        <v>111748771</v>
       </c>
       <c r="B71" t="n">
-        <v>101703</v>
+        <v>85253</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8439,21 +8438,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222412</v>
+        <v>3674</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +8462,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664831.6371875083</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R71" t="n">
-        <v>6699658.507831291</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8493,7 +8492,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8503,7 +8502,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8535,10 +8534,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748715</v>
+        <v>111748667</v>
       </c>
       <c r="B72" t="n">
-        <v>88956</v>
+        <v>56543</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8547,25 +8546,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5747</v>
+        <v>103021</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +8574,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664855.4976383725</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R72" t="n">
-        <v>6699427.987196152</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8647,10 +8646,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748650</v>
+        <v>111748737</v>
       </c>
       <c r="B73" t="n">
-        <v>94134</v>
+        <v>88918</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8659,25 +8658,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>53</v>
+        <v>5745</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +8686,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664567.5443468138</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R73" t="n">
-        <v>6699011.548972152</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8717,7 +8716,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8727,7 +8726,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -8741,6 +8740,7 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -7409,10 +7409,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748671</v>
+        <v>111748695</v>
       </c>
       <c r="B62" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7425,21 +7425,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7449,10 +7449,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664638.2983129583</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R62" t="n">
-        <v>6699364.178068399</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7521,10 +7521,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748695</v>
+        <v>111748647</v>
       </c>
       <c r="B63" t="n">
-        <v>89183</v>
+        <v>88909</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7533,25 +7533,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3215</v>
+        <v>720</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7561,10 +7561,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664758.1487707719</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R63" t="n">
-        <v>6698951.896335257</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7607,6 +7607,11 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7633,10 +7638,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748647</v>
+        <v>111748671</v>
       </c>
       <c r="B64" t="n">
-        <v>88909</v>
+        <v>90332</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7645,25 +7650,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>720</v>
+        <v>4769</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7673,10 +7678,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664820.8300099263</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R64" t="n">
-        <v>6699241.810120963</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7719,11 +7724,6 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748704</v>
+        <v>111748736</v>
       </c>
       <c r="B2" t="n">
-        <v>85089</v>
+        <v>88966</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3762</v>
+        <v>5754</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664771.2603847764</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R2" t="n">
-        <v>6698957.93638737</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748666</v>
+        <v>111748708</v>
       </c>
       <c r="B3" t="n">
-        <v>101703</v>
+        <v>96369</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222412</v>
+        <v>219862</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664762.3323740696</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R3" t="n">
-        <v>6698958.025865254</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748708</v>
+        <v>111748669</v>
       </c>
       <c r="B4" t="n">
-        <v>96369</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219862</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664872.0610342777</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R4" t="n">
-        <v>6699314.416695234</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748709</v>
+        <v>111748735</v>
       </c>
       <c r="B5" t="n">
-        <v>96369</v>
+        <v>88966</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219862</v>
+        <v>5754</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664847.7700305003</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R5" t="n">
-        <v>6699248.973355746</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748762</v>
+        <v>111748650</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664635.6605944363</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R6" t="n">
-        <v>6698854.271896686</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748689</v>
+        <v>111748732</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>85290</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>6003295</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664821.6049801367</v>
+        <v>664830.0022340771</v>
       </c>
       <c r="R7" t="n">
-        <v>6699355.67585695</v>
+        <v>6699214.511088434</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748713</v>
+        <v>111748705</v>
       </c>
       <c r="B8" t="n">
-        <v>96381</v>
+        <v>96369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,16 +1368,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219874</v>
+        <v>219862</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664764.1319274458</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R8" t="n">
-        <v>6698962.067276149</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748644</v>
+        <v>111748649</v>
       </c>
       <c r="B9" t="n">
-        <v>99413</v>
+        <v>94134</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221235</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664676.080560883</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R9" t="n">
-        <v>6699066.958814406</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748663</v>
+        <v>111748760</v>
       </c>
       <c r="B10" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664850.306320559</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R10" t="n">
-        <v>6699193.161951311</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748665</v>
+        <v>111748690</v>
       </c>
       <c r="B11" t="n">
-        <v>101703</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222412</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664831.6371875083</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R11" t="n">
-        <v>6699658.507831291</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748772</v>
+        <v>111748673</v>
       </c>
       <c r="B12" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664599.8235772498</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R12" t="n">
-        <v>6698922.931241977</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748648</v>
+        <v>111748704</v>
       </c>
       <c r="B13" t="n">
-        <v>94134</v>
+        <v>85089</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>3762</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664655.3316318352</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R13" t="n">
-        <v>6699447.599252445</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748705</v>
+        <v>111748642</v>
       </c>
       <c r="B14" t="n">
-        <v>96369</v>
+        <v>99413</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219862</v>
+        <v>221235</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664770.1427733348</v>
+        <v>664567.4272046218</v>
       </c>
       <c r="R14" t="n">
-        <v>6699440.935377424</v>
+        <v>6699538.628004844</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748691</v>
+        <v>111748764</v>
       </c>
       <c r="B15" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664620.6444729717</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R15" t="n">
-        <v>6699349.02459933</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748739</v>
+        <v>111748695</v>
       </c>
       <c r="B16" t="n">
-        <v>103288</v>
+        <v>89183</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221144</v>
+        <v>3215</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664649.5501774848</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R16" t="n">
-        <v>6699105.349934292</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748642</v>
+        <v>111748648</v>
       </c>
       <c r="B17" t="n">
-        <v>99413</v>
+        <v>94134</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221235</v>
+        <v>53</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664567.4272046218</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R17" t="n">
-        <v>6699538.628004844</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748672</v>
+        <v>111748687</v>
       </c>
       <c r="B18" t="n">
-        <v>90332</v>
+        <v>96326</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>219798</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664757.060744858</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R18" t="n">
-        <v>6699074.10032806</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748674</v>
+        <v>111748737</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>88918</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,25 +2596,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>5745</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664708.4139202497</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R19" t="n">
-        <v>6698857.079132927</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2678,6 +2678,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2696,10 +2697,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748684</v>
+        <v>111748644</v>
       </c>
       <c r="B20" t="n">
-        <v>96326</v>
+        <v>99413</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2713,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219798</v>
+        <v>221235</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2737,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664604.7573992921</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R20" t="n">
-        <v>6698836.040565506</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2776,7 +2777,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2808,10 +2809,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748649</v>
+        <v>111748762</v>
       </c>
       <c r="B21" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2820,25 +2821,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2849,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664603.5764787464</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R21" t="n">
-        <v>6699342.806076139</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2920,10 +2921,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748641</v>
+        <v>111748702</v>
       </c>
       <c r="B22" t="n">
-        <v>99413</v>
+        <v>85089</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,21 +2937,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221235</v>
+        <v>3762</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2961,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664626.8808813933</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R22" t="n">
-        <v>6699561.121136454</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -2990,7 +2991,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3000,7 +3001,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3032,10 +3033,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748770</v>
+        <v>111748742</v>
       </c>
       <c r="B23" t="n">
-        <v>85253</v>
+        <v>93248</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3048,34 +3049,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3674</v>
+        <v>210</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664698.8371583781</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R23" t="n">
-        <v>6699057.103091458</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3144,10 +3149,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748692</v>
+        <v>111748730</v>
       </c>
       <c r="B24" t="n">
-        <v>89183</v>
+        <v>90674</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3156,25 +3161,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3215</v>
+        <v>2058</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3184,10 +3189,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664778.1089783342</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R24" t="n">
-        <v>6699069.116974886</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3256,10 +3261,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748650</v>
+        <v>111748691</v>
       </c>
       <c r="B25" t="n">
-        <v>94134</v>
+        <v>89183</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3268,25 +3273,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>3215</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3301,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664567.5443468138</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R25" t="n">
-        <v>6699011.548972152</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3326,7 +3331,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3336,7 +3341,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3368,10 +3373,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748729</v>
+        <v>111748675</v>
       </c>
       <c r="B26" t="n">
-        <v>90674</v>
+        <v>90332</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3380,25 +3385,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2058</v>
+        <v>4769</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3408,10 +3413,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664589.6062576605</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R26" t="n">
-        <v>6699017.004385524</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3480,10 +3485,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748651</v>
+        <v>111748666</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>101703</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3492,25 +3497,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>222412</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3520,10 +3525,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664849.7319311691</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R27" t="n">
-        <v>6699314.886606451</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3550,7 +3555,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3560,7 +3565,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3592,10 +3597,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748693</v>
+        <v>111748668</v>
       </c>
       <c r="B28" t="n">
-        <v>89183</v>
+        <v>56543</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3604,25 +3609,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3215</v>
+        <v>103021</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3632,10 +3637,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664610.9204746395</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R28" t="n">
-        <v>6698842.259884536</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3704,10 +3709,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748759</v>
+        <v>111748700</v>
       </c>
       <c r="B29" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3720,21 +3725,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3744,10 +3749,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664565.3140634815</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R29" t="n">
-        <v>6699541.501402936</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3774,7 +3779,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3784,7 +3789,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3816,10 +3821,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748731</v>
+        <v>111748641</v>
       </c>
       <c r="B30" t="n">
-        <v>90674</v>
+        <v>99413</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3828,25 +3833,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2058</v>
+        <v>221235</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3856,10 +3861,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664818.6562284525</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R30" t="n">
-        <v>6699322.382911628</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3886,7 +3891,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3896,7 +3901,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3928,10 +3933,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748742</v>
+        <v>111748770</v>
       </c>
       <c r="B31" t="n">
-        <v>93248</v>
+        <v>85253</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3944,38 +3949,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>210</v>
+        <v>3674</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664616.566347321</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R31" t="n">
-        <v>6698848.950711449</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4044,10 +4045,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748740</v>
+        <v>111748665</v>
       </c>
       <c r="B32" t="n">
-        <v>103288</v>
+        <v>101703</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4060,21 +4061,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4084,10 +4085,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664604.2181931254</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R32" t="n">
-        <v>6699274.042581626</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4114,7 +4115,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4124,7 +4125,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4156,10 +4157,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748738</v>
+        <v>111748664</v>
       </c>
       <c r="B33" t="n">
-        <v>103288</v>
+        <v>101703</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4172,21 +4173,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4196,10 +4197,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664658.7886288867</v>
+        <v>664795.7286883136</v>
       </c>
       <c r="R33" t="n">
-        <v>6699076.567729114</v>
+        <v>6699183.258195299</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4268,10 +4269,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748735</v>
+        <v>111748647</v>
       </c>
       <c r="B34" t="n">
-        <v>88966</v>
+        <v>88909</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4280,25 +4281,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5754</v>
+        <v>720</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4308,10 +4309,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664801.9547313601</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R34" t="n">
-        <v>6699384.477357466</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4354,6 +4355,11 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4380,10 +4386,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748711</v>
+        <v>111748662</v>
       </c>
       <c r="B35" t="n">
-        <v>96381</v>
+        <v>101703</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4396,21 +4402,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>219874</v>
+        <v>222412</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4420,10 +4426,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664758.9699501268</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R35" t="n">
-        <v>6699053.894244161</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4492,10 +4498,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748643</v>
+        <v>111748654</v>
       </c>
       <c r="B36" t="n">
-        <v>99413</v>
+        <v>96370</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4508,21 +4514,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221235</v>
+        <v>219847</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4532,10 +4538,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664631.4714806431</v>
+        <v>664579.5402544152</v>
       </c>
       <c r="R36" t="n">
-        <v>6699427.215353329</v>
+        <v>6698932.900203395</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4604,10 +4610,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748760</v>
+        <v>111748729</v>
       </c>
       <c r="B37" t="n">
-        <v>98535</v>
+        <v>90674</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4616,25 +4622,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222498</v>
+        <v>2058</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4644,10 +4650,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664590.5125486635</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R37" t="n">
-        <v>6699346.66743302</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4674,7 +4680,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4684,7 +4690,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4716,10 +4722,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748712</v>
+        <v>111748674</v>
       </c>
       <c r="B38" t="n">
-        <v>96381</v>
+        <v>90332</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4732,21 +4738,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219874</v>
+        <v>4769</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4756,10 +4762,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664826.5343673588</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R38" t="n">
-        <v>6699410.834182931</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4828,10 +4834,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748761</v>
+        <v>111748686</v>
       </c>
       <c r="B39" t="n">
-        <v>98535</v>
+        <v>96326</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4844,21 +4850,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>222498</v>
+        <v>219798</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4868,10 +4874,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664669.2408998127</v>
+        <v>664675.2689733801</v>
       </c>
       <c r="R39" t="n">
-        <v>6699042.890928292</v>
+        <v>6699052.073605827</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4940,10 +4946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748741</v>
+        <v>111748663</v>
       </c>
       <c r="B40" t="n">
-        <v>103288</v>
+        <v>101703</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4956,21 +4962,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4980,10 +4986,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664568.8475301198</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R40" t="n">
-        <v>6699004.678774409</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5052,10 +5058,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748677</v>
+        <v>111748692</v>
       </c>
       <c r="B41" t="n">
-        <v>56414</v>
+        <v>89183</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5064,43 +5070,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>3215</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664615.8542000444</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R41" t="n">
-        <v>6699498.265643556</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5127,7 +5128,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5137,7 +5138,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5169,10 +5170,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748688</v>
+        <v>111748672</v>
       </c>
       <c r="B42" t="n">
-        <v>96326</v>
+        <v>90332</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5185,21 +5186,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>219798</v>
+        <v>4769</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5209,10 +5210,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664770.4952141214</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R42" t="n">
-        <v>6698952.952024489</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5239,7 +5240,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5249,7 +5250,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5281,10 +5282,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748764</v>
+        <v>111748712</v>
       </c>
       <c r="B43" t="n">
-        <v>98535</v>
+        <v>96381</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5297,21 +5298,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222498</v>
+        <v>219874</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5321,10 +5322,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664769.3711021288</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R43" t="n">
-        <v>6698955.870736851</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5351,7 +5352,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5361,7 +5362,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5393,10 +5394,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748686</v>
+        <v>111748771</v>
       </c>
       <c r="B44" t="n">
-        <v>96326</v>
+        <v>85253</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5409,21 +5410,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>219798</v>
+        <v>3674</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5433,10 +5434,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664675.2689733801</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R44" t="n">
-        <v>6699052.073605827</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5463,7 +5464,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5473,7 +5474,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5505,10 +5506,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748673</v>
+        <v>111748667</v>
       </c>
       <c r="B45" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5517,25 +5518,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5545,10 +5546,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664574.9395623421</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R45" t="n">
-        <v>6698990.601510798</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5617,10 +5618,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748702</v>
+        <v>111748765</v>
       </c>
       <c r="B46" t="n">
-        <v>85089</v>
+        <v>90660</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5629,25 +5630,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3762</v>
+        <v>4362</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5657,10 +5658,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664852.3607732435</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R46" t="n">
-        <v>6699289.765398038</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5729,10 +5730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748765</v>
+        <v>111748773</v>
       </c>
       <c r="B47" t="n">
-        <v>90660</v>
+        <v>85253</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5741,25 +5742,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4362</v>
+        <v>3674</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5769,10 +5770,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664575.0291913702</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R47" t="n">
-        <v>6698988.625762361</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5841,10 +5842,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748664</v>
+        <v>111748772</v>
       </c>
       <c r="B48" t="n">
-        <v>101703</v>
+        <v>85253</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5857,21 +5858,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222412</v>
+        <v>3674</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5881,10 +5882,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664795.7286883136</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R48" t="n">
-        <v>6699183.258195299</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5953,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748732</v>
+        <v>111748693</v>
       </c>
       <c r="B49" t="n">
-        <v>85290</v>
+        <v>89183</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5965,25 +5966,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6003295</v>
+        <v>3215</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5993,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664830.0022340771</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R49" t="n">
-        <v>6699214.511088434</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6065,10 +6066,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748700</v>
+        <v>111748688</v>
       </c>
       <c r="B50" t="n">
-        <v>85089</v>
+        <v>96326</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6081,21 +6082,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3762</v>
+        <v>219798</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6105,10 +6106,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664853.490245176</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R50" t="n">
-        <v>6699352.175737353</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6135,7 +6136,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6145,7 +6146,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6289,10 +6290,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748707</v>
+        <v>111748740</v>
       </c>
       <c r="B52" t="n">
-        <v>96369</v>
+        <v>103288</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6305,21 +6306,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>219862</v>
+        <v>221144</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6329,10 +6330,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664850.52293942</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R52" t="n">
-        <v>6699362.928853855</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6401,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748640</v>
+        <v>111748707</v>
       </c>
       <c r="B53" t="n">
-        <v>99413</v>
+        <v>96369</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6417,21 +6418,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221235</v>
+        <v>219862</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6441,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664568.5768465291</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R53" t="n">
-        <v>6698999.716977227</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6513,10 +6514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748690</v>
+        <v>111748689</v>
       </c>
       <c r="B54" t="n">
-        <v>89183</v>
+        <v>90678</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6529,21 +6530,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3215</v>
+        <v>4366</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6553,10 +6554,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664698.8371583781</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R54" t="n">
-        <v>6699057.103091458</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6625,7 +6626,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748687</v>
+        <v>111748684</v>
       </c>
       <c r="B55" t="n">
         <v>96326</v>
@@ -6665,10 +6666,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664642.3199653549</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R55" t="n">
-        <v>6698871.403136684</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6695,7 +6696,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6705,7 +6706,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6737,10 +6738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748670</v>
+        <v>111748643</v>
       </c>
       <c r="B56" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6753,21 +6754,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6777,10 +6778,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664583.6729684926</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R56" t="n">
-        <v>6699322.601555262</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6807,7 +6808,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6817,7 +6818,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6849,10 +6850,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748730</v>
+        <v>111748739</v>
       </c>
       <c r="B57" t="n">
-        <v>90674</v>
+        <v>103288</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6861,25 +6862,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2058</v>
+        <v>221144</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6889,10 +6890,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664867.8416141088</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R57" t="n">
-        <v>6699418.15535864</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6961,10 +6962,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748736</v>
+        <v>111748715</v>
       </c>
       <c r="B58" t="n">
-        <v>88966</v>
+        <v>88956</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6973,25 +6974,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5754</v>
+        <v>5747</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7001,10 +7002,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664803.3322592583</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R58" t="n">
-        <v>6699212.309487404</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7073,10 +7074,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748654</v>
+        <v>111748671</v>
       </c>
       <c r="B59" t="n">
-        <v>96370</v>
+        <v>90332</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7089,21 +7090,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>219847</v>
+        <v>4769</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7113,10 +7114,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664579.5402544152</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R59" t="n">
-        <v>6698932.900203395</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7143,7 +7144,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7153,7 +7154,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -7185,10 +7186,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748773</v>
+        <v>111748640</v>
       </c>
       <c r="B60" t="n">
-        <v>85253</v>
+        <v>99413</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7201,21 +7202,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3674</v>
+        <v>221235</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7225,10 +7226,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664724.9064109002</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R60" t="n">
-        <v>6698919.69909039</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7297,10 +7298,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748668</v>
+        <v>111748651</v>
       </c>
       <c r="B61" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7313,21 +7314,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7337,10 +7338,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664732.4426041286</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R61" t="n">
-        <v>6698939.344871927</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7409,10 +7410,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748695</v>
+        <v>111748683</v>
       </c>
       <c r="B62" t="n">
-        <v>89183</v>
+        <v>96266</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7425,21 +7426,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3215</v>
+        <v>223591</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7449,10 +7450,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664758.1487707719</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R62" t="n">
-        <v>6698951.896335257</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7479,7 +7480,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7489,7 +7490,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7521,10 +7522,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748647</v>
+        <v>111748713</v>
       </c>
       <c r="B63" t="n">
-        <v>88909</v>
+        <v>96381</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7533,25 +7534,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>720</v>
+        <v>219874</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7561,10 +7562,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664820.8300099263</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R63" t="n">
-        <v>6699241.810120963</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7591,7 +7592,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -7601,17 +7602,12 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7638,10 +7634,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748671</v>
+        <v>111748711</v>
       </c>
       <c r="B64" t="n">
-        <v>90332</v>
+        <v>96381</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7654,21 +7650,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4769</v>
+        <v>219874</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7678,10 +7674,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664638.2983129583</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R64" t="n">
-        <v>6699364.178068399</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7750,10 +7746,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748703</v>
+        <v>111748677</v>
       </c>
       <c r="B65" t="n">
-        <v>85089</v>
+        <v>56414</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7762,38 +7758,43 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3762</v>
+        <v>100049</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664569.3144499823</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R65" t="n">
-        <v>6698972.52796749</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7820,7 +7821,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7830,7 +7831,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7862,10 +7863,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748683</v>
+        <v>111748731</v>
       </c>
       <c r="B66" t="n">
-        <v>96266</v>
+        <v>90674</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7874,25 +7875,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>223591</v>
+        <v>2058</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7902,10 +7903,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664638.5631493796</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R66" t="n">
-        <v>6699489.398619195</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7932,7 +7933,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7942,7 +7943,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -7974,10 +7975,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748669</v>
+        <v>111748741</v>
       </c>
       <c r="B67" t="n">
-        <v>90332</v>
+        <v>103288</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7990,21 +7991,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4769</v>
+        <v>221144</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8014,10 +8015,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664686.8541501703</v>
+        <v>664568.8475301198</v>
       </c>
       <c r="R67" t="n">
-        <v>6699080.811365802</v>
+        <v>6699004.678774409</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8086,10 +8087,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748715</v>
+        <v>111748703</v>
       </c>
       <c r="B68" t="n">
-        <v>88956</v>
+        <v>85089</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8098,25 +8099,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5747</v>
+        <v>3762</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8126,10 +8127,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664855.4976383725</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R68" t="n">
-        <v>6699427.987196152</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8198,10 +8199,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748675</v>
+        <v>111748709</v>
       </c>
       <c r="B69" t="n">
-        <v>90332</v>
+        <v>96369</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8214,21 +8215,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4769</v>
+        <v>219862</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8238,10 +8239,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664764.0858319701</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R69" t="n">
-        <v>6698952.165968419</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8310,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748662</v>
+        <v>111748738</v>
       </c>
       <c r="B70" t="n">
-        <v>101703</v>
+        <v>103288</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8326,21 +8327,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222412</v>
+        <v>221144</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8350,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664770.1427733348</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R70" t="n">
-        <v>6699440.935377424</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8422,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748771</v>
+        <v>111748761</v>
       </c>
       <c r="B71" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8438,21 +8439,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8462,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664803.0104039316</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R71" t="n">
-        <v>6699372.152713455</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8492,7 +8493,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8502,7 +8503,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8534,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748667</v>
+        <v>111748670</v>
       </c>
       <c r="B72" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8546,25 +8547,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8574,10 +8575,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664676.6366606337</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R72" t="n">
-        <v>6699021.943822397</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8646,10 +8647,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748737</v>
+        <v>111748759</v>
       </c>
       <c r="B73" t="n">
-        <v>88918</v>
+        <v>98535</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8658,25 +8659,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5745</v>
+        <v>222498</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8686,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664808.6128849701</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R73" t="n">
-        <v>6699172.460106185</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8716,7 +8717,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8726,7 +8727,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -8740,7 +8741,6 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -8311,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748738</v>
+        <v>111748759</v>
       </c>
       <c r="B70" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8327,21 +8327,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664658.7886288867</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R70" t="n">
-        <v>6699076.567729114</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -8423,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748761</v>
+        <v>111748738</v>
       </c>
       <c r="B71" t="n">
-        <v>98535</v>
+        <v>103288</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8439,21 +8439,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664669.2408998127</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R71" t="n">
-        <v>6699042.890928292</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8535,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748670</v>
+        <v>111748761</v>
       </c>
       <c r="B72" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8551,21 +8551,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664583.6729684926</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R72" t="n">
-        <v>6699322.601555262</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -8647,10 +8647,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748759</v>
+        <v>111748670</v>
       </c>
       <c r="B73" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8663,21 +8663,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664565.3140634815</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R73" t="n">
-        <v>6699541.501402936</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748736</v>
+        <v>111748704</v>
       </c>
       <c r="B2" t="n">
-        <v>88966</v>
+        <v>85089</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5754</v>
+        <v>3762</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664803.3322592583</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R2" t="n">
-        <v>6699212.309487404</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748708</v>
+        <v>111748665</v>
       </c>
       <c r="B3" t="n">
-        <v>96369</v>
+        <v>101703</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219862</v>
+        <v>222412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664872.0610342777</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R3" t="n">
-        <v>6699314.416695234</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748669</v>
+        <v>111748666</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664686.8541501703</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R4" t="n">
-        <v>6699080.811365802</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748735</v>
+        <v>111748689</v>
       </c>
       <c r="B5" t="n">
-        <v>88966</v>
+        <v>90678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5754</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664801.9547313601</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R5" t="n">
-        <v>6699384.477357466</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748650</v>
+        <v>111748671</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>90332</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664567.5443468138</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R6" t="n">
-        <v>6699011.548972152</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748732</v>
+        <v>111748709</v>
       </c>
       <c r="B7" t="n">
-        <v>85290</v>
+        <v>96369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6003295</v>
+        <v>219862</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664830.0022340771</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R7" t="n">
-        <v>6699214.511088434</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748705</v>
+        <v>111748740</v>
       </c>
       <c r="B8" t="n">
-        <v>96369</v>
+        <v>103288</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219862</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664770.1427733348</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R8" t="n">
-        <v>6699440.935377424</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748649</v>
+        <v>111748707</v>
       </c>
       <c r="B9" t="n">
-        <v>94134</v>
+        <v>96369</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>219862</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664603.5764787464</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R9" t="n">
-        <v>6699342.806076139</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748760</v>
+        <v>111748640</v>
       </c>
       <c r="B10" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664590.5125486635</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R10" t="n">
-        <v>6699346.66743302</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748690</v>
+        <v>111748687</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>96326</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>219798</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664698.8371583781</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R11" t="n">
-        <v>6699057.103091458</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748673</v>
+        <v>111748713</v>
       </c>
       <c r="B12" t="n">
-        <v>90332</v>
+        <v>96381</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>219874</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664574.9395623421</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R12" t="n">
-        <v>6698990.601510798</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748704</v>
+        <v>111748730</v>
       </c>
       <c r="B13" t="n">
-        <v>85089</v>
+        <v>90674</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3762</v>
+        <v>2058</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664771.2603847764</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R13" t="n">
-        <v>6698957.93638737</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748642</v>
+        <v>111748683</v>
       </c>
       <c r="B14" t="n">
-        <v>99413</v>
+        <v>96266</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221235</v>
+        <v>223591</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664567.4272046218</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R14" t="n">
-        <v>6699538.628004844</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748764</v>
+        <v>111748672</v>
       </c>
       <c r="B15" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664769.3711021288</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R15" t="n">
-        <v>6698955.870736851</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748695</v>
+        <v>111748732</v>
       </c>
       <c r="B16" t="n">
-        <v>89183</v>
+        <v>85290</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3215</v>
+        <v>6003295</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664758.1487707719</v>
+        <v>664830.0022340771</v>
       </c>
       <c r="R16" t="n">
-        <v>6698951.896335257</v>
+        <v>6699214.511088434</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748648</v>
+        <v>111748686</v>
       </c>
       <c r="B17" t="n">
-        <v>94134</v>
+        <v>96326</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>219798</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664655.3316318352</v>
+        <v>664675.2689733801</v>
       </c>
       <c r="R17" t="n">
-        <v>6699447.599252445</v>
+        <v>6699052.073605827</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748687</v>
+        <v>111748663</v>
       </c>
       <c r="B18" t="n">
-        <v>96326</v>
+        <v>101703</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219798</v>
+        <v>222412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664642.3199653549</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R18" t="n">
-        <v>6698871.403136684</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748737</v>
+        <v>111748674</v>
       </c>
       <c r="B19" t="n">
-        <v>88918</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,25 +2596,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5745</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664808.6128849701</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R19" t="n">
-        <v>6699172.460106185</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2678,7 +2678,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2697,7 +2696,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748644</v>
+        <v>111748643</v>
       </c>
       <c r="B20" t="n">
         <v>99413</v>
@@ -2737,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664676.080560883</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R20" t="n">
-        <v>6699066.958814406</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2809,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748762</v>
+        <v>111748771</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2825,21 +2824,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2849,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664635.6605944363</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R21" t="n">
-        <v>6698854.271896686</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2879,7 +2878,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2889,7 +2888,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2921,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748702</v>
+        <v>111748739</v>
       </c>
       <c r="B22" t="n">
-        <v>85089</v>
+        <v>103288</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2937,21 +2936,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3762</v>
+        <v>221144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2961,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664852.3607732435</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R22" t="n">
-        <v>6699289.765398038</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3033,10 +3032,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748742</v>
+        <v>111748702</v>
       </c>
       <c r="B23" t="n">
-        <v>93248</v>
+        <v>85089</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3049,38 +3048,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>210</v>
+        <v>3762</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664616.566347321</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R23" t="n">
-        <v>6698848.950711449</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3149,10 +3144,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748730</v>
+        <v>111748765</v>
       </c>
       <c r="B24" t="n">
-        <v>90674</v>
+        <v>90660</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3161,25 +3156,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2058</v>
+        <v>4362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3189,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664867.8416141088</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R24" t="n">
-        <v>6699418.15535864</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3261,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748691</v>
+        <v>111748774</v>
       </c>
       <c r="B25" t="n">
-        <v>89183</v>
+        <v>85253</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3277,21 +3272,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3215</v>
+        <v>3674</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3301,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664620.6444729717</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R25" t="n">
-        <v>6699349.02459933</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3373,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748675</v>
+        <v>111748742</v>
       </c>
       <c r="B26" t="n">
-        <v>90332</v>
+        <v>93248</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3389,34 +3384,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4769</v>
+        <v>210</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664764.0858319701</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R26" t="n">
-        <v>6698952.165968419</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3485,10 +3484,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748666</v>
+        <v>111748647</v>
       </c>
       <c r="B27" t="n">
-        <v>101703</v>
+        <v>88909</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3497,25 +3496,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222412</v>
+        <v>720</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3525,10 +3524,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664762.3323740696</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R27" t="n">
-        <v>6698958.025865254</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3555,7 +3554,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3565,12 +3564,17 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3597,10 +3601,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748668</v>
+        <v>111748675</v>
       </c>
       <c r="B28" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3609,25 +3613,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3637,10 +3641,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664732.4426041286</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R28" t="n">
-        <v>6698939.344871927</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3709,10 +3713,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748700</v>
+        <v>111748673</v>
       </c>
       <c r="B29" t="n">
-        <v>85089</v>
+        <v>90332</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3725,21 +3729,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3749,10 +3753,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664853.490245176</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R29" t="n">
-        <v>6699352.175737353</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3821,7 +3825,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748641</v>
+        <v>111748642</v>
       </c>
       <c r="B30" t="n">
         <v>99413</v>
@@ -3861,10 +3865,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664626.8808813933</v>
+        <v>664567.4272046218</v>
       </c>
       <c r="R30" t="n">
-        <v>6699561.121136454</v>
+        <v>6699538.628004844</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3933,10 +3937,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748770</v>
+        <v>111748731</v>
       </c>
       <c r="B31" t="n">
-        <v>85253</v>
+        <v>90674</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3945,25 +3949,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3674</v>
+        <v>2058</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3973,10 +3977,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664698.8371583781</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R31" t="n">
-        <v>6699057.103091458</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4045,10 +4049,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748665</v>
+        <v>111748648</v>
       </c>
       <c r="B32" t="n">
-        <v>101703</v>
+        <v>94134</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4057,25 +4061,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222412</v>
+        <v>53</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4085,10 +4089,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664831.6371875083</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R32" t="n">
-        <v>6699658.507831291</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4157,10 +4161,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748664</v>
+        <v>111748761</v>
       </c>
       <c r="B33" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4173,21 +4177,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4197,10 +4201,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664795.7286883136</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R33" t="n">
-        <v>6699183.258195299</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4227,7 +4231,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4237,7 +4241,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4269,10 +4273,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748647</v>
+        <v>111748741</v>
       </c>
       <c r="B34" t="n">
-        <v>88909</v>
+        <v>103288</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4281,25 +4285,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>720</v>
+        <v>221144</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4309,10 +4313,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664820.8300099263</v>
+        <v>664568.8475301198</v>
       </c>
       <c r="R34" t="n">
-        <v>6699241.810120963</v>
+        <v>6699004.678774409</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4355,11 +4359,6 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4386,10 +4385,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748662</v>
+        <v>111748684</v>
       </c>
       <c r="B35" t="n">
-        <v>101703</v>
+        <v>96326</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4402,21 +4401,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222412</v>
+        <v>219798</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4426,10 +4425,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664770.1427733348</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R35" t="n">
-        <v>6699440.935377424</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4498,10 +4497,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748654</v>
+        <v>111748735</v>
       </c>
       <c r="B36" t="n">
-        <v>96370</v>
+        <v>88966</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4510,25 +4509,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>219847</v>
+        <v>5754</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4538,10 +4537,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664579.5402544152</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R36" t="n">
-        <v>6698932.900203395</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4568,7 +4567,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4578,7 +4577,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4610,10 +4609,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748729</v>
+        <v>111748654</v>
       </c>
       <c r="B37" t="n">
-        <v>90674</v>
+        <v>96370</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4622,25 +4621,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2058</v>
+        <v>219847</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4650,10 +4649,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664589.6062576605</v>
+        <v>664579.5402544152</v>
       </c>
       <c r="R37" t="n">
-        <v>6699017.004385524</v>
+        <v>6698932.900203395</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4680,7 +4679,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4690,7 +4689,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4722,10 +4721,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748674</v>
+        <v>111748712</v>
       </c>
       <c r="B38" t="n">
-        <v>90332</v>
+        <v>96381</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4738,21 +4737,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4769</v>
+        <v>219874</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4762,10 +4761,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664708.4139202497</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R38" t="n">
-        <v>6698857.079132927</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4834,10 +4833,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748686</v>
+        <v>111748737</v>
       </c>
       <c r="B39" t="n">
-        <v>96326</v>
+        <v>88918</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4846,25 +4845,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>219798</v>
+        <v>5745</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4874,10 +4873,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664675.2689733801</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R39" t="n">
-        <v>6699052.073605827</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4904,7 +4903,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4914,7 +4913,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -4928,6 +4927,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4946,10 +4946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748663</v>
+        <v>111748670</v>
       </c>
       <c r="B40" t="n">
-        <v>101703</v>
+        <v>90332</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4962,21 +4962,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4986,10 +4986,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664850.306320559</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R40" t="n">
-        <v>6699193.161951311</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5058,10 +5058,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748692</v>
+        <v>111748700</v>
       </c>
       <c r="B41" t="n">
-        <v>89183</v>
+        <v>85089</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5074,21 +5074,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3215</v>
+        <v>3762</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664778.1089783342</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R41" t="n">
-        <v>6699069.116974886</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5170,10 +5170,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748672</v>
+        <v>111748649</v>
       </c>
       <c r="B42" t="n">
-        <v>90332</v>
+        <v>94134</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5182,25 +5182,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4769</v>
+        <v>53</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5210,10 +5210,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664757.060744858</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R42" t="n">
-        <v>6699074.10032806</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5282,10 +5282,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748712</v>
+        <v>111748708</v>
       </c>
       <c r="B43" t="n">
-        <v>96381</v>
+        <v>96369</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5298,16 +5298,16 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>219874</v>
+        <v>219862</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664826.5343673588</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R43" t="n">
-        <v>6699410.834182931</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5394,10 +5394,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748771</v>
+        <v>111748762</v>
       </c>
       <c r="B44" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5410,21 +5410,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664803.0104039316</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R44" t="n">
-        <v>6699372.152713455</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5506,10 +5506,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748667</v>
+        <v>111748738</v>
       </c>
       <c r="B45" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5518,25 +5518,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5546,10 +5546,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664676.6366606337</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R45" t="n">
-        <v>6699021.943822397</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5618,10 +5618,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748765</v>
+        <v>111748692</v>
       </c>
       <c r="B46" t="n">
-        <v>90660</v>
+        <v>89183</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5630,25 +5630,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4362</v>
+        <v>3215</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664575.0291913702</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R46" t="n">
-        <v>6698988.625762361</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748773</v>
+        <v>111748650</v>
       </c>
       <c r="B47" t="n">
-        <v>85253</v>
+        <v>94134</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,25 +5742,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3674</v>
+        <v>53</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664724.9064109002</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R47" t="n">
-        <v>6698919.69909039</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5842,7 +5842,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748772</v>
+        <v>111748773</v>
       </c>
       <c r="B48" t="n">
         <v>85253</v>
@@ -5882,10 +5882,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664599.8235772498</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R48" t="n">
-        <v>6698922.931241977</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748693</v>
+        <v>111748668</v>
       </c>
       <c r="B49" t="n">
-        <v>89183</v>
+        <v>56543</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5966,25 +5966,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3215</v>
+        <v>103021</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664610.9204746395</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R49" t="n">
-        <v>6698842.259884536</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748688</v>
+        <v>111748691</v>
       </c>
       <c r="B50" t="n">
-        <v>96326</v>
+        <v>89183</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6082,21 +6082,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>219798</v>
+        <v>3215</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664770.4952141214</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R50" t="n">
-        <v>6698952.952024489</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6178,10 +6178,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748774</v>
+        <v>111748644</v>
       </c>
       <c r="B51" t="n">
-        <v>85253</v>
+        <v>99413</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6194,21 +6194,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3674</v>
+        <v>221235</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664776.9458788878</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R51" t="n">
-        <v>6698920.082440153</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6290,10 +6290,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748740</v>
+        <v>111748736</v>
       </c>
       <c r="B52" t="n">
-        <v>103288</v>
+        <v>88966</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6302,25 +6302,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>221144</v>
+        <v>5754</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664604.2181931254</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R52" t="n">
-        <v>6699274.042581626</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748707</v>
+        <v>111748669</v>
       </c>
       <c r="B53" t="n">
-        <v>96369</v>
+        <v>90332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6418,21 +6418,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>219862</v>
+        <v>4769</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664850.52293942</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R53" t="n">
-        <v>6699362.928853855</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6514,10 +6514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748689</v>
+        <v>111748760</v>
       </c>
       <c r="B54" t="n">
-        <v>90678</v>
+        <v>98535</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6530,21 +6530,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664821.6049801367</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R54" t="n">
-        <v>6699355.67585695</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -6626,10 +6626,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748684</v>
+        <v>111748715</v>
       </c>
       <c r="B55" t="n">
-        <v>96326</v>
+        <v>88956</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6638,25 +6638,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>219798</v>
+        <v>5747</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6666,10 +6666,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664604.7573992921</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R55" t="n">
-        <v>6698836.040565506</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6738,10 +6738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748643</v>
+        <v>111748688</v>
       </c>
       <c r="B56" t="n">
-        <v>99413</v>
+        <v>96326</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6754,21 +6754,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>221235</v>
+        <v>219798</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664631.4714806431</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R56" t="n">
-        <v>6699427.215353329</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6850,10 +6850,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748739</v>
+        <v>111748690</v>
       </c>
       <c r="B57" t="n">
-        <v>103288</v>
+        <v>89183</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6866,21 +6866,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>221144</v>
+        <v>3215</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6890,10 +6890,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664649.5501774848</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R57" t="n">
-        <v>6699105.349934292</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6962,10 +6962,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748715</v>
+        <v>111748693</v>
       </c>
       <c r="B58" t="n">
-        <v>88956</v>
+        <v>89183</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6974,25 +6974,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5747</v>
+        <v>3215</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7002,10 +7002,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664855.4976383725</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R58" t="n">
-        <v>6699427.987196152</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7074,10 +7074,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748671</v>
+        <v>111748641</v>
       </c>
       <c r="B59" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7090,21 +7090,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664638.2983129583</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R59" t="n">
-        <v>6699364.178068399</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -7186,10 +7186,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748640</v>
+        <v>111748770</v>
       </c>
       <c r="B60" t="n">
-        <v>99413</v>
+        <v>85253</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7202,21 +7202,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>221235</v>
+        <v>3674</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7226,10 +7226,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664568.5768465291</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R60" t="n">
-        <v>6698999.716977227</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7298,10 +7298,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748651</v>
+        <v>111748677</v>
       </c>
       <c r="B61" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7314,34 +7314,39 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664849.7319311691</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R61" t="n">
-        <v>6699314.886606451</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7368,7 +7373,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7378,7 +7383,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7410,10 +7415,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748683</v>
+        <v>111748764</v>
       </c>
       <c r="B62" t="n">
-        <v>96266</v>
+        <v>98535</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7426,21 +7431,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>223591</v>
+        <v>222498</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7450,10 +7455,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664638.5631493796</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R62" t="n">
-        <v>6699489.398619195</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7522,10 +7527,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748713</v>
+        <v>111748664</v>
       </c>
       <c r="B63" t="n">
-        <v>96381</v>
+        <v>101703</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7538,21 +7543,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>219874</v>
+        <v>222412</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7562,10 +7567,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664764.1319274458</v>
+        <v>664795.7286883136</v>
       </c>
       <c r="R63" t="n">
-        <v>6698962.067276149</v>
+        <v>6699183.258195299</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7592,7 +7597,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -7602,7 +7607,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -7634,10 +7639,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748711</v>
+        <v>111748695</v>
       </c>
       <c r="B64" t="n">
-        <v>96381</v>
+        <v>89183</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7650,21 +7655,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>219874</v>
+        <v>3215</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7674,10 +7679,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664758.9699501268</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R64" t="n">
-        <v>6699053.894244161</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7746,10 +7751,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748677</v>
+        <v>111748729</v>
       </c>
       <c r="B65" t="n">
-        <v>56414</v>
+        <v>90674</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7758,43 +7763,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100049</v>
+        <v>2058</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664615.8542000444</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R65" t="n">
-        <v>6699498.265643556</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7863,10 +7863,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748731</v>
+        <v>111748667</v>
       </c>
       <c r="B66" t="n">
-        <v>90674</v>
+        <v>56543</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2058</v>
+        <v>103021</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664818.6562284525</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R66" t="n">
-        <v>6699322.382911628</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7975,10 +7975,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748741</v>
+        <v>111748651</v>
       </c>
       <c r="B67" t="n">
-        <v>103288</v>
+        <v>89405</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7987,25 +7987,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>221144</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8015,10 +8015,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664568.8475301198</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R67" t="n">
-        <v>6699004.678774409</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8087,10 +8087,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748703</v>
+        <v>111748759</v>
       </c>
       <c r="B68" t="n">
-        <v>85089</v>
+        <v>98535</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8103,21 +8103,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8127,10 +8127,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664569.3144499823</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R68" t="n">
-        <v>6698972.52796749</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8199,10 +8199,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748709</v>
+        <v>111748703</v>
       </c>
       <c r="B69" t="n">
-        <v>96369</v>
+        <v>85089</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8215,21 +8215,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>219862</v>
+        <v>3762</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8239,10 +8239,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664847.7700305003</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R69" t="n">
-        <v>6699248.973355746</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8311,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748759</v>
+        <v>111748772</v>
       </c>
       <c r="B70" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8327,21 +8327,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664565.3140634815</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R70" t="n">
-        <v>6699541.501402936</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -8423,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748738</v>
+        <v>111748662</v>
       </c>
       <c r="B71" t="n">
-        <v>103288</v>
+        <v>101703</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8439,21 +8439,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664658.7886288867</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R71" t="n">
-        <v>6699076.567729114</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8535,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748761</v>
+        <v>111748711</v>
       </c>
       <c r="B72" t="n">
-        <v>98535</v>
+        <v>96381</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8551,21 +8551,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>222498</v>
+        <v>219874</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664669.2408998127</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R72" t="n">
-        <v>6699042.890928292</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -8647,10 +8647,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748670</v>
+        <v>111748705</v>
       </c>
       <c r="B73" t="n">
-        <v>90332</v>
+        <v>96369</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8663,21 +8663,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4769</v>
+        <v>219862</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664583.6729684926</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R73" t="n">
-        <v>6699322.601555262</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748665</v>
+        <v>111748705</v>
       </c>
       <c r="B3" t="n">
-        <v>101703</v>
+        <v>96369</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222412</v>
+        <v>219862</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664831.6371875083</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R3" t="n">
-        <v>6699658.507831291</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748666</v>
+        <v>111748731</v>
       </c>
       <c r="B4" t="n">
-        <v>101703</v>
+        <v>90674</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222412</v>
+        <v>2058</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664762.3323740696</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R4" t="n">
-        <v>6698958.025865254</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748689</v>
+        <v>111748663</v>
       </c>
       <c r="B5" t="n">
-        <v>90678</v>
+        <v>101703</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>222412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664821.6049801367</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R5" t="n">
-        <v>6699355.67585695</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748671</v>
+        <v>111748736</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664638.2983129583</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R6" t="n">
-        <v>6699364.178068399</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748709</v>
+        <v>111748662</v>
       </c>
       <c r="B7" t="n">
-        <v>96369</v>
+        <v>101703</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219862</v>
+        <v>222412</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664847.7700305003</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R7" t="n">
-        <v>6699248.973355746</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748740</v>
+        <v>111748650</v>
       </c>
       <c r="B8" t="n">
-        <v>103288</v>
+        <v>94134</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664604.2181931254</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R8" t="n">
-        <v>6699274.042581626</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748707</v>
+        <v>111748708</v>
       </c>
       <c r="B9" t="n">
         <v>96369</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664850.52293942</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R9" t="n">
-        <v>6699362.928853855</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748640</v>
+        <v>111748774</v>
       </c>
       <c r="B10" t="n">
-        <v>99413</v>
+        <v>85253</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221235</v>
+        <v>3674</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664568.5768465291</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R10" t="n">
-        <v>6698999.716977227</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748687</v>
+        <v>111748683</v>
       </c>
       <c r="B11" t="n">
-        <v>96326</v>
+        <v>96266</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219798</v>
+        <v>223591</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664642.3199653549</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R11" t="n">
-        <v>6698871.403136684</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748713</v>
+        <v>111748692</v>
       </c>
       <c r="B12" t="n">
-        <v>96381</v>
+        <v>89183</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219874</v>
+        <v>3215</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664764.1319274458</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R12" t="n">
-        <v>6698962.067276149</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748730</v>
+        <v>111748666</v>
       </c>
       <c r="B13" t="n">
-        <v>90674</v>
+        <v>101703</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2058</v>
+        <v>222412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664867.8416141088</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R13" t="n">
-        <v>6699418.15535864</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748683</v>
+        <v>111748713</v>
       </c>
       <c r="B14" t="n">
-        <v>96266</v>
+        <v>96381</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>223591</v>
+        <v>219874</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664638.5631493796</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R14" t="n">
-        <v>6699489.398619195</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748672</v>
+        <v>111748690</v>
       </c>
       <c r="B15" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664757.060744858</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R15" t="n">
-        <v>6699074.10032806</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748732</v>
+        <v>111748642</v>
       </c>
       <c r="B16" t="n">
-        <v>85290</v>
+        <v>99413</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6003295</v>
+        <v>221235</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664830.0022340771</v>
+        <v>664567.4272046218</v>
       </c>
       <c r="R16" t="n">
-        <v>6699214.511088434</v>
+        <v>6699538.628004844</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748686</v>
+        <v>111748735</v>
       </c>
       <c r="B17" t="n">
-        <v>96326</v>
+        <v>88966</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219798</v>
+        <v>5754</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664675.2689733801</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R17" t="n">
-        <v>6699052.073605827</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748663</v>
+        <v>111748702</v>
       </c>
       <c r="B18" t="n">
-        <v>101703</v>
+        <v>85089</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222412</v>
+        <v>3762</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664850.306320559</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R18" t="n">
-        <v>6699193.161951311</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748674</v>
+        <v>111748673</v>
       </c>
       <c r="B19" t="n">
         <v>90332</v>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664708.4139202497</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R19" t="n">
-        <v>6698857.079132927</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748643</v>
+        <v>111748762</v>
       </c>
       <c r="B20" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2712,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664631.4714806431</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R20" t="n">
-        <v>6699427.215353329</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748771</v>
+        <v>111748703</v>
       </c>
       <c r="B21" t="n">
-        <v>85253</v>
+        <v>85089</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,21 +2824,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3674</v>
+        <v>3762</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664803.0104039316</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R21" t="n">
-        <v>6699372.152713455</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2920,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748739</v>
+        <v>111748761</v>
       </c>
       <c r="B22" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,21 +2936,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664649.5501774848</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R22" t="n">
-        <v>6699105.349934292</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3032,10 +3032,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748702</v>
+        <v>111748651</v>
       </c>
       <c r="B23" t="n">
-        <v>85089</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3044,25 +3044,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3762</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3072,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664852.3607732435</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R23" t="n">
-        <v>6699289.765398038</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3144,10 +3144,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748765</v>
+        <v>111748759</v>
       </c>
       <c r="B24" t="n">
-        <v>90660</v>
+        <v>98535</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3156,25 +3156,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4362</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664575.0291913702</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R24" t="n">
-        <v>6698988.625762361</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3256,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748774</v>
+        <v>111748740</v>
       </c>
       <c r="B25" t="n">
-        <v>85253</v>
+        <v>103288</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3272,21 +3272,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3674</v>
+        <v>221144</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664776.9458788878</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R25" t="n">
-        <v>6698920.082440153</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748742</v>
+        <v>111748677</v>
       </c>
       <c r="B26" t="n">
-        <v>93248</v>
+        <v>56414</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3380,30 +3380,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>210</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>25</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3412,10 +3413,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664616.566347321</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R26" t="n">
-        <v>6698848.950711449</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3442,7 +3443,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3452,7 +3453,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3484,10 +3485,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748647</v>
+        <v>111748689</v>
       </c>
       <c r="B27" t="n">
-        <v>88909</v>
+        <v>90678</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3496,25 +3497,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>720</v>
+        <v>4366</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3524,10 +3525,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664820.8300099263</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R27" t="n">
-        <v>6699241.810120963</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3570,11 +3571,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3601,10 +3597,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748675</v>
+        <v>111748709</v>
       </c>
       <c r="B28" t="n">
-        <v>90332</v>
+        <v>96369</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3617,21 +3613,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>219862</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3641,10 +3637,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664764.0858319701</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R28" t="n">
-        <v>6698952.165968419</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3713,10 +3709,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748673</v>
+        <v>111748649</v>
       </c>
       <c r="B29" t="n">
-        <v>90332</v>
+        <v>94134</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3725,25 +3721,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4769</v>
+        <v>53</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3753,10 +3749,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664574.9395623421</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R29" t="n">
-        <v>6698990.601510798</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3793,7 +3789,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3825,10 +3821,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748642</v>
+        <v>111748711</v>
       </c>
       <c r="B30" t="n">
-        <v>99413</v>
+        <v>96381</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3841,21 +3837,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221235</v>
+        <v>219874</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3865,10 +3861,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664567.4272046218</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R30" t="n">
-        <v>6699538.628004844</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3895,7 +3891,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3905,7 +3901,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3937,10 +3933,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748731</v>
+        <v>111748741</v>
       </c>
       <c r="B31" t="n">
-        <v>90674</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3949,25 +3945,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2058</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3977,10 +3973,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664818.6562284525</v>
+        <v>664568.8475301198</v>
       </c>
       <c r="R31" t="n">
-        <v>6699322.382911628</v>
+        <v>6699004.678774409</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4049,10 +4045,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748648</v>
+        <v>111748671</v>
       </c>
       <c r="B32" t="n">
-        <v>94134</v>
+        <v>90332</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4061,25 +4057,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>53</v>
+        <v>4769</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4089,10 +4085,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664655.3316318352</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R32" t="n">
-        <v>6699447.599252445</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4119,7 +4115,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4129,7 +4125,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4161,10 +4157,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748761</v>
+        <v>111748715</v>
       </c>
       <c r="B33" t="n">
-        <v>98535</v>
+        <v>88956</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4173,25 +4169,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>5747</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4201,10 +4197,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664669.2408998127</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R33" t="n">
-        <v>6699042.890928292</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4231,7 +4227,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4241,7 +4237,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4273,10 +4269,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748741</v>
+        <v>111748732</v>
       </c>
       <c r="B34" t="n">
-        <v>103288</v>
+        <v>85290</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4285,25 +4281,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221144</v>
+        <v>6003295</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4313,10 +4309,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664568.8475301198</v>
+        <v>664830.0022340771</v>
       </c>
       <c r="R34" t="n">
-        <v>6699004.678774409</v>
+        <v>6699214.511088434</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4385,10 +4381,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748684</v>
+        <v>111748674</v>
       </c>
       <c r="B35" t="n">
-        <v>96326</v>
+        <v>90332</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4401,21 +4397,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>219798</v>
+        <v>4769</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4425,10 +4421,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664604.7573992921</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R35" t="n">
-        <v>6698836.040565506</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4497,10 +4493,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748735</v>
+        <v>111748648</v>
       </c>
       <c r="B36" t="n">
-        <v>88966</v>
+        <v>94134</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4513,21 +4509,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5754</v>
+        <v>53</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4537,10 +4533,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664801.9547313601</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R36" t="n">
-        <v>6699384.477357466</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4567,7 +4563,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4577,7 +4573,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4609,10 +4605,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748654</v>
+        <v>111748665</v>
       </c>
       <c r="B37" t="n">
-        <v>96370</v>
+        <v>101703</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4625,21 +4621,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>219847</v>
+        <v>222412</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4649,10 +4645,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664579.5402544152</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R37" t="n">
-        <v>6698932.900203395</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4721,10 +4717,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748712</v>
+        <v>111748684</v>
       </c>
       <c r="B38" t="n">
-        <v>96381</v>
+        <v>96326</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4737,21 +4733,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219874</v>
+        <v>219798</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4761,10 +4757,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664826.5343673588</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R38" t="n">
-        <v>6699410.834182931</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4833,10 +4829,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748737</v>
+        <v>111748700</v>
       </c>
       <c r="B39" t="n">
-        <v>88918</v>
+        <v>85089</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4845,25 +4841,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5745</v>
+        <v>3762</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4873,10 +4869,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664808.6128849701</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R39" t="n">
-        <v>6699172.460106185</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4927,7 +4923,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5058,10 +5053,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748700</v>
+        <v>111748693</v>
       </c>
       <c r="B41" t="n">
-        <v>85089</v>
+        <v>89183</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5074,21 +5069,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3762</v>
+        <v>3215</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5098,10 +5093,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664853.490245176</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R41" t="n">
-        <v>6699352.175737353</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5170,10 +5165,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748649</v>
+        <v>111748771</v>
       </c>
       <c r="B42" t="n">
-        <v>94134</v>
+        <v>85253</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5182,25 +5177,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53</v>
+        <v>3674</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5210,10 +5205,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664603.5764787464</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R42" t="n">
-        <v>6699342.806076139</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5240,7 +5235,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5250,7 +5245,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5282,10 +5277,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748708</v>
+        <v>111748765</v>
       </c>
       <c r="B43" t="n">
-        <v>96369</v>
+        <v>90660</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5294,25 +5289,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>219862</v>
+        <v>4362</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5322,10 +5317,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664872.0610342777</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R43" t="n">
-        <v>6699314.416695234</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5394,10 +5389,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748762</v>
+        <v>111748687</v>
       </c>
       <c r="B44" t="n">
-        <v>98535</v>
+        <v>96326</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5410,21 +5405,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222498</v>
+        <v>219798</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5434,10 +5429,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664635.6605944363</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R44" t="n">
-        <v>6698854.271896686</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5506,7 +5501,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748738</v>
+        <v>111748739</v>
       </c>
       <c r="B45" t="n">
         <v>103288</v>
@@ -5546,10 +5541,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664658.7886288867</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R45" t="n">
-        <v>6699076.567729114</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5618,10 +5613,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748692</v>
+        <v>111748772</v>
       </c>
       <c r="B46" t="n">
-        <v>89183</v>
+        <v>85253</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5634,21 +5629,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3215</v>
+        <v>3674</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5658,10 +5653,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664778.1089783342</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R46" t="n">
-        <v>6699069.116974886</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5730,10 +5725,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748650</v>
+        <v>111748742</v>
       </c>
       <c r="B47" t="n">
-        <v>94134</v>
+        <v>93248</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,38 +5737,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664567.5443468138</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R47" t="n">
-        <v>6699011.548972152</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5800,7 +5799,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5810,7 +5809,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5842,10 +5841,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748773</v>
+        <v>111748737</v>
       </c>
       <c r="B48" t="n">
-        <v>85253</v>
+        <v>88918</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5854,25 +5853,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3674</v>
+        <v>5745</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5882,10 +5881,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664724.9064109002</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R48" t="n">
-        <v>6698919.69909039</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5936,6 +5935,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748668</v>
+        <v>111748707</v>
       </c>
       <c r="B49" t="n">
-        <v>56543</v>
+        <v>96369</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5966,25 +5966,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>103021</v>
+        <v>219862</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664732.4426041286</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R49" t="n">
-        <v>6698939.344871927</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748691</v>
+        <v>111748695</v>
       </c>
       <c r="B50" t="n">
         <v>89183</v>
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664620.6444729717</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R50" t="n">
-        <v>6699349.02459933</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748644</v>
+        <v>111748738</v>
       </c>
       <c r="B51" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6194,21 +6194,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664676.080560883</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R51" t="n">
-        <v>6699066.958814406</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6290,10 +6290,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748736</v>
+        <v>111748770</v>
       </c>
       <c r="B52" t="n">
-        <v>88966</v>
+        <v>85253</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6302,25 +6302,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5754</v>
+        <v>3674</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664803.3322592583</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R52" t="n">
-        <v>6699212.309487404</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748669</v>
+        <v>111748760</v>
       </c>
       <c r="B53" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6418,21 +6418,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664686.8541501703</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R53" t="n">
-        <v>6699080.811365802</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6514,10 +6514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748760</v>
+        <v>111748647</v>
       </c>
       <c r="B54" t="n">
-        <v>98535</v>
+        <v>88909</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6526,25 +6526,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>720</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664590.5125486635</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R54" t="n">
-        <v>6699346.66743302</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6594,12 +6594,17 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6626,10 +6631,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748715</v>
+        <v>111748688</v>
       </c>
       <c r="B55" t="n">
-        <v>88956</v>
+        <v>96326</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6638,25 +6643,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5747</v>
+        <v>219798</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6666,10 +6671,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664855.4976383725</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R55" t="n">
-        <v>6699427.987196152</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6696,7 +6701,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6706,7 +6711,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6738,10 +6743,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748688</v>
+        <v>111748667</v>
       </c>
       <c r="B56" t="n">
-        <v>96326</v>
+        <v>56543</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6750,25 +6755,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>219798</v>
+        <v>103021</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6778,10 +6783,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664770.4952141214</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R56" t="n">
-        <v>6698952.952024489</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6808,7 +6813,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6818,7 +6823,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6850,10 +6855,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748690</v>
+        <v>111748730</v>
       </c>
       <c r="B57" t="n">
-        <v>89183</v>
+        <v>90674</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6862,25 +6867,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3215</v>
+        <v>2058</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6890,10 +6895,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664698.8371583781</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R57" t="n">
-        <v>6699057.103091458</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6962,10 +6967,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748693</v>
+        <v>111748669</v>
       </c>
       <c r="B58" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6978,21 +6983,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7002,10 +7007,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664610.9204746395</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R58" t="n">
-        <v>6698842.259884536</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7074,10 +7079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748641</v>
+        <v>111748773</v>
       </c>
       <c r="B59" t="n">
-        <v>99413</v>
+        <v>85253</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7090,21 +7095,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>221235</v>
+        <v>3674</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7114,10 +7119,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664626.8808813933</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R59" t="n">
-        <v>6699561.121136454</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7144,7 +7149,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7154,7 +7159,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -7186,10 +7191,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748770</v>
+        <v>111748664</v>
       </c>
       <c r="B60" t="n">
-        <v>85253</v>
+        <v>101703</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7202,21 +7207,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3674</v>
+        <v>222412</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7226,10 +7231,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664698.8371583781</v>
+        <v>664795.7286883136</v>
       </c>
       <c r="R60" t="n">
-        <v>6699057.103091458</v>
+        <v>6699183.258195299</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7298,10 +7303,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748677</v>
+        <v>111748675</v>
       </c>
       <c r="B61" t="n">
-        <v>56414</v>
+        <v>90332</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7310,43 +7315,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>4769</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664615.8542000444</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R61" t="n">
-        <v>6699498.265643556</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7415,10 +7415,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748764</v>
+        <v>111748691</v>
       </c>
       <c r="B62" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7431,21 +7431,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7455,10 +7455,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664769.3711021288</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R62" t="n">
-        <v>6698955.870736851</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7527,10 +7527,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748664</v>
+        <v>111748640</v>
       </c>
       <c r="B63" t="n">
-        <v>101703</v>
+        <v>99413</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7543,21 +7543,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7567,10 +7567,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664795.7286883136</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R63" t="n">
-        <v>6699183.258195299</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7639,10 +7639,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748695</v>
+        <v>111748644</v>
       </c>
       <c r="B64" t="n">
-        <v>89183</v>
+        <v>99413</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7655,21 +7655,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3215</v>
+        <v>221235</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7679,10 +7679,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664758.1487707719</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R64" t="n">
-        <v>6698951.896335257</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -7751,10 +7751,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748729</v>
+        <v>111748643</v>
       </c>
       <c r="B65" t="n">
-        <v>90674</v>
+        <v>99413</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7763,25 +7763,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2058</v>
+        <v>221235</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7791,10 +7791,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664589.6062576605</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R65" t="n">
-        <v>6699017.004385524</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7863,10 +7863,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748667</v>
+        <v>111748672</v>
       </c>
       <c r="B66" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664676.6366606337</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R66" t="n">
-        <v>6699021.943822397</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7975,10 +7975,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748651</v>
+        <v>111748641</v>
       </c>
       <c r="B67" t="n">
-        <v>89405</v>
+        <v>99413</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7987,25 +7987,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1202</v>
+        <v>221235</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8015,10 +8015,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664849.7319311691</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R67" t="n">
-        <v>6699314.886606451</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -8087,10 +8087,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748759</v>
+        <v>111748712</v>
       </c>
       <c r="B68" t="n">
-        <v>98535</v>
+        <v>96381</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8103,21 +8103,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>222498</v>
+        <v>219874</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8127,10 +8127,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664565.3140634815</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R68" t="n">
-        <v>6699541.501402936</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8199,10 +8199,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748703</v>
+        <v>111748668</v>
       </c>
       <c r="B69" t="n">
-        <v>85089</v>
+        <v>56543</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8211,25 +8211,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3762</v>
+        <v>103021</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8239,10 +8239,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664569.3144499823</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R69" t="n">
-        <v>6698972.52796749</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8311,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748772</v>
+        <v>111748729</v>
       </c>
       <c r="B70" t="n">
-        <v>85253</v>
+        <v>90674</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8323,25 +8323,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3674</v>
+        <v>2058</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664599.8235772498</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R70" t="n">
-        <v>6698922.931241977</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748662</v>
+        <v>111748654</v>
       </c>
       <c r="B71" t="n">
-        <v>101703</v>
+        <v>96370</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8439,21 +8439,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222412</v>
+        <v>219847</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664770.1427733348</v>
+        <v>664579.5402544152</v>
       </c>
       <c r="R71" t="n">
-        <v>6699440.935377424</v>
+        <v>6698932.900203395</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8535,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748711</v>
+        <v>111748764</v>
       </c>
       <c r="B72" t="n">
-        <v>96381</v>
+        <v>98535</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8551,21 +8551,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>219874</v>
+        <v>222498</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664758.9699501268</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R72" t="n">
-        <v>6699053.894244161</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -8647,10 +8647,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748705</v>
+        <v>111748686</v>
       </c>
       <c r="B73" t="n">
-        <v>96369</v>
+        <v>96326</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8663,21 +8663,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>219862</v>
+        <v>219798</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664770.1427733348</v>
+        <v>664675.2689733801</v>
       </c>
       <c r="R73" t="n">
-        <v>6699440.935377424</v>
+        <v>6699052.073605827</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748702</v>
+        <v>111748673</v>
       </c>
       <c r="B18" t="n">
-        <v>85089</v>
+        <v>90332</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664852.3607732435</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R18" t="n">
-        <v>6699289.765398038</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748673</v>
+        <v>111748762</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2600,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664574.9395623421</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R19" t="n">
-        <v>6698990.601510798</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2696,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748762</v>
+        <v>111748702</v>
       </c>
       <c r="B20" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2712,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664635.6605944363</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R20" t="n">
-        <v>6698854.271896686</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -4941,10 +4941,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748670</v>
+        <v>111748693</v>
       </c>
       <c r="B40" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4957,21 +4957,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4981,10 +4981,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664583.6729684926</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R40" t="n">
-        <v>6699322.601555262</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748693</v>
+        <v>111748771</v>
       </c>
       <c r="B41" t="n">
-        <v>89183</v>
+        <v>85253</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5069,21 +5069,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3215</v>
+        <v>3674</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664610.9204746395</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R41" t="n">
-        <v>6698842.259884536</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748771</v>
+        <v>111748670</v>
       </c>
       <c r="B42" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5181,21 +5181,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5205,10 +5205,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664803.0104039316</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R42" t="n">
-        <v>6699372.152713455</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748707</v>
+        <v>111748770</v>
       </c>
       <c r="B49" t="n">
-        <v>96369</v>
+        <v>85253</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5970,21 +5970,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>219862</v>
+        <v>3674</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664850.52293942</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R49" t="n">
-        <v>6699362.928853855</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748695</v>
+        <v>111748760</v>
       </c>
       <c r="B50" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6082,21 +6082,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664758.1487707719</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R50" t="n">
-        <v>6698951.896335257</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6290,10 +6290,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748770</v>
+        <v>111748707</v>
       </c>
       <c r="B52" t="n">
-        <v>85253</v>
+        <v>96369</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6306,21 +6306,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3674</v>
+        <v>219862</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664698.8371583781</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R52" t="n">
-        <v>6699057.103091458</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748760</v>
+        <v>111748695</v>
       </c>
       <c r="B53" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6418,21 +6418,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664590.5125486635</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R53" t="n">
-        <v>6699346.66743302</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748704</v>
+        <v>111748649</v>
       </c>
       <c r="B2" t="n">
-        <v>85089</v>
+        <v>94134</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3762</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664771.2603847764</v>
+        <v>664603.5764787464</v>
       </c>
       <c r="R2" t="n">
-        <v>6698957.93638737</v>
+        <v>6699342.806076139</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748705</v>
+        <v>111748672</v>
       </c>
       <c r="B3" t="n">
-        <v>96369</v>
+        <v>90332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219862</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664770.1427733348</v>
+        <v>664757.060744858</v>
       </c>
       <c r="R3" t="n">
-        <v>6699440.935377424</v>
+        <v>6699074.10032806</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748731</v>
+        <v>111748688</v>
       </c>
       <c r="B4" t="n">
-        <v>90674</v>
+        <v>96326</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2058</v>
+        <v>219798</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664818.6562284525</v>
+        <v>664770.4952141214</v>
       </c>
       <c r="R4" t="n">
-        <v>6699322.382911628</v>
+        <v>6698952.952024489</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748663</v>
+        <v>111748673</v>
       </c>
       <c r="B5" t="n">
-        <v>101703</v>
+        <v>90332</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664850.306320559</v>
+        <v>664574.9395623421</v>
       </c>
       <c r="R5" t="n">
-        <v>6699193.161951311</v>
+        <v>6698990.601510798</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748736</v>
+        <v>111748761</v>
       </c>
       <c r="B6" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664803.3322592583</v>
+        <v>664669.2408998127</v>
       </c>
       <c r="R6" t="n">
-        <v>6699212.309487404</v>
+        <v>6699042.890928292</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748662</v>
+        <v>111748770</v>
       </c>
       <c r="B7" t="n">
-        <v>101703</v>
+        <v>85253</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222412</v>
+        <v>3674</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664770.1427733348</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R7" t="n">
-        <v>6699440.935377424</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748650</v>
+        <v>111748760</v>
       </c>
       <c r="B8" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664567.5443468138</v>
+        <v>664590.5125486635</v>
       </c>
       <c r="R8" t="n">
-        <v>6699011.548972152</v>
+        <v>6699346.66743302</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748708</v>
+        <v>111748773</v>
       </c>
       <c r="B9" t="n">
-        <v>96369</v>
+        <v>85253</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219862</v>
+        <v>3674</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664872.0610342777</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R9" t="n">
-        <v>6699314.416695234</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748774</v>
+        <v>111748674</v>
       </c>
       <c r="B10" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664776.9458788878</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R10" t="n">
-        <v>6698920.082440153</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748683</v>
+        <v>111748705</v>
       </c>
       <c r="B11" t="n">
-        <v>96266</v>
+        <v>96369</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>223591</v>
+        <v>219862</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664638.5631493796</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R11" t="n">
-        <v>6699489.398619195</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748692</v>
+        <v>111748654</v>
       </c>
       <c r="B12" t="n">
-        <v>89183</v>
+        <v>96370</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3215</v>
+        <v>219847</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664778.1089783342</v>
+        <v>664579.5402544152</v>
       </c>
       <c r="R12" t="n">
-        <v>6699069.116974886</v>
+        <v>6698932.900203395</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748666</v>
+        <v>111748647</v>
       </c>
       <c r="B13" t="n">
-        <v>101703</v>
+        <v>88909</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>720</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664762.3323740696</v>
+        <v>664820.8300099263</v>
       </c>
       <c r="R13" t="n">
-        <v>6698958.025865254</v>
+        <v>6699241.810120963</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1992,12 +1992,17 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2024,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748713</v>
+        <v>111748704</v>
       </c>
       <c r="B14" t="n">
-        <v>96381</v>
+        <v>85089</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219874</v>
+        <v>3762</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664764.1319274458</v>
+        <v>664771.2603847764</v>
       </c>
       <c r="R14" t="n">
-        <v>6698962.067276149</v>
+        <v>6698957.93638737</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2094,7 +2099,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2104,7 +2109,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2136,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748690</v>
+        <v>111748648</v>
       </c>
       <c r="B15" t="n">
-        <v>89183</v>
+        <v>94134</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>53</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664698.8371583781</v>
+        <v>664655.3316318352</v>
       </c>
       <c r="R15" t="n">
-        <v>6699057.103091458</v>
+        <v>6699447.599252445</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2206,7 +2211,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2216,7 +2221,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2360,10 +2365,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748735</v>
+        <v>111748711</v>
       </c>
       <c r="B17" t="n">
-        <v>88966</v>
+        <v>96381</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2377,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5754</v>
+        <v>219874</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2405,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664801.9547313601</v>
+        <v>664758.9699501268</v>
       </c>
       <c r="R17" t="n">
-        <v>6699384.477357466</v>
+        <v>6699053.894244161</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2472,10 +2477,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748673</v>
+        <v>111748662</v>
       </c>
       <c r="B18" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2493,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2517,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664574.9395623421</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R18" t="n">
-        <v>6698990.601510798</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2584,10 +2589,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748762</v>
+        <v>111748643</v>
       </c>
       <c r="B19" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2605,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664635.6605944363</v>
+        <v>664631.4714806431</v>
       </c>
       <c r="R19" t="n">
-        <v>6698854.271896686</v>
+        <v>6699427.215353329</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2696,10 +2701,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748702</v>
+        <v>111748738</v>
       </c>
       <c r="B20" t="n">
-        <v>85089</v>
+        <v>103288</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2717,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3762</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664852.3607732435</v>
+        <v>664658.7886288867</v>
       </c>
       <c r="R20" t="n">
-        <v>6699289.765398038</v>
+        <v>6699076.567729114</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2808,10 +2813,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748703</v>
+        <v>111748640</v>
       </c>
       <c r="B21" t="n">
-        <v>85089</v>
+        <v>99413</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,21 +2829,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3762</v>
+        <v>221235</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2853,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664569.3144499823</v>
+        <v>664568.5768465291</v>
       </c>
       <c r="R21" t="n">
-        <v>6698972.52796749</v>
+        <v>6698999.716977227</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2920,10 +2925,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748761</v>
+        <v>111748765</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>90660</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2932,25 +2937,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>4362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2965,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664669.2408998127</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R22" t="n">
-        <v>6699042.890928292</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -2990,7 +2995,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3000,7 +3005,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3032,10 +3037,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748651</v>
+        <v>111748759</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3044,25 +3049,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3072,10 +3077,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664849.7319311691</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R23" t="n">
-        <v>6699314.886606451</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3102,7 +3107,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3112,7 +3117,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3144,10 +3149,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748759</v>
+        <v>111748703</v>
       </c>
       <c r="B24" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3160,21 +3165,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3184,10 +3189,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664565.3140634815</v>
+        <v>664569.3144499823</v>
       </c>
       <c r="R24" t="n">
-        <v>6699541.501402936</v>
+        <v>6698972.52796749</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3214,7 +3219,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3224,7 +3229,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3256,10 +3261,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748740</v>
+        <v>111748689</v>
       </c>
       <c r="B25" t="n">
-        <v>103288</v>
+        <v>90678</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3272,21 +3277,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221144</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3296,10 +3301,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664604.2181931254</v>
+        <v>664821.6049801367</v>
       </c>
       <c r="R25" t="n">
-        <v>6699274.042581626</v>
+        <v>6699355.67585695</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3368,10 +3373,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748677</v>
+        <v>111748695</v>
       </c>
       <c r="B26" t="n">
-        <v>56414</v>
+        <v>89183</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3380,43 +3385,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>3215</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664615.8542000444</v>
+        <v>664758.1487707719</v>
       </c>
       <c r="R26" t="n">
-        <v>6699498.265643556</v>
+        <v>6698951.896335257</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3485,10 +3485,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748689</v>
+        <v>111748715</v>
       </c>
       <c r="B27" t="n">
-        <v>90678</v>
+        <v>88956</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3497,25 +3497,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4366</v>
+        <v>5747</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3525,10 +3525,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664821.6049801367</v>
+        <v>664855.4976383725</v>
       </c>
       <c r="R27" t="n">
-        <v>6699355.67585695</v>
+        <v>6699427.987196152</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748709</v>
+        <v>111748675</v>
       </c>
       <c r="B28" t="n">
-        <v>96369</v>
+        <v>90332</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3613,21 +3613,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219862</v>
+        <v>4769</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664847.7700305003</v>
+        <v>664764.0858319701</v>
       </c>
       <c r="R28" t="n">
-        <v>6699248.973355746</v>
+        <v>6698952.165968419</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748649</v>
+        <v>111748737</v>
       </c>
       <c r="B29" t="n">
-        <v>94134</v>
+        <v>88918</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3721,25 +3721,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53</v>
+        <v>5745</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664603.5764787464</v>
+        <v>664808.6128849701</v>
       </c>
       <c r="R29" t="n">
-        <v>6699342.806076139</v>
+        <v>6699172.460106185</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3803,6 +3803,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3821,10 +3822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748711</v>
+        <v>111748692</v>
       </c>
       <c r="B30" t="n">
-        <v>96381</v>
+        <v>89183</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3837,21 +3838,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>219874</v>
+        <v>3215</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3861,10 +3862,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664758.9699501268</v>
+        <v>664778.1089783342</v>
       </c>
       <c r="R30" t="n">
-        <v>6699053.894244161</v>
+        <v>6699069.116974886</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3933,10 +3934,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748741</v>
+        <v>111748730</v>
       </c>
       <c r="B31" t="n">
-        <v>103288</v>
+        <v>90674</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3945,25 +3946,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221144</v>
+        <v>2058</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3973,10 +3974,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664568.8475301198</v>
+        <v>664867.8416141088</v>
       </c>
       <c r="R31" t="n">
-        <v>6699004.678774409</v>
+        <v>6699418.15535864</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4045,10 +4046,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748671</v>
+        <v>111748644</v>
       </c>
       <c r="B32" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4061,21 +4062,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4085,10 +4086,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664638.2983129583</v>
+        <v>664676.080560883</v>
       </c>
       <c r="R32" t="n">
-        <v>6699364.178068399</v>
+        <v>6699066.958814406</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4115,7 +4116,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4125,7 +4126,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4157,10 +4158,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748715</v>
+        <v>111748686</v>
       </c>
       <c r="B33" t="n">
-        <v>88956</v>
+        <v>96326</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4169,25 +4170,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5747</v>
+        <v>219798</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4197,10 +4198,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664855.4976383725</v>
+        <v>664675.2689733801</v>
       </c>
       <c r="R33" t="n">
-        <v>6699427.987196152</v>
+        <v>6699052.073605827</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4227,7 +4228,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4237,7 +4238,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4269,10 +4270,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748732</v>
+        <v>111748687</v>
       </c>
       <c r="B34" t="n">
-        <v>85290</v>
+        <v>96326</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4281,25 +4282,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6003295</v>
+        <v>219798</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4309,10 +4310,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664830.0022340771</v>
+        <v>664642.3199653549</v>
       </c>
       <c r="R34" t="n">
-        <v>6699214.511088434</v>
+        <v>6698871.403136684</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4339,7 +4340,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4349,7 +4350,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4381,10 +4382,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748674</v>
+        <v>111748713</v>
       </c>
       <c r="B35" t="n">
-        <v>90332</v>
+        <v>96381</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4397,21 +4398,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4769</v>
+        <v>219874</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4421,10 +4422,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664708.4139202497</v>
+        <v>664764.1319274458</v>
       </c>
       <c r="R35" t="n">
-        <v>6698857.079132927</v>
+        <v>6698962.067276149</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4451,7 +4452,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4461,7 +4462,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4493,10 +4494,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748648</v>
+        <v>111748731</v>
       </c>
       <c r="B36" t="n">
-        <v>94134</v>
+        <v>90674</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4505,25 +4506,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>2058</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4533,10 +4534,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664655.3316318352</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R36" t="n">
-        <v>6699447.599252445</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4563,7 +4564,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4573,7 +4574,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4605,10 +4606,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748665</v>
+        <v>111748651</v>
       </c>
       <c r="B37" t="n">
-        <v>101703</v>
+        <v>89405</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4617,25 +4618,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222412</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4645,10 +4646,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664831.6371875083</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R37" t="n">
-        <v>6699658.507831291</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4675,7 +4676,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4685,7 +4686,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4717,10 +4718,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748684</v>
+        <v>111748690</v>
       </c>
       <c r="B38" t="n">
-        <v>96326</v>
+        <v>89183</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4733,21 +4734,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219798</v>
+        <v>3215</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4757,10 +4758,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664604.7573992921</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R38" t="n">
-        <v>6698836.040565506</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4829,10 +4830,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748700</v>
+        <v>111748650</v>
       </c>
       <c r="B39" t="n">
-        <v>85089</v>
+        <v>94134</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4841,25 +4842,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3762</v>
+        <v>53</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4869,10 +4870,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664853.490245176</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R39" t="n">
-        <v>6699352.175737353</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4899,7 +4900,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4909,7 +4910,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -4941,10 +4942,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748693</v>
+        <v>111748641</v>
       </c>
       <c r="B40" t="n">
-        <v>89183</v>
+        <v>99413</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4957,21 +4958,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3215</v>
+        <v>221235</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4981,10 +4982,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664610.9204746395</v>
+        <v>664626.8808813933</v>
       </c>
       <c r="R40" t="n">
-        <v>6698842.259884536</v>
+        <v>6699561.121136454</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5011,7 +5012,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5021,7 +5022,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5053,10 +5054,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748771</v>
+        <v>111748742</v>
       </c>
       <c r="B41" t="n">
-        <v>85253</v>
+        <v>93248</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5069,34 +5070,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3674</v>
+        <v>210</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664803.0104039316</v>
+        <v>664616.566347321</v>
       </c>
       <c r="R41" t="n">
-        <v>6699372.152713455</v>
+        <v>6698848.950711449</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5165,10 +5170,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748670</v>
+        <v>111748739</v>
       </c>
       <c r="B42" t="n">
-        <v>90332</v>
+        <v>103288</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5181,21 +5186,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4769</v>
+        <v>221144</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5205,10 +5210,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664583.6729684926</v>
+        <v>664649.5501774848</v>
       </c>
       <c r="R42" t="n">
-        <v>6699322.601555262</v>
+        <v>6699105.349934292</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5277,10 +5282,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748765</v>
+        <v>111748741</v>
       </c>
       <c r="B43" t="n">
-        <v>90660</v>
+        <v>103288</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5289,25 +5294,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4362</v>
+        <v>221144</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5317,10 +5322,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664575.0291913702</v>
+        <v>664568.8475301198</v>
       </c>
       <c r="R43" t="n">
-        <v>6698988.625762361</v>
+        <v>6699004.678774409</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5389,10 +5394,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748687</v>
+        <v>111748732</v>
       </c>
       <c r="B44" t="n">
-        <v>96326</v>
+        <v>85290</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5401,25 +5406,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>219798</v>
+        <v>6003295</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5429,10 +5434,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664642.3199653549</v>
+        <v>664830.0022340771</v>
       </c>
       <c r="R44" t="n">
-        <v>6698871.403136684</v>
+        <v>6699214.511088434</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5459,7 +5464,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5469,7 +5474,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5501,10 +5506,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748739</v>
+        <v>111748667</v>
       </c>
       <c r="B45" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5513,25 +5518,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5541,10 +5546,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664649.5501774848</v>
+        <v>664676.6366606337</v>
       </c>
       <c r="R45" t="n">
-        <v>6699105.349934292</v>
+        <v>6699021.943822397</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5613,10 +5618,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748772</v>
+        <v>111748735</v>
       </c>
       <c r="B46" t="n">
-        <v>85253</v>
+        <v>88966</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5625,25 +5630,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5653,10 +5658,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664599.8235772498</v>
+        <v>664801.9547313601</v>
       </c>
       <c r="R46" t="n">
-        <v>6698922.931241977</v>
+        <v>6699384.477357466</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5725,10 +5730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748742</v>
+        <v>111748669</v>
       </c>
       <c r="B47" t="n">
-        <v>93248</v>
+        <v>90332</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5741,38 +5746,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>210</v>
+        <v>4769</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664616.566347321</v>
+        <v>664686.8541501703</v>
       </c>
       <c r="R47" t="n">
-        <v>6698848.950711449</v>
+        <v>6699080.811365802</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5841,10 +5842,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748737</v>
+        <v>111748736</v>
       </c>
       <c r="B48" t="n">
-        <v>88918</v>
+        <v>88966</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5853,25 +5854,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5745</v>
+        <v>5754</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5881,10 +5882,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664808.6128849701</v>
+        <v>664803.3322592583</v>
       </c>
       <c r="R48" t="n">
-        <v>6699172.460106185</v>
+        <v>6699212.309487404</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5935,7 +5936,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748770</v>
+        <v>111748666</v>
       </c>
       <c r="B49" t="n">
-        <v>85253</v>
+        <v>101703</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5970,21 +5970,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3674</v>
+        <v>222412</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664698.8371583781</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R49" t="n">
-        <v>6699057.103091458</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6066,10 +6066,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748760</v>
+        <v>111748700</v>
       </c>
       <c r="B50" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6082,21 +6082,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664590.5125486635</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R50" t="n">
-        <v>6699346.66743302</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6178,10 +6178,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748738</v>
+        <v>111748691</v>
       </c>
       <c r="B51" t="n">
-        <v>103288</v>
+        <v>89183</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6194,21 +6194,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>221144</v>
+        <v>3215</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664658.7886288867</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R51" t="n">
-        <v>6699076.567729114</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6290,10 +6290,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748707</v>
+        <v>111748671</v>
       </c>
       <c r="B52" t="n">
-        <v>96369</v>
+        <v>90332</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6306,21 +6306,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>219862</v>
+        <v>4769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664850.52293942</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R52" t="n">
-        <v>6699362.928853855</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748695</v>
+        <v>111748740</v>
       </c>
       <c r="B53" t="n">
-        <v>89183</v>
+        <v>103288</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6418,21 +6418,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3215</v>
+        <v>221144</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664758.1487707719</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R53" t="n">
-        <v>6698951.896335257</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6514,10 +6514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748647</v>
+        <v>111748729</v>
       </c>
       <c r="B54" t="n">
-        <v>88909</v>
+        <v>90674</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6530,21 +6530,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>720</v>
+        <v>2058</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664820.8300099263</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R54" t="n">
-        <v>6699241.810120963</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6600,11 +6600,6 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6631,10 +6626,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748688</v>
+        <v>111748762</v>
       </c>
       <c r="B55" t="n">
-        <v>96326</v>
+        <v>98535</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6647,21 +6642,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>219798</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6671,10 +6666,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664770.4952141214</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R55" t="n">
-        <v>6698952.952024489</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6743,10 +6738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748667</v>
+        <v>111748774</v>
       </c>
       <c r="B56" t="n">
-        <v>56543</v>
+        <v>85253</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6755,25 +6750,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>103021</v>
+        <v>3674</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6783,10 +6778,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664676.6366606337</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R56" t="n">
-        <v>6699021.943822397</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6855,10 +6850,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748730</v>
+        <v>111748709</v>
       </c>
       <c r="B57" t="n">
-        <v>90674</v>
+        <v>96369</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6867,25 +6862,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2058</v>
+        <v>219862</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6895,10 +6890,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664867.8416141088</v>
+        <v>664847.7700305003</v>
       </c>
       <c r="R57" t="n">
-        <v>6699418.15535864</v>
+        <v>6699248.973355746</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6967,10 +6962,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748669</v>
+        <v>111748712</v>
       </c>
       <c r="B58" t="n">
-        <v>90332</v>
+        <v>96381</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6983,21 +6978,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4769</v>
+        <v>219874</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7007,10 +7002,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664686.8541501703</v>
+        <v>664826.5343673588</v>
       </c>
       <c r="R58" t="n">
-        <v>6699080.811365802</v>
+        <v>6699410.834182931</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7079,10 +7074,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748773</v>
+        <v>111748707</v>
       </c>
       <c r="B59" t="n">
-        <v>85253</v>
+        <v>96369</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7095,21 +7090,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3674</v>
+        <v>219862</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7119,10 +7114,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664724.9064109002</v>
+        <v>664850.52293942</v>
       </c>
       <c r="R59" t="n">
-        <v>6698919.69909039</v>
+        <v>6699362.928853855</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7303,10 +7298,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748675</v>
+        <v>111748693</v>
       </c>
       <c r="B61" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7319,21 +7314,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7343,10 +7338,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664764.0858319701</v>
+        <v>664610.9204746395</v>
       </c>
       <c r="R61" t="n">
-        <v>6698952.165968419</v>
+        <v>6698842.259884536</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7415,10 +7410,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748691</v>
+        <v>111748771</v>
       </c>
       <c r="B62" t="n">
-        <v>89183</v>
+        <v>85253</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7431,21 +7426,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3215</v>
+        <v>3674</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7455,10 +7450,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664620.6444729717</v>
+        <v>664803.0104039316</v>
       </c>
       <c r="R62" t="n">
-        <v>6699349.02459933</v>
+        <v>6699372.152713455</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7527,10 +7522,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748640</v>
+        <v>111748764</v>
       </c>
       <c r="B63" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7543,21 +7538,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7567,10 +7562,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664568.5768465291</v>
+        <v>664769.3711021288</v>
       </c>
       <c r="R63" t="n">
-        <v>6698999.716977227</v>
+        <v>6698955.870736851</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7597,7 +7592,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -7607,7 +7602,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -7639,10 +7634,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748644</v>
+        <v>111748668</v>
       </c>
       <c r="B64" t="n">
-        <v>99413</v>
+        <v>56543</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7651,25 +7646,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>221235</v>
+        <v>103021</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7679,10 +7674,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664676.080560883</v>
+        <v>664732.4426041286</v>
       </c>
       <c r="R64" t="n">
-        <v>6699066.958814406</v>
+        <v>6698939.344871927</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7709,7 +7704,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7719,7 +7714,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -7751,10 +7746,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748643</v>
+        <v>111748670</v>
       </c>
       <c r="B65" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7767,21 +7762,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7791,10 +7786,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664631.4714806431</v>
+        <v>664583.6729684926</v>
       </c>
       <c r="R65" t="n">
-        <v>6699427.215353329</v>
+        <v>6699322.601555262</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7821,7 +7816,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7831,7 +7826,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7863,10 +7858,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748672</v>
+        <v>111748665</v>
       </c>
       <c r="B66" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7879,21 +7874,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7903,10 +7898,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664757.060744858</v>
+        <v>664831.6371875083</v>
       </c>
       <c r="R66" t="n">
-        <v>6699074.10032806</v>
+        <v>6699658.507831291</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7933,7 +7928,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7943,7 +7938,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -7975,10 +7970,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748641</v>
+        <v>111748684</v>
       </c>
       <c r="B67" t="n">
-        <v>99413</v>
+        <v>96326</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7991,21 +7986,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>221235</v>
+        <v>219798</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8015,10 +8010,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664626.8808813933</v>
+        <v>664604.7573992921</v>
       </c>
       <c r="R67" t="n">
-        <v>6699561.121136454</v>
+        <v>6698836.040565506</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8045,7 +8040,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8055,7 +8050,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -8087,10 +8082,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748712</v>
+        <v>111748677</v>
       </c>
       <c r="B68" t="n">
-        <v>96381</v>
+        <v>56414</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8099,38 +8094,43 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>219874</v>
+        <v>100049</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664826.5343673588</v>
+        <v>664615.8542000444</v>
       </c>
       <c r="R68" t="n">
-        <v>6699410.834182931</v>
+        <v>6699498.265643556</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8199,10 +8199,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748668</v>
+        <v>111748708</v>
       </c>
       <c r="B69" t="n">
-        <v>56543</v>
+        <v>96369</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8211,25 +8211,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>103021</v>
+        <v>219862</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8239,10 +8239,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664732.4426041286</v>
+        <v>664872.0610342777</v>
       </c>
       <c r="R69" t="n">
-        <v>6698939.344871927</v>
+        <v>6699314.416695234</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8311,10 +8311,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748729</v>
+        <v>111748702</v>
       </c>
       <c r="B70" t="n">
-        <v>90674</v>
+        <v>85089</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8323,25 +8323,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2058</v>
+        <v>3762</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664589.6062576605</v>
+        <v>664852.3607732435</v>
       </c>
       <c r="R70" t="n">
-        <v>6699017.004385524</v>
+        <v>6699289.765398038</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748654</v>
+        <v>111748663</v>
       </c>
       <c r="B71" t="n">
-        <v>96370</v>
+        <v>101703</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8439,21 +8439,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>219847</v>
+        <v>222412</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664579.5402544152</v>
+        <v>664850.306320559</v>
       </c>
       <c r="R71" t="n">
-        <v>6698932.900203395</v>
+        <v>6699193.161951311</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8535,10 +8535,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748764</v>
+        <v>111748683</v>
       </c>
       <c r="B72" t="n">
-        <v>98535</v>
+        <v>96266</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8551,21 +8551,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>222498</v>
+        <v>223591</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664769.3711021288</v>
+        <v>664638.5631493796</v>
       </c>
       <c r="R72" t="n">
-        <v>6698955.870736851</v>
+        <v>6699489.398619195</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748686</v>
+        <v>111748772</v>
       </c>
       <c r="B73" t="n">
-        <v>96326</v>
+        <v>85253</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8663,21 +8663,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>219798</v>
+        <v>3674</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664675.2689733801</v>
+        <v>664599.8235772498</v>
       </c>
       <c r="R73" t="n">
-        <v>6699052.073605827</v>
+        <v>6698922.931241977</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748773</v>
+        <v>111748674</v>
       </c>
       <c r="B9" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664724.9064109002</v>
+        <v>664708.4139202497</v>
       </c>
       <c r="R9" t="n">
-        <v>6698919.69909039</v>
+        <v>6698857.079132927</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748674</v>
+        <v>111748773</v>
       </c>
       <c r="B10" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664708.4139202497</v>
+        <v>664724.9064109002</v>
       </c>
       <c r="R10" t="n">
-        <v>6698857.079132927</v>
+        <v>6698919.69909039</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748662</v>
+        <v>111748765</v>
       </c>
       <c r="B18" t="n">
-        <v>101703</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2489,25 +2489,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222412</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664770.1427733348</v>
+        <v>664575.0291913702</v>
       </c>
       <c r="R18" t="n">
-        <v>6699440.935377424</v>
+        <v>6698988.625762361</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748765</v>
+        <v>111748759</v>
       </c>
       <c r="B22" t="n">
-        <v>90660</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2937,25 +2937,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664575.0291913702</v>
+        <v>664565.3140634815</v>
       </c>
       <c r="R22" t="n">
-        <v>6698988.625762361</v>
+        <v>6699541.501402936</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3037,10 +3037,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748759</v>
+        <v>111748662</v>
       </c>
       <c r="B23" t="n">
-        <v>98535</v>
+        <v>101703</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3053,21 +3053,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664565.3140634815</v>
+        <v>664770.1427733348</v>
       </c>
       <c r="R23" t="n">
-        <v>6699541.501402936</v>
+        <v>6699440.935377424</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4494,10 +4494,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748731</v>
+        <v>111748690</v>
       </c>
       <c r="B36" t="n">
-        <v>90674</v>
+        <v>89183</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4506,25 +4506,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2058</v>
+        <v>3215</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664818.6562284525</v>
+        <v>664698.8371583781</v>
       </c>
       <c r="R36" t="n">
-        <v>6699322.382911628</v>
+        <v>6699057.103091458</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748651</v>
+        <v>111748650</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>94134</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4622,21 +4622,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4646,10 +4646,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664849.7319311691</v>
+        <v>664567.5443468138</v>
       </c>
       <c r="R37" t="n">
-        <v>6699314.886606451</v>
+        <v>6699011.548972152</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4718,10 +4718,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748690</v>
+        <v>111748731</v>
       </c>
       <c r="B38" t="n">
-        <v>89183</v>
+        <v>90674</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4730,25 +4730,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3215</v>
+        <v>2058</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4758,10 +4758,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664698.8371583781</v>
+        <v>664818.6562284525</v>
       </c>
       <c r="R38" t="n">
-        <v>6699057.103091458</v>
+        <v>6699322.382911628</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748650</v>
+        <v>111748651</v>
       </c>
       <c r="B39" t="n">
-        <v>94134</v>
+        <v>89405</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4846,21 +4846,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4870,10 +4870,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664567.5443468138</v>
+        <v>664849.7319311691</v>
       </c>
       <c r="R39" t="n">
-        <v>6699011.548972152</v>
+        <v>6699314.886606451</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5954,10 +5954,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748666</v>
+        <v>111748762</v>
       </c>
       <c r="B49" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5970,21 +5970,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664762.3323740696</v>
+        <v>664635.6605944363</v>
       </c>
       <c r="R49" t="n">
-        <v>6698958.025865254</v>
+        <v>6698854.271896686</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748700</v>
+        <v>111748774</v>
       </c>
       <c r="B50" t="n">
-        <v>85089</v>
+        <v>85253</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6082,21 +6082,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3762</v>
+        <v>3674</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664853.490245176</v>
+        <v>664776.9458788878</v>
       </c>
       <c r="R50" t="n">
-        <v>6699352.175737353</v>
+        <v>6698920.082440153</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748691</v>
+        <v>111748666</v>
       </c>
       <c r="B51" t="n">
-        <v>89183</v>
+        <v>101703</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6194,21 +6194,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3215</v>
+        <v>222412</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664620.6444729717</v>
+        <v>664762.3323740696</v>
       </c>
       <c r="R51" t="n">
-        <v>6699349.02459933</v>
+        <v>6698958.025865254</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6290,10 +6290,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748671</v>
+        <v>111748740</v>
       </c>
       <c r="B52" t="n">
-        <v>90332</v>
+        <v>103288</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6306,21 +6306,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4769</v>
+        <v>221144</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664638.2983129583</v>
+        <v>664604.2181931254</v>
       </c>
       <c r="R52" t="n">
-        <v>6699364.178068399</v>
+        <v>6699274.042581626</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748740</v>
+        <v>111748700</v>
       </c>
       <c r="B53" t="n">
-        <v>103288</v>
+        <v>85089</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6418,21 +6418,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221144</v>
+        <v>3762</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664604.2181931254</v>
+        <v>664853.490245176</v>
       </c>
       <c r="R53" t="n">
-        <v>6699274.042581626</v>
+        <v>6699352.175737353</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6514,10 +6514,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748729</v>
+        <v>111748691</v>
       </c>
       <c r="B54" t="n">
-        <v>90674</v>
+        <v>89183</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6526,25 +6526,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2058</v>
+        <v>3215</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664589.6062576605</v>
+        <v>664620.6444729717</v>
       </c>
       <c r="R54" t="n">
-        <v>6699017.004385524</v>
+        <v>6699349.02459933</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748762</v>
+        <v>111748671</v>
       </c>
       <c r="B55" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6642,21 +6642,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6666,10 +6666,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664635.6605944363</v>
+        <v>664638.2983129583</v>
       </c>
       <c r="R55" t="n">
-        <v>6698854.271896686</v>
+        <v>6699364.178068399</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6738,10 +6738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748774</v>
+        <v>111748729</v>
       </c>
       <c r="B56" t="n">
-        <v>85253</v>
+        <v>90674</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6750,25 +6750,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3674</v>
+        <v>2058</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664776.9458788878</v>
+        <v>664589.6062576605</v>
       </c>
       <c r="R56" t="n">
-        <v>6698920.082440153</v>
+        <v>6699017.004385524</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748649</v>
+        <v>111748689</v>
       </c>
       <c r="B2" t="n">
-        <v>94134</v>
+        <v>90678</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664603.5764787464</v>
+        <v>664822</v>
       </c>
       <c r="R2" t="n">
-        <v>6699342.806076139</v>
+        <v>6699356</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -750,22 +750,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748672</v>
+        <v>111748731</v>
       </c>
       <c r="B3" t="n">
-        <v>90332</v>
+        <v>90674</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>2058</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664757.060744858</v>
+        <v>664819</v>
       </c>
       <c r="R3" t="n">
-        <v>6699074.10032806</v>
+        <v>6699322</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -865,19 +855,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748688</v>
+        <v>111748667</v>
       </c>
       <c r="B4" t="n">
-        <v>96326</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +896,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219798</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664770.4952141214</v>
+        <v>664677</v>
       </c>
       <c r="R4" t="n">
-        <v>6698952.952024489</v>
+        <v>6699022</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -974,22 +954,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748673</v>
+        <v>111748664</v>
       </c>
       <c r="B5" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664574.9395623421</v>
+        <v>664796</v>
       </c>
       <c r="R5" t="n">
-        <v>6698990.601510798</v>
+        <v>6699183</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1089,19 +1059,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748761</v>
+        <v>111748765</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1100,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664669.2408998127</v>
+        <v>664575</v>
       </c>
       <c r="R6" t="n">
-        <v>6699042.890928292</v>
+        <v>6698989</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1198,22 +1158,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748770</v>
+        <v>111748675</v>
       </c>
       <c r="B7" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1206,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664698.8371583781</v>
+        <v>664764</v>
       </c>
       <c r="R7" t="n">
-        <v>6699057.103091458</v>
+        <v>6698952</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1313,19 +1263,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748760</v>
+        <v>111748770</v>
       </c>
       <c r="B8" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1308,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664590.5125486635</v>
+        <v>664699</v>
       </c>
       <c r="R8" t="n">
-        <v>6699346.66743302</v>
+        <v>6699057</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1422,22 +1362,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748674</v>
+        <v>111748729</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>90674</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1406,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>2058</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664708.4139202497</v>
+        <v>664590</v>
       </c>
       <c r="R9" t="n">
-        <v>6698857.079132927</v>
+        <v>6699017</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1537,19 +1467,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,10 +1496,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748773</v>
+        <v>111748712</v>
       </c>
       <c r="B10" t="n">
-        <v>85253</v>
+        <v>96381</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1512,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3674</v>
+        <v>219874</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664724.9064109002</v>
+        <v>664827</v>
       </c>
       <c r="R10" t="n">
-        <v>6698919.69909039</v>
+        <v>6699411</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1649,19 +1569,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1598,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748705</v>
+        <v>111748742</v>
       </c>
       <c r="B11" t="n">
-        <v>96369</v>
+        <v>93248</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,34 +1614,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219862</v>
+        <v>210</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664770.1427733348</v>
+        <v>664617</v>
       </c>
       <c r="R11" t="n">
-        <v>6699440.935377424</v>
+        <v>6698849</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1761,19 +1675,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1800,10 +1704,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748654</v>
+        <v>111748650</v>
       </c>
       <c r="B12" t="n">
-        <v>96370</v>
+        <v>94134</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1716,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219847</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1744,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664579.5402544152</v>
+        <v>664568</v>
       </c>
       <c r="R12" t="n">
-        <v>6698932.900203395</v>
+        <v>6699012</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1873,19 +1777,9 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1952,10 +1846,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664820.8300099263</v>
+        <v>664821</v>
       </c>
       <c r="R13" t="n">
-        <v>6699241.810120963</v>
+        <v>6699242</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -1985,19 +1879,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2029,10 +1913,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748704</v>
+        <v>111748715</v>
       </c>
       <c r="B14" t="n">
-        <v>85089</v>
+        <v>88956</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +1925,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3762</v>
+        <v>5747</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +1953,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664771.2603847764</v>
+        <v>664855</v>
       </c>
       <c r="R14" t="n">
-        <v>6698957.93638737</v>
+        <v>6699428</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2102,19 +1986,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2141,10 +2015,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748648</v>
+        <v>111748709</v>
       </c>
       <c r="B15" t="n">
-        <v>94134</v>
+        <v>96369</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2027,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53</v>
+        <v>219862</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2055,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664655.3316318352</v>
+        <v>664848</v>
       </c>
       <c r="R15" t="n">
-        <v>6699447.599252445</v>
+        <v>6699249</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2211,22 +2085,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2253,10 +2117,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748642</v>
+        <v>111748662</v>
       </c>
       <c r="B16" t="n">
-        <v>99413</v>
+        <v>101703</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,21 +2133,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221235</v>
+        <v>222412</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2293,10 +2157,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664567.4272046218</v>
+        <v>664770</v>
       </c>
       <c r="R16" t="n">
-        <v>6699538.628004844</v>
+        <v>6699441</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2323,22 +2187,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2365,10 +2219,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748711</v>
+        <v>111748740</v>
       </c>
       <c r="B17" t="n">
-        <v>96381</v>
+        <v>103288</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2381,21 +2235,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219874</v>
+        <v>221144</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2405,10 +2259,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664758.9699501268</v>
+        <v>664604</v>
       </c>
       <c r="R17" t="n">
-        <v>6699053.894244161</v>
+        <v>6699274</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2438,19 +2292,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2477,10 +2321,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748765</v>
+        <v>111748690</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>89183</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2489,25 +2333,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>3215</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2517,10 +2361,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664575.0291913702</v>
+        <v>664699</v>
       </c>
       <c r="R18" t="n">
-        <v>6698988.625762361</v>
+        <v>6699057</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2550,19 +2394,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2589,10 +2423,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748643</v>
+        <v>111748670</v>
       </c>
       <c r="B19" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,21 +2439,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2629,10 +2463,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664631.4714806431</v>
+        <v>664584</v>
       </c>
       <c r="R19" t="n">
-        <v>6699427.215353329</v>
+        <v>6699323</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2659,22 +2493,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2701,10 +2525,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748738</v>
+        <v>111748711</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>96381</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2717,21 +2541,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>219874</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2741,10 +2565,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664658.7886288867</v>
+        <v>664759</v>
       </c>
       <c r="R20" t="n">
-        <v>6699076.567729114</v>
+        <v>6699054</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2774,19 +2598,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2813,10 +2627,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748640</v>
+        <v>111748691</v>
       </c>
       <c r="B21" t="n">
-        <v>99413</v>
+        <v>89183</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2829,21 +2643,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2853,10 +2667,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664568.5768465291</v>
+        <v>664621</v>
       </c>
       <c r="R21" t="n">
-        <v>6698999.716977227</v>
+        <v>6699349</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2886,19 +2700,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2925,10 +2729,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748759</v>
+        <v>111748693</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2941,21 +2745,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2965,10 +2769,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664565.3140634815</v>
+        <v>664611</v>
       </c>
       <c r="R22" t="n">
-        <v>6699541.501402936</v>
+        <v>6698842</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -2995,22 +2799,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3037,10 +2831,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748662</v>
+        <v>111748713</v>
       </c>
       <c r="B23" t="n">
-        <v>101703</v>
+        <v>96381</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3053,21 +2847,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222412</v>
+        <v>219874</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3077,10 +2871,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664770.1427733348</v>
+        <v>664764</v>
       </c>
       <c r="R23" t="n">
-        <v>6699440.935377424</v>
+        <v>6698962</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3107,22 +2901,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3149,10 +2933,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748703</v>
+        <v>111748640</v>
       </c>
       <c r="B24" t="n">
-        <v>85089</v>
+        <v>99413</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3165,21 +2949,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3762</v>
+        <v>221235</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3189,10 +2973,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664569.3144499823</v>
+        <v>664569</v>
       </c>
       <c r="R24" t="n">
-        <v>6698972.52796749</v>
+        <v>6699000</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3222,19 +3006,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3261,10 +3035,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748689</v>
+        <v>111748771</v>
       </c>
       <c r="B25" t="n">
-        <v>90678</v>
+        <v>85253</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3277,21 +3051,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4366</v>
+        <v>3674</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3301,10 +3075,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664821.6049801367</v>
+        <v>664803</v>
       </c>
       <c r="R25" t="n">
-        <v>6699355.67585695</v>
+        <v>6699372</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3334,19 +3108,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3373,10 +3137,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748695</v>
+        <v>111748673</v>
       </c>
       <c r="B26" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3389,21 +3153,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3413,10 +3177,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664758.1487707719</v>
+        <v>664575</v>
       </c>
       <c r="R26" t="n">
-        <v>6698951.896335257</v>
+        <v>6698991</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3446,19 +3210,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3485,10 +3239,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748715</v>
+        <v>111748737</v>
       </c>
       <c r="B27" t="n">
-        <v>88956</v>
+        <v>88918</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3501,21 +3255,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5747</v>
+        <v>5745</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3525,10 +3279,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664855.4976383725</v>
+        <v>664809</v>
       </c>
       <c r="R27" t="n">
-        <v>6699427.987196152</v>
+        <v>6699172</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3558,27 +3312,18 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3597,10 +3342,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748675</v>
+        <v>111748708</v>
       </c>
       <c r="B28" t="n">
-        <v>90332</v>
+        <v>96369</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3613,21 +3358,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>219862</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3637,10 +3382,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664764.0858319701</v>
+        <v>664872</v>
       </c>
       <c r="R28" t="n">
-        <v>6698952.165968419</v>
+        <v>6699314</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3670,19 +3415,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3709,10 +3444,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748737</v>
+        <v>111748648</v>
       </c>
       <c r="B29" t="n">
-        <v>88918</v>
+        <v>94134</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3721,25 +3456,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5745</v>
+        <v>53</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3749,10 +3484,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664808.6128849701</v>
+        <v>664655</v>
       </c>
       <c r="R29" t="n">
-        <v>6699172.460106185</v>
+        <v>6699448</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3779,22 +3514,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3803,7 +3528,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3822,10 +3546,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748692</v>
+        <v>111748663</v>
       </c>
       <c r="B30" t="n">
-        <v>89183</v>
+        <v>101703</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3838,21 +3562,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3215</v>
+        <v>222412</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3862,10 +3586,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664778.1089783342</v>
+        <v>664850</v>
       </c>
       <c r="R30" t="n">
-        <v>6699069.116974886</v>
+        <v>6699193</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3895,19 +3619,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3934,10 +3648,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748730</v>
+        <v>111748705</v>
       </c>
       <c r="B31" t="n">
-        <v>90674</v>
+        <v>96369</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3946,25 +3660,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2058</v>
+        <v>219862</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3974,10 +3688,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664867.8416141088</v>
+        <v>664770</v>
       </c>
       <c r="R31" t="n">
-        <v>6699418.15535864</v>
+        <v>6699441</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4007,19 +3721,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4046,10 +3750,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748644</v>
+        <v>111748735</v>
       </c>
       <c r="B32" t="n">
-        <v>99413</v>
+        <v>88966</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4058,25 +3762,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221235</v>
+        <v>5754</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4086,10 +3790,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664676.080560883</v>
+        <v>664802</v>
       </c>
       <c r="R32" t="n">
-        <v>6699066.958814406</v>
+        <v>6699384</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4116,22 +3820,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4158,10 +3852,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748686</v>
+        <v>111748665</v>
       </c>
       <c r="B33" t="n">
-        <v>96326</v>
+        <v>101703</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4174,21 +3868,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>219798</v>
+        <v>222412</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4198,10 +3892,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664675.2689733801</v>
+        <v>664832</v>
       </c>
       <c r="R33" t="n">
-        <v>6699052.073605827</v>
+        <v>6699659</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4231,19 +3925,9 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4270,10 +3954,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748687</v>
+        <v>111748666</v>
       </c>
       <c r="B34" t="n">
-        <v>96326</v>
+        <v>101703</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4286,21 +3970,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>219798</v>
+        <v>222412</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4310,10 +3994,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664642.3199653549</v>
+        <v>664762</v>
       </c>
       <c r="R34" t="n">
-        <v>6698871.403136684</v>
+        <v>6698958</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4343,19 +4027,9 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4382,10 +4056,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748713</v>
+        <v>111748649</v>
       </c>
       <c r="B35" t="n">
-        <v>96381</v>
+        <v>94134</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4394,25 +4068,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>219874</v>
+        <v>53</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4422,10 +4096,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664764.1319274458</v>
+        <v>664604</v>
       </c>
       <c r="R35" t="n">
-        <v>6698962.067276149</v>
+        <v>6699343</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4455,19 +4129,9 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4494,10 +4158,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748690</v>
+        <v>111748688</v>
       </c>
       <c r="B36" t="n">
-        <v>89183</v>
+        <v>96326</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4510,21 +4174,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3215</v>
+        <v>219798</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4534,10 +4198,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664698.8371583781</v>
+        <v>664770</v>
       </c>
       <c r="R36" t="n">
-        <v>6699057.103091458</v>
+        <v>6698953</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4564,22 +4228,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4606,10 +4260,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748650</v>
+        <v>111748686</v>
       </c>
       <c r="B37" t="n">
-        <v>94134</v>
+        <v>96326</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4618,25 +4272,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53</v>
+        <v>219798</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4646,10 +4300,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664567.5443468138</v>
+        <v>664675</v>
       </c>
       <c r="R37" t="n">
-        <v>6699011.548972152</v>
+        <v>6699052</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4679,19 +4333,9 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4718,10 +4362,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748731</v>
+        <v>111748644</v>
       </c>
       <c r="B38" t="n">
-        <v>90674</v>
+        <v>99413</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4730,25 +4374,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2058</v>
+        <v>221235</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4758,10 +4402,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664818.6562284525</v>
+        <v>664676</v>
       </c>
       <c r="R38" t="n">
-        <v>6699322.382911628</v>
+        <v>6699067</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4788,22 +4432,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4830,10 +4464,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748651</v>
+        <v>111748773</v>
       </c>
       <c r="B39" t="n">
-        <v>89405</v>
+        <v>85253</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4842,25 +4476,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>3674</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4870,10 +4504,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664849.7319311691</v>
+        <v>664725</v>
       </c>
       <c r="R39" t="n">
-        <v>6699314.886606451</v>
+        <v>6698920</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4903,19 +4537,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4942,10 +4566,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748641</v>
+        <v>111748730</v>
       </c>
       <c r="B40" t="n">
-        <v>99413</v>
+        <v>90674</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4954,25 +4578,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221235</v>
+        <v>2058</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4982,10 +4606,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664626.8808813933</v>
+        <v>664868</v>
       </c>
       <c r="R40" t="n">
-        <v>6699561.121136454</v>
+        <v>6699418</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5012,22 +4636,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5054,10 +4668,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748742</v>
+        <v>111748692</v>
       </c>
       <c r="B41" t="n">
-        <v>93248</v>
+        <v>89183</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5070,38 +4684,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>210</v>
+        <v>3215</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664616.566347321</v>
+        <v>664778</v>
       </c>
       <c r="R41" t="n">
-        <v>6698848.950711449</v>
+        <v>6699069</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5131,19 +4741,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5210,10 +4810,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664649.5501774848</v>
+        <v>664650</v>
       </c>
       <c r="R42" t="n">
-        <v>6699105.349934292</v>
+        <v>6699105</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5243,19 +4843,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5282,10 +4872,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748741</v>
+        <v>111748687</v>
       </c>
       <c r="B43" t="n">
-        <v>103288</v>
+        <v>96326</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5298,21 +4888,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221144</v>
+        <v>219798</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5322,10 +4912,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664568.8475301198</v>
+        <v>664642</v>
       </c>
       <c r="R43" t="n">
-        <v>6699004.678774409</v>
+        <v>6698871</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5352,22 +4942,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5394,10 +4974,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748732</v>
+        <v>111748695</v>
       </c>
       <c r="B44" t="n">
-        <v>85290</v>
+        <v>89183</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5406,25 +4986,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6003295</v>
+        <v>3215</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5434,10 +5014,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664830.0022340771</v>
+        <v>664758</v>
       </c>
       <c r="R44" t="n">
-        <v>6699214.511088434</v>
+        <v>6698952</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5467,19 +5047,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5506,10 +5076,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748667</v>
+        <v>111748702</v>
       </c>
       <c r="B45" t="n">
-        <v>56543</v>
+        <v>85089</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5518,25 +5088,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>103021</v>
+        <v>3762</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5546,10 +5116,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664676.6366606337</v>
+        <v>664852</v>
       </c>
       <c r="R45" t="n">
-        <v>6699021.943822397</v>
+        <v>6699290</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5579,19 +5149,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5618,10 +5178,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748735</v>
+        <v>111748641</v>
       </c>
       <c r="B46" t="n">
-        <v>88966</v>
+        <v>99413</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5630,25 +5190,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5754</v>
+        <v>221235</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5658,10 +5218,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664801.9547313601</v>
+        <v>664627</v>
       </c>
       <c r="R46" t="n">
-        <v>6699384.477357466</v>
+        <v>6699561</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5688,22 +5248,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5730,10 +5280,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748669</v>
+        <v>111748738</v>
       </c>
       <c r="B47" t="n">
-        <v>90332</v>
+        <v>103288</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5746,21 +5296,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4769</v>
+        <v>221144</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5320,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664686.8541501703</v>
+        <v>664659</v>
       </c>
       <c r="R47" t="n">
-        <v>6699080.811365802</v>
+        <v>6699077</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5803,19 +5353,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5842,10 +5382,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748736</v>
+        <v>111748774</v>
       </c>
       <c r="B48" t="n">
-        <v>88966</v>
+        <v>85253</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5854,25 +5394,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5754</v>
+        <v>3674</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5882,10 +5422,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664803.3322592583</v>
+        <v>664777</v>
       </c>
       <c r="R48" t="n">
-        <v>6699212.309487404</v>
+        <v>6698920</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5915,19 +5455,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5954,10 +5484,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748762</v>
+        <v>111748668</v>
       </c>
       <c r="B49" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5966,25 +5496,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5994,10 +5524,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664635.6605944363</v>
+        <v>664732</v>
       </c>
       <c r="R49" t="n">
-        <v>6698854.271896686</v>
+        <v>6698939</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6024,22 +5554,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6066,10 +5586,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748774</v>
+        <v>111748761</v>
       </c>
       <c r="B50" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6082,21 +5602,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6106,10 +5626,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664776.9458788878</v>
+        <v>664669</v>
       </c>
       <c r="R50" t="n">
-        <v>6698920.082440153</v>
+        <v>6699043</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6136,22 +5656,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6178,10 +5688,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748666</v>
+        <v>111748643</v>
       </c>
       <c r="B51" t="n">
-        <v>101703</v>
+        <v>99413</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6194,21 +5704,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6218,10 +5728,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664762.3323740696</v>
+        <v>664631</v>
       </c>
       <c r="R51" t="n">
-        <v>6698958.025865254</v>
+        <v>6699427</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6251,19 +5761,9 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6290,10 +5790,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748740</v>
+        <v>111748772</v>
       </c>
       <c r="B52" t="n">
-        <v>103288</v>
+        <v>85253</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6306,21 +5806,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>221144</v>
+        <v>3674</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6330,10 +5830,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664604.2181931254</v>
+        <v>664600</v>
       </c>
       <c r="R52" t="n">
-        <v>6699274.042581626</v>
+        <v>6698923</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6363,19 +5863,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6402,10 +5892,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748700</v>
+        <v>111748741</v>
       </c>
       <c r="B53" t="n">
-        <v>85089</v>
+        <v>103288</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6418,21 +5908,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3762</v>
+        <v>221144</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6442,10 +5932,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664853.490245176</v>
+        <v>664569</v>
       </c>
       <c r="R53" t="n">
-        <v>6699352.175737353</v>
+        <v>6699005</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6475,19 +5965,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6514,10 +5994,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748691</v>
+        <v>111748669</v>
       </c>
       <c r="B54" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6530,21 +6010,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6554,10 +6034,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664620.6444729717</v>
+        <v>664687</v>
       </c>
       <c r="R54" t="n">
-        <v>6699349.02459933</v>
+        <v>6699081</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6587,19 +6067,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6626,10 +6096,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748671</v>
+        <v>111748704</v>
       </c>
       <c r="B55" t="n">
-        <v>90332</v>
+        <v>85089</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6642,21 +6112,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6666,10 +6136,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664638.2983129583</v>
+        <v>664771</v>
       </c>
       <c r="R55" t="n">
-        <v>6699364.178068399</v>
+        <v>6698958</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6699,19 +6169,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6738,10 +6198,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748729</v>
+        <v>111748677</v>
       </c>
       <c r="B56" t="n">
-        <v>90674</v>
+        <v>56414</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6750,38 +6210,43 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2058</v>
+        <v>100049</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664589.6062576605</v>
+        <v>664616</v>
       </c>
       <c r="R56" t="n">
-        <v>6699017.004385524</v>
+        <v>6699498</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6808,22 +6273,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6850,10 +6305,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748709</v>
+        <v>111748760</v>
       </c>
       <c r="B57" t="n">
-        <v>96369</v>
+        <v>98535</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6866,21 +6321,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>219862</v>
+        <v>222498</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6890,10 +6345,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664847.7700305003</v>
+        <v>664591</v>
       </c>
       <c r="R57" t="n">
-        <v>6699248.973355746</v>
+        <v>6699347</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6920,22 +6375,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6962,10 +6407,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748712</v>
+        <v>111748654</v>
       </c>
       <c r="B58" t="n">
-        <v>96381</v>
+        <v>96370</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6978,21 +6423,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>219874</v>
+        <v>219847</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7002,10 +6447,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664826.5343673588</v>
+        <v>664580</v>
       </c>
       <c r="R58" t="n">
-        <v>6699410.834182931</v>
+        <v>6698933</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7032,22 +6477,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7074,10 +6509,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748707</v>
+        <v>111748762</v>
       </c>
       <c r="B59" t="n">
-        <v>96369</v>
+        <v>98535</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7090,21 +6525,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>219862</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7114,10 +6549,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664850.52293942</v>
+        <v>664636</v>
       </c>
       <c r="R59" t="n">
-        <v>6699362.928853855</v>
+        <v>6698854</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7144,22 +6579,12 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7186,10 +6611,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748664</v>
+        <v>111748732</v>
       </c>
       <c r="B60" t="n">
-        <v>101703</v>
+        <v>85290</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7198,25 +6623,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222412</v>
+        <v>6003295</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7226,10 +6651,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664795.7286883136</v>
+        <v>664830</v>
       </c>
       <c r="R60" t="n">
-        <v>6699183.258195299</v>
+        <v>6699215</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7259,19 +6684,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7298,10 +6713,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748693</v>
+        <v>111748736</v>
       </c>
       <c r="B61" t="n">
-        <v>89183</v>
+        <v>88966</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7310,25 +6725,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3215</v>
+        <v>5754</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7338,10 +6753,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664610.9204746395</v>
+        <v>664803</v>
       </c>
       <c r="R61" t="n">
-        <v>6698842.259884536</v>
+        <v>6699212</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7371,19 +6786,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7410,10 +6815,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748771</v>
+        <v>111748651</v>
       </c>
       <c r="B62" t="n">
-        <v>85253</v>
+        <v>89405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7422,25 +6827,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3674</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7450,10 +6855,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664803.0104039316</v>
+        <v>664850</v>
       </c>
       <c r="R62" t="n">
-        <v>6699372.152713455</v>
+        <v>6699315</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7483,19 +6888,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7522,10 +6917,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748764</v>
+        <v>111748700</v>
       </c>
       <c r="B63" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7538,21 +6933,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7562,10 +6957,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664769.3711021288</v>
+        <v>664853</v>
       </c>
       <c r="R63" t="n">
-        <v>6698955.870736851</v>
+        <v>6699352</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7592,22 +6987,12 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7634,10 +7019,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748668</v>
+        <v>111748759</v>
       </c>
       <c r="B64" t="n">
-        <v>56543</v>
+        <v>98535</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7646,25 +7031,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7674,10 +7059,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664732.4426041286</v>
+        <v>664565</v>
       </c>
       <c r="R64" t="n">
-        <v>6698939.344871927</v>
+        <v>6699542</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7704,22 +7089,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7746,7 +7121,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748670</v>
+        <v>111748671</v>
       </c>
       <c r="B65" t="n">
         <v>90332</v>
@@ -7786,10 +7161,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664583.6729684926</v>
+        <v>664638</v>
       </c>
       <c r="R65" t="n">
-        <v>6699322.601555262</v>
+        <v>6699364</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7819,19 +7194,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7858,10 +7223,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748665</v>
+        <v>111748672</v>
       </c>
       <c r="B66" t="n">
-        <v>101703</v>
+        <v>90332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7874,21 +7239,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7898,10 +7263,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664831.6371875083</v>
+        <v>664757</v>
       </c>
       <c r="R66" t="n">
-        <v>6699658.507831291</v>
+        <v>6699074</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7928,22 +7293,12 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7970,10 +7325,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748684</v>
+        <v>111748707</v>
       </c>
       <c r="B67" t="n">
-        <v>96326</v>
+        <v>96369</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7986,21 +7341,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>219798</v>
+        <v>219862</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8010,10 +7365,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664604.7573992921</v>
+        <v>664851</v>
       </c>
       <c r="R67" t="n">
-        <v>6698836.040565506</v>
+        <v>6699363</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8043,19 +7398,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8082,10 +7427,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748677</v>
+        <v>111748684</v>
       </c>
       <c r="B68" t="n">
-        <v>56414</v>
+        <v>96326</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8094,43 +7439,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100049</v>
+        <v>219798</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664615.8542000444</v>
+        <v>664605</v>
       </c>
       <c r="R68" t="n">
-        <v>6699498.265643556</v>
+        <v>6698836</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8157,22 +7497,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8199,10 +7529,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748708</v>
+        <v>111748683</v>
       </c>
       <c r="B69" t="n">
-        <v>96369</v>
+        <v>96266</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8215,21 +7545,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>219862</v>
+        <v>223591</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8239,10 +7569,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664872.0610342777</v>
+        <v>664639</v>
       </c>
       <c r="R69" t="n">
-        <v>6699314.416695234</v>
+        <v>6699489</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8269,22 +7599,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8311,10 +7631,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748702</v>
+        <v>111748674</v>
       </c>
       <c r="B70" t="n">
-        <v>85089</v>
+        <v>90332</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8327,21 +7647,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8351,10 +7671,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664852.3607732435</v>
+        <v>664708</v>
       </c>
       <c r="R70" t="n">
-        <v>6699289.765398038</v>
+        <v>6698857</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8384,19 +7704,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8423,10 +7733,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748663</v>
+        <v>111748703</v>
       </c>
       <c r="B71" t="n">
-        <v>101703</v>
+        <v>85089</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8439,21 +7749,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222412</v>
+        <v>3762</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8463,10 +7773,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664850.306320559</v>
+        <v>664569</v>
       </c>
       <c r="R71" t="n">
-        <v>6699193.161951311</v>
+        <v>6698973</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8496,19 +7806,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8535,10 +7835,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748683</v>
+        <v>111748642</v>
       </c>
       <c r="B72" t="n">
-        <v>96266</v>
+        <v>99413</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8551,21 +7851,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>223591</v>
+        <v>221235</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8575,10 +7875,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664638.5631493796</v>
+        <v>664567</v>
       </c>
       <c r="R72" t="n">
-        <v>6699489.398619195</v>
+        <v>6699539</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8608,19 +7908,9 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8647,10 +7937,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748772</v>
+        <v>111748764</v>
       </c>
       <c r="B73" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8663,21 +7953,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8687,10 +7977,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664599.8235772498</v>
+        <v>664769</v>
       </c>
       <c r="R73" t="n">
-        <v>6698922.931241977</v>
+        <v>6698956</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8717,22 +8007,12 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD73" t="b">

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY73"/>
+  <dimension ref="A1:AY113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111748689</v>
+        <v>112332919</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>94287</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Galten, Upl</t>
+          <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664822</v>
+        <v>664349</v>
       </c>
       <c r="R2" t="n">
-        <v>6699356</v>
+        <v>6699380</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -750,12 +750,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,22 +770,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111748731</v>
+        <v>112332916</v>
       </c>
       <c r="B3" t="n">
-        <v>90674</v>
+        <v>85374</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,38 +798,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2058</v>
+        <v>3674</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Galten, Upl</t>
+          <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664819</v>
+        <v>664388</v>
       </c>
       <c r="R3" t="n">
-        <v>6699322</v>
+        <v>6699417</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -852,12 +856,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -872,22 +876,26 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111748667</v>
+        <v>112332914</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>90818</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,34 +908,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>4368</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Galten, Upl</t>
+          <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664677</v>
+        <v>664401</v>
       </c>
       <c r="R4" t="n">
-        <v>6699022</v>
+        <v>6699412</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -954,12 +962,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,22 +982,26 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111748664</v>
+        <v>112332917</v>
       </c>
       <c r="B5" t="n">
-        <v>101703</v>
+        <v>99850</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,34 +1014,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Galten, Upl</t>
+          <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664796</v>
+        <v>664397</v>
       </c>
       <c r="R5" t="n">
-        <v>6699183</v>
+        <v>6699407</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1056,12 +1068,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1076,22 +1088,26 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111748765</v>
+        <v>112332918</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>96698</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1100,38 +1116,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>219798</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Galten, Upl</t>
+          <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664575</v>
+        <v>664391</v>
       </c>
       <c r="R6" t="n">
-        <v>6698989</v>
+        <v>6699402</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1158,12 +1174,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1178,22 +1194,26 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111748675</v>
+        <v>112332915</v>
       </c>
       <c r="B7" t="n">
-        <v>90332</v>
+        <v>90802</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1202,38 +1222,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4769</v>
+        <v>788</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Galten, Upl</t>
+          <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664764</v>
+        <v>664402</v>
       </c>
       <c r="R7" t="n">
-        <v>6698952</v>
+        <v>6699412</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1260,12 +1280,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1280,22 +1300,26 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Johan Lilja</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111748770</v>
+        <v>111748761</v>
       </c>
       <c r="B8" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1308,21 +1332,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1356,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>664699</v>
+        <v>664669</v>
       </c>
       <c r="R8" t="n">
-        <v>6699057</v>
+        <v>6699043</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1362,12 +1386,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1394,10 +1418,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111748729</v>
+        <v>111748654</v>
       </c>
       <c r="B9" t="n">
-        <v>90674</v>
+        <v>96370</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1406,25 +1430,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2058</v>
+        <v>219847</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1434,10 +1458,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>664590</v>
+        <v>664580</v>
       </c>
       <c r="R9" t="n">
-        <v>6699017</v>
+        <v>6698933</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1464,12 +1488,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1496,10 +1520,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111748712</v>
+        <v>111748774</v>
       </c>
       <c r="B10" t="n">
-        <v>96381</v>
+        <v>85253</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1512,21 +1536,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219874</v>
+        <v>3674</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1536,10 +1560,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>664827</v>
+        <v>664777</v>
       </c>
       <c r="R10" t="n">
-        <v>6699411</v>
+        <v>6698920</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1598,10 +1622,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111748742</v>
+        <v>111748771</v>
       </c>
       <c r="B11" t="n">
-        <v>93248</v>
+        <v>85253</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1614,38 +1638,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>210</v>
+        <v>3674</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>664617</v>
+        <v>664803</v>
       </c>
       <c r="R11" t="n">
-        <v>6698849</v>
+        <v>6699372</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1704,10 +1724,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111748650</v>
+        <v>111748672</v>
       </c>
       <c r="B12" t="n">
-        <v>94134</v>
+        <v>90332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1716,25 +1736,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1744,10 +1764,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>664568</v>
+        <v>664757</v>
       </c>
       <c r="R12" t="n">
-        <v>6699012</v>
+        <v>6699074</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1774,12 +1794,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1806,10 +1826,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111748647</v>
+        <v>111748644</v>
       </c>
       <c r="B13" t="n">
-        <v>88909</v>
+        <v>99413</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1818,25 +1838,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>720</v>
+        <v>221235</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1846,10 +1866,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>664821</v>
+        <v>664676</v>
       </c>
       <c r="R13" t="n">
-        <v>6699242</v>
+        <v>6699067</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -1876,17 +1896,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1913,10 +1928,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111748715</v>
+        <v>111748764</v>
       </c>
       <c r="B14" t="n">
-        <v>88956</v>
+        <v>98535</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1925,25 +1940,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5747</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1953,10 +1968,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>664855</v>
+        <v>664769</v>
       </c>
       <c r="R14" t="n">
-        <v>6699428</v>
+        <v>6698956</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -1983,12 +1998,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2015,10 +2030,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111748709</v>
+        <v>111748647</v>
       </c>
       <c r="B15" t="n">
-        <v>96369</v>
+        <v>88909</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2027,25 +2042,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219862</v>
+        <v>720</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2055,10 +2070,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>664848</v>
+        <v>664821</v>
       </c>
       <c r="R15" t="n">
-        <v>6699249</v>
+        <v>6699242</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2091,6 +2106,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ca 40 fruktkroppar i ett mycel med 1,8 m i diameter</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2117,10 +2137,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111748662</v>
+        <v>111748731</v>
       </c>
       <c r="B16" t="n">
-        <v>101703</v>
+        <v>90674</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2129,25 +2149,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222412</v>
+        <v>2058</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2157,10 +2177,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>664770</v>
+        <v>664819</v>
       </c>
       <c r="R16" t="n">
-        <v>6699441</v>
+        <v>6699322</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2219,10 +2239,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111748740</v>
+        <v>111748690</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>89183</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2235,21 +2255,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>3215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2259,10 +2279,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>664604</v>
+        <v>664699</v>
       </c>
       <c r="R17" t="n">
-        <v>6699274</v>
+        <v>6699057</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2321,10 +2341,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111748690</v>
+        <v>111748664</v>
       </c>
       <c r="B18" t="n">
-        <v>89183</v>
+        <v>101703</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2337,21 +2357,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3215</v>
+        <v>222412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2361,10 +2381,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>664699</v>
+        <v>664796</v>
       </c>
       <c r="R18" t="n">
-        <v>6699057</v>
+        <v>6699183</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2423,10 +2443,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111748670</v>
+        <v>111748735</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2435,25 +2455,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2463,10 +2483,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>664584</v>
+        <v>664802</v>
       </c>
       <c r="R19" t="n">
-        <v>6699323</v>
+        <v>6699384</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2525,10 +2545,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111748711</v>
+        <v>111748773</v>
       </c>
       <c r="B20" t="n">
-        <v>96381</v>
+        <v>85253</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2541,21 +2561,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219874</v>
+        <v>3674</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2565,10 +2585,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>664759</v>
+        <v>664725</v>
       </c>
       <c r="R20" t="n">
-        <v>6699054</v>
+        <v>6698920</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2627,10 +2647,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111748691</v>
+        <v>111748651</v>
       </c>
       <c r="B21" t="n">
-        <v>89183</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2639,25 +2659,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3215</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2667,10 +2687,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>664621</v>
+        <v>664850</v>
       </c>
       <c r="R21" t="n">
-        <v>6699349</v>
+        <v>6699315</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2729,10 +2749,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111748693</v>
+        <v>111748670</v>
       </c>
       <c r="B22" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2745,21 +2765,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2769,10 +2789,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>664611</v>
+        <v>664584</v>
       </c>
       <c r="R22" t="n">
-        <v>6698842</v>
+        <v>6699323</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -2831,10 +2851,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111748713</v>
+        <v>111748663</v>
       </c>
       <c r="B23" t="n">
-        <v>96381</v>
+        <v>101703</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2847,21 +2867,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219874</v>
+        <v>222412</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2871,10 +2891,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>664764</v>
+        <v>664850</v>
       </c>
       <c r="R23" t="n">
-        <v>6698962</v>
+        <v>6699193</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -2901,12 +2921,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2933,10 +2953,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111748640</v>
+        <v>111748736</v>
       </c>
       <c r="B24" t="n">
-        <v>99413</v>
+        <v>88966</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2945,25 +2965,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221235</v>
+        <v>5754</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2973,10 +2993,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>664569</v>
+        <v>664803</v>
       </c>
       <c r="R24" t="n">
-        <v>6699000</v>
+        <v>6699212</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3035,10 +3055,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111748771</v>
+        <v>111748684</v>
       </c>
       <c r="B25" t="n">
-        <v>85253</v>
+        <v>96326</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3051,21 +3071,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3674</v>
+        <v>219798</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3075,10 +3095,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>664803</v>
+        <v>664605</v>
       </c>
       <c r="R25" t="n">
-        <v>6699372</v>
+        <v>6698836</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3137,10 +3157,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111748673</v>
+        <v>111748759</v>
       </c>
       <c r="B26" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3153,21 +3173,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3177,10 +3197,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>664575</v>
+        <v>664565</v>
       </c>
       <c r="R26" t="n">
-        <v>6698991</v>
+        <v>6699542</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3207,12 +3227,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3239,10 +3259,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111748737</v>
+        <v>111748695</v>
       </c>
       <c r="B27" t="n">
-        <v>88918</v>
+        <v>89183</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3251,25 +3271,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5745</v>
+        <v>3215</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3279,10 +3299,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>664809</v>
+        <v>664758</v>
       </c>
       <c r="R27" t="n">
-        <v>6699172</v>
+        <v>6698952</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3323,7 +3343,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3342,10 +3361,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111748708</v>
+        <v>111748693</v>
       </c>
       <c r="B28" t="n">
-        <v>96369</v>
+        <v>89183</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3358,21 +3377,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219862</v>
+        <v>3215</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3382,10 +3401,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>664872</v>
+        <v>664611</v>
       </c>
       <c r="R28" t="n">
-        <v>6699314</v>
+        <v>6698842</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3444,10 +3463,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111748648</v>
+        <v>111748641</v>
       </c>
       <c r="B29" t="n">
-        <v>94134</v>
+        <v>99413</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3456,25 +3475,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53</v>
+        <v>221235</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3484,10 +3503,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>664655</v>
+        <v>664627</v>
       </c>
       <c r="R29" t="n">
-        <v>6699448</v>
+        <v>6699561</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3546,10 +3565,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111748663</v>
+        <v>111748687</v>
       </c>
       <c r="B30" t="n">
-        <v>101703</v>
+        <v>96326</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3562,21 +3581,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222412</v>
+        <v>219798</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3586,10 +3605,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>664850</v>
+        <v>664642</v>
       </c>
       <c r="R30" t="n">
-        <v>6699193</v>
+        <v>6698871</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3616,12 +3635,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3648,10 +3667,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111748705</v>
+        <v>111748740</v>
       </c>
       <c r="B31" t="n">
-        <v>96369</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3664,21 +3683,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>219862</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3688,10 +3707,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>664770</v>
+        <v>664604</v>
       </c>
       <c r="R31" t="n">
-        <v>6699441</v>
+        <v>6699274</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -3750,10 +3769,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111748735</v>
+        <v>111748674</v>
       </c>
       <c r="B32" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3762,25 +3781,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3790,10 +3809,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>664802</v>
+        <v>664708</v>
       </c>
       <c r="R32" t="n">
-        <v>6699384</v>
+        <v>6698857</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3852,10 +3871,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111748665</v>
+        <v>111748704</v>
       </c>
       <c r="B33" t="n">
-        <v>101703</v>
+        <v>85089</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3868,21 +3887,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222412</v>
+        <v>3762</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3892,10 +3911,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>664832</v>
+        <v>664771</v>
       </c>
       <c r="R33" t="n">
-        <v>6699659</v>
+        <v>6698958</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -3922,12 +3941,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3954,10 +3973,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111748666</v>
+        <v>111748711</v>
       </c>
       <c r="B34" t="n">
-        <v>101703</v>
+        <v>96381</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3970,21 +3989,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222412</v>
+        <v>219874</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3994,10 +4013,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>664762</v>
+        <v>664759</v>
       </c>
       <c r="R34" t="n">
-        <v>6698958</v>
+        <v>6699054</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4024,12 +4043,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4056,10 +4075,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111748649</v>
+        <v>111748770</v>
       </c>
       <c r="B35" t="n">
-        <v>94134</v>
+        <v>85253</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4068,25 +4087,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53</v>
+        <v>3674</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4096,10 +4115,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>664604</v>
+        <v>664699</v>
       </c>
       <c r="R35" t="n">
-        <v>6699343</v>
+        <v>6699057</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4126,12 +4145,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4158,10 +4177,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111748688</v>
+        <v>111748715</v>
       </c>
       <c r="B36" t="n">
-        <v>96326</v>
+        <v>88956</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4170,25 +4189,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>219798</v>
+        <v>5747</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4198,10 +4217,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>664770</v>
+        <v>664855</v>
       </c>
       <c r="R36" t="n">
-        <v>6698953</v>
+        <v>6699428</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4228,12 +4247,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4260,10 +4279,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111748686</v>
+        <v>111748760</v>
       </c>
       <c r="B37" t="n">
-        <v>96326</v>
+        <v>98535</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4276,21 +4295,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>219798</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4300,10 +4319,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>664675</v>
+        <v>664591</v>
       </c>
       <c r="R37" t="n">
-        <v>6699052</v>
+        <v>6699347</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4362,10 +4381,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111748644</v>
+        <v>111748667</v>
       </c>
       <c r="B38" t="n">
-        <v>99413</v>
+        <v>56543</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4374,25 +4393,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221235</v>
+        <v>103021</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4402,10 +4421,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>664676</v>
+        <v>664677</v>
       </c>
       <c r="R38" t="n">
-        <v>6699067</v>
+        <v>6699022</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4432,12 +4451,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4464,10 +4483,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111748773</v>
+        <v>111748712</v>
       </c>
       <c r="B39" t="n">
-        <v>85253</v>
+        <v>96381</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4480,21 +4499,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3674</v>
+        <v>219874</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4504,10 +4523,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>664725</v>
+        <v>664827</v>
       </c>
       <c r="R39" t="n">
-        <v>6698920</v>
+        <v>6699411</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4566,10 +4585,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111748730</v>
+        <v>111748688</v>
       </c>
       <c r="B40" t="n">
-        <v>90674</v>
+        <v>96326</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4578,25 +4597,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2058</v>
+        <v>219798</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4606,10 +4625,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>664868</v>
+        <v>664770</v>
       </c>
       <c r="R40" t="n">
-        <v>6699418</v>
+        <v>6698953</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -4636,12 +4655,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4668,10 +4687,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111748692</v>
+        <v>111748668</v>
       </c>
       <c r="B41" t="n">
-        <v>89183</v>
+        <v>56543</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4680,25 +4699,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3215</v>
+        <v>103021</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4708,10 +4727,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>664778</v>
+        <v>664732</v>
       </c>
       <c r="R41" t="n">
-        <v>6699069</v>
+        <v>6698939</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -4770,10 +4789,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111748739</v>
+        <v>111748671</v>
       </c>
       <c r="B42" t="n">
-        <v>103288</v>
+        <v>90332</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4786,21 +4805,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221144</v>
+        <v>4769</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4810,10 +4829,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>664650</v>
+        <v>664638</v>
       </c>
       <c r="R42" t="n">
-        <v>6699105</v>
+        <v>6699364</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -4872,10 +4891,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111748687</v>
+        <v>111748707</v>
       </c>
       <c r="B43" t="n">
-        <v>96326</v>
+        <v>96369</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4888,21 +4907,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>219798</v>
+        <v>219862</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4912,10 +4931,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>664642</v>
+        <v>664851</v>
       </c>
       <c r="R43" t="n">
-        <v>6698871</v>
+        <v>6699363</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -4942,12 +4961,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4974,7 +4993,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111748695</v>
+        <v>111748691</v>
       </c>
       <c r="B44" t="n">
         <v>89183</v>
@@ -5014,10 +5033,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>664758</v>
+        <v>664621</v>
       </c>
       <c r="R44" t="n">
-        <v>6698952</v>
+        <v>6699349</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5076,10 +5095,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111748702</v>
+        <v>111748708</v>
       </c>
       <c r="B45" t="n">
-        <v>85089</v>
+        <v>96369</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5092,21 +5111,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3762</v>
+        <v>219862</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5116,10 +5135,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>664852</v>
+        <v>664872</v>
       </c>
       <c r="R45" t="n">
-        <v>6699290</v>
+        <v>6699314</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5178,10 +5197,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111748641</v>
+        <v>111748650</v>
       </c>
       <c r="B46" t="n">
-        <v>99413</v>
+        <v>94134</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5190,25 +5209,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>221235</v>
+        <v>53</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5218,10 +5237,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>664627</v>
+        <v>664568</v>
       </c>
       <c r="R46" t="n">
-        <v>6699561</v>
+        <v>6699012</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5280,10 +5299,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111748738</v>
+        <v>111748666</v>
       </c>
       <c r="B47" t="n">
-        <v>103288</v>
+        <v>101703</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5296,21 +5315,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>221144</v>
+        <v>222412</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5320,10 +5339,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>664659</v>
+        <v>664762</v>
       </c>
       <c r="R47" t="n">
-        <v>6699077</v>
+        <v>6698958</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5350,12 +5369,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5382,10 +5401,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111748774</v>
+        <v>111748648</v>
       </c>
       <c r="B48" t="n">
-        <v>85253</v>
+        <v>94134</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5394,25 +5413,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3674</v>
+        <v>53</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5422,10 +5441,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>664777</v>
+        <v>664655</v>
       </c>
       <c r="R48" t="n">
-        <v>6698920</v>
+        <v>6699448</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5452,12 +5471,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5484,10 +5503,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111748668</v>
+        <v>111748642</v>
       </c>
       <c r="B49" t="n">
-        <v>56543</v>
+        <v>99413</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5496,25 +5515,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>103021</v>
+        <v>221235</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5524,10 +5543,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>664732</v>
+        <v>664567</v>
       </c>
       <c r="R49" t="n">
-        <v>6698939</v>
+        <v>6699539</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -5554,12 +5573,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5586,10 +5605,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111748761</v>
+        <v>111748742</v>
       </c>
       <c r="B50" t="n">
-        <v>98535</v>
+        <v>93248</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5602,34 +5621,38 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>210</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>664669</v>
+        <v>664617</v>
       </c>
       <c r="R50" t="n">
-        <v>6699043</v>
+        <v>6698849</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -5656,12 +5679,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5688,10 +5711,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111748643</v>
+        <v>111748739</v>
       </c>
       <c r="B51" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5704,21 +5727,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5728,10 +5751,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>664631</v>
+        <v>664650</v>
       </c>
       <c r="R51" t="n">
-        <v>6699427</v>
+        <v>6699105</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -5758,12 +5781,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5790,10 +5813,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111748772</v>
+        <v>111748662</v>
       </c>
       <c r="B52" t="n">
-        <v>85253</v>
+        <v>101703</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5806,21 +5829,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3674</v>
+        <v>222412</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5830,10 +5853,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>664600</v>
+        <v>664770</v>
       </c>
       <c r="R52" t="n">
-        <v>6698923</v>
+        <v>6699441</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -5892,10 +5915,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111748741</v>
+        <v>111748675</v>
       </c>
       <c r="B53" t="n">
-        <v>103288</v>
+        <v>90332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5908,21 +5931,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221144</v>
+        <v>4769</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5932,10 +5955,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>664569</v>
+        <v>664764</v>
       </c>
       <c r="R53" t="n">
-        <v>6699005</v>
+        <v>6698952</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -5994,10 +6017,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111748669</v>
+        <v>111748665</v>
       </c>
       <c r="B54" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6010,21 +6033,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6034,10 +6057,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>664687</v>
+        <v>664832</v>
       </c>
       <c r="R54" t="n">
-        <v>6699081</v>
+        <v>6699659</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6064,12 +6087,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6096,10 +6119,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111748704</v>
+        <v>111748741</v>
       </c>
       <c r="B55" t="n">
-        <v>85089</v>
+        <v>103288</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6112,21 +6135,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3762</v>
+        <v>221144</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6136,10 +6159,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>664771</v>
+        <v>664569</v>
       </c>
       <c r="R55" t="n">
-        <v>6698958</v>
+        <v>6699005</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6198,10 +6221,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111748677</v>
+        <v>111748640</v>
       </c>
       <c r="B56" t="n">
-        <v>56414</v>
+        <v>99413</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6210,43 +6233,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100049</v>
+        <v>221235</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>664616</v>
+        <v>664569</v>
       </c>
       <c r="R56" t="n">
-        <v>6699498</v>
+        <v>6699000</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6273,12 +6291,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6305,10 +6323,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111748760</v>
+        <v>111748737</v>
       </c>
       <c r="B57" t="n">
-        <v>98535</v>
+        <v>88918</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6317,25 +6335,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222498</v>
+        <v>5745</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6345,10 +6363,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>664591</v>
+        <v>664809</v>
       </c>
       <c r="R57" t="n">
-        <v>6699347</v>
+        <v>6699172</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6375,12 +6393,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6389,6 +6407,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6407,10 +6426,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111748654</v>
+        <v>111748729</v>
       </c>
       <c r="B58" t="n">
-        <v>96370</v>
+        <v>90674</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6419,25 +6438,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>219847</v>
+        <v>2058</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6447,10 +6466,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>664580</v>
+        <v>664590</v>
       </c>
       <c r="R58" t="n">
-        <v>6698933</v>
+        <v>6699017</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -6477,12 +6496,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6509,10 +6528,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111748762</v>
+        <v>111748689</v>
       </c>
       <c r="B59" t="n">
-        <v>98535</v>
+        <v>90678</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6525,21 +6544,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6549,10 +6568,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>664636</v>
+        <v>664822</v>
       </c>
       <c r="R59" t="n">
-        <v>6698854</v>
+        <v>6699356</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -6579,12 +6598,12 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6611,10 +6630,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111748732</v>
+        <v>111748703</v>
       </c>
       <c r="B60" t="n">
-        <v>85290</v>
+        <v>85089</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6623,25 +6642,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6003295</v>
+        <v>3762</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6651,10 +6670,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>664830</v>
+        <v>664569</v>
       </c>
       <c r="R60" t="n">
-        <v>6699215</v>
+        <v>6698973</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -6713,10 +6732,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111748736</v>
+        <v>111748643</v>
       </c>
       <c r="B61" t="n">
-        <v>88966</v>
+        <v>99413</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6725,25 +6744,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5754</v>
+        <v>221235</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6753,10 +6772,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>664803</v>
+        <v>664631</v>
       </c>
       <c r="R61" t="n">
-        <v>6699212</v>
+        <v>6699427</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -6783,12 +6802,12 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6815,10 +6834,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111748651</v>
+        <v>111748732</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>85290</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -6831,21 +6850,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>6003295</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -6855,10 +6874,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>664850</v>
+        <v>664830</v>
       </c>
       <c r="R62" t="n">
-        <v>6699315</v>
+        <v>6699215</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -6917,10 +6936,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111748700</v>
+        <v>111748738</v>
       </c>
       <c r="B63" t="n">
-        <v>85089</v>
+        <v>103288</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -6933,21 +6952,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3762</v>
+        <v>221144</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -6957,10 +6976,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>664853</v>
+        <v>664659</v>
       </c>
       <c r="R63" t="n">
-        <v>6699352</v>
+        <v>6699077</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7019,10 +7038,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111748759</v>
+        <v>111748683</v>
       </c>
       <c r="B64" t="n">
-        <v>98535</v>
+        <v>96266</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7035,21 +7054,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>222498</v>
+        <v>223591</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7059,10 +7078,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>664565</v>
+        <v>664639</v>
       </c>
       <c r="R64" t="n">
-        <v>6699542</v>
+        <v>6699489</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7121,10 +7140,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111748671</v>
+        <v>111748677</v>
       </c>
       <c r="B65" t="n">
-        <v>90332</v>
+        <v>56414</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7133,38 +7152,43 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4769</v>
+        <v>100049</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Galten, Upl</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>664638</v>
+        <v>664616</v>
       </c>
       <c r="R65" t="n">
-        <v>6699364</v>
+        <v>6699498</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7191,12 +7215,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7223,10 +7247,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111748672</v>
+        <v>111748649</v>
       </c>
       <c r="B66" t="n">
-        <v>90332</v>
+        <v>94134</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7235,25 +7259,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4769</v>
+        <v>53</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7263,10 +7287,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>664757</v>
+        <v>664604</v>
       </c>
       <c r="R66" t="n">
-        <v>6699074</v>
+        <v>6699343</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7293,12 +7317,12 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7325,10 +7349,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111748707</v>
+        <v>111748669</v>
       </c>
       <c r="B67" t="n">
-        <v>96369</v>
+        <v>90332</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7341,21 +7365,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>219862</v>
+        <v>4769</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7365,10 +7389,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>664851</v>
+        <v>664687</v>
       </c>
       <c r="R67" t="n">
-        <v>6699363</v>
+        <v>6699081</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -7427,10 +7451,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111748684</v>
+        <v>111748762</v>
       </c>
       <c r="B68" t="n">
-        <v>96326</v>
+        <v>98535</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7443,21 +7467,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>219798</v>
+        <v>222498</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7467,10 +7491,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>664605</v>
+        <v>664636</v>
       </c>
       <c r="R68" t="n">
-        <v>6698836</v>
+        <v>6698854</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -7497,12 +7521,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7529,10 +7553,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111748683</v>
+        <v>111748700</v>
       </c>
       <c r="B69" t="n">
-        <v>96266</v>
+        <v>85089</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7545,21 +7569,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>223591</v>
+        <v>3762</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7569,10 +7593,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>664639</v>
+        <v>664853</v>
       </c>
       <c r="R69" t="n">
-        <v>6699489</v>
+        <v>6699352</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -7599,12 +7623,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7631,10 +7655,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111748674</v>
+        <v>111748772</v>
       </c>
       <c r="B70" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7647,21 +7671,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7671,10 +7695,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>664708</v>
+        <v>664600</v>
       </c>
       <c r="R70" t="n">
-        <v>6698857</v>
+        <v>6698923</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -7733,10 +7757,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111748703</v>
+        <v>111748730</v>
       </c>
       <c r="B71" t="n">
-        <v>85089</v>
+        <v>90674</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -7745,25 +7769,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3762</v>
+        <v>2058</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7773,10 +7797,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>664569</v>
+        <v>664868</v>
       </c>
       <c r="R71" t="n">
-        <v>6698973</v>
+        <v>6699418</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -7835,10 +7859,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111748642</v>
+        <v>111748692</v>
       </c>
       <c r="B72" t="n">
-        <v>99413</v>
+        <v>89183</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -7851,21 +7875,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7875,10 +7899,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>664567</v>
+        <v>664778</v>
       </c>
       <c r="R72" t="n">
-        <v>6699539</v>
+        <v>6699069</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -7905,12 +7929,12 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -7937,10 +7961,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111748764</v>
+        <v>111748713</v>
       </c>
       <c r="B73" t="n">
-        <v>98535</v>
+        <v>96381</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -7953,21 +7977,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>222498</v>
+        <v>219874</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7977,10 +8001,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>664769</v>
+        <v>664764</v>
       </c>
       <c r="R73" t="n">
-        <v>6698956</v>
+        <v>6698962</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8036,6 +8060,4244 @@
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>111748702</v>
+      </c>
+      <c r="B74" t="n">
+        <v>85089</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3762</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Olivspindling</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Cortinarius venetus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>664852</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6699290</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>111748686</v>
+      </c>
+      <c r="B75" t="n">
+        <v>96326</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>219798</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Epipactis helleborine</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>664675</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6699052</v>
+      </c>
+      <c r="S75" t="n">
+        <v>15</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>111748705</v>
+      </c>
+      <c r="B76" t="n">
+        <v>96369</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>219862</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Nästrot</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Neottia nidus-avis</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>664770</v>
+      </c>
+      <c r="R76" t="n">
+        <v>6699441</v>
+      </c>
+      <c r="S76" t="n">
+        <v>15</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>111748765</v>
+      </c>
+      <c r="B77" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>664575</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6698989</v>
+      </c>
+      <c r="S77" t="n">
+        <v>15</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>111748673</v>
+      </c>
+      <c r="B78" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>664575</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6698991</v>
+      </c>
+      <c r="S78" t="n">
+        <v>15</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>111748709</v>
+      </c>
+      <c r="B79" t="n">
+        <v>96369</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>219862</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Nästrot</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Neottia nidus-avis</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>664848</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6699249</v>
+      </c>
+      <c r="S79" t="n">
+        <v>15</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Ingemar Södergren</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>112271001</v>
+      </c>
+      <c r="B80" t="n">
+        <v>85374</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3674</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Anisspindling</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Cortinarius odorifer</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>664667</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6698997</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>112270999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>90818</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>664662</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6698971</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>112270970</v>
+      </c>
+      <c r="B82" t="n">
+        <v>108741</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>219711</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sårläka</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Sanicula europaea</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>664897</v>
+      </c>
+      <c r="R82" t="n">
+        <v>6699389</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>112270968</v>
+      </c>
+      <c r="B83" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>664897</v>
+      </c>
+      <c r="R83" t="n">
+        <v>6699389</v>
+      </c>
+      <c r="S83" t="n">
+        <v>10</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>112271005</v>
+      </c>
+      <c r="B84" t="n">
+        <v>89317</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>664709</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6698970</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>112270975</v>
+      </c>
+      <c r="B85" t="n">
+        <v>90796</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>664465</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6699447</v>
+      </c>
+      <c r="S85" t="n">
+        <v>10</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>112270963</v>
+      </c>
+      <c r="B86" t="n">
+        <v>96698</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>219798</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Epipactis helleborine</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>664829</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6699206</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>112271002</v>
+      </c>
+      <c r="B87" t="n">
+        <v>96698</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>219798</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Epipactis helleborine</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>664703</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6698996</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>112270996</v>
+      </c>
+      <c r="B88" t="n">
+        <v>89100</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>664649</v>
+      </c>
+      <c r="R88" t="n">
+        <v>6698953</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>112270981</v>
+      </c>
+      <c r="B89" t="n">
+        <v>90818</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>664533</v>
+      </c>
+      <c r="R89" t="n">
+        <v>6699374</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>112271003</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89100</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>664703</v>
+      </c>
+      <c r="R90" t="n">
+        <v>6698996</v>
+      </c>
+      <c r="S90" t="n">
+        <v>10</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>112270959</v>
+      </c>
+      <c r="B91" t="n">
+        <v>85374</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3674</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Anisspindling</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Cortinarius odorifer</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>664629</v>
+      </c>
+      <c r="R91" t="n">
+        <v>6698863</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>112270986</v>
+      </c>
+      <c r="B92" t="n">
+        <v>94607</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1841</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Vedflikmossa</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Lophozia guttulata</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>(Lindb. &amp; Arnell) A.Evans</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>664617</v>
+      </c>
+      <c r="R92" t="n">
+        <v>6698930</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>112270990</v>
+      </c>
+      <c r="B93" t="n">
+        <v>94287</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>53</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>664617</v>
+      </c>
+      <c r="R93" t="n">
+        <v>6698930</v>
+      </c>
+      <c r="S93" t="n">
+        <v>10</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>112270972</v>
+      </c>
+      <c r="B94" t="n">
+        <v>86277</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>239209</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kantarellvaxskivling</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Hygrocybe cantharellus</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>664776</v>
+      </c>
+      <c r="R94" t="n">
+        <v>6699508</v>
+      </c>
+      <c r="S94" t="n">
+        <v>10</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>112270961</v>
+      </c>
+      <c r="B95" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>664829</v>
+      </c>
+      <c r="R95" t="n">
+        <v>6699206</v>
+      </c>
+      <c r="S95" t="n">
+        <v>10</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>112270991</v>
+      </c>
+      <c r="B96" t="n">
+        <v>89068</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>5741</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Tjockfotad fingersvamp</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Ramaria flavescens</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>(Schaeff.) R. H. Petersen</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>664636</v>
+      </c>
+      <c r="R96" t="n">
+        <v>6698934</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>112270985</v>
+      </c>
+      <c r="B97" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>664586</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6698925</v>
+      </c>
+      <c r="S97" t="n">
+        <v>10</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>112270969</v>
+      </c>
+      <c r="B98" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>664897</v>
+      </c>
+      <c r="R98" t="n">
+        <v>6699389</v>
+      </c>
+      <c r="S98" t="n">
+        <v>10</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT98" t="inlineStr"/>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>112270965</v>
+      </c>
+      <c r="B99" t="n">
+        <v>89053</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>5745</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Gyllenfingersvamp</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Ramaria brunneicontusa</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>664897</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6699389</v>
+      </c>
+      <c r="S99" t="n">
+        <v>50</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT99" t="inlineStr"/>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>112270974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>90466</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>664691</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6699487</v>
+      </c>
+      <c r="S100" t="n">
+        <v>10</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>112271004</v>
+      </c>
+      <c r="B101" t="n">
+        <v>85210</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3762</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Olivspindling</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Cortinarius venetus</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>664703</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6698996</v>
+      </c>
+      <c r="S101" t="n">
+        <v>10</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT101" t="inlineStr"/>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>112270966</v>
+      </c>
+      <c r="B102" t="n">
+        <v>96698</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>219798</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Epipactis helleborine</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>664897</v>
+      </c>
+      <c r="R102" t="n">
+        <v>6699389</v>
+      </c>
+      <c r="S102" t="n">
+        <v>10</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT102" t="inlineStr"/>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>112271000</v>
+      </c>
+      <c r="B103" t="n">
+        <v>90802</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>788</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Hydnellum geogenium</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>664662</v>
+      </c>
+      <c r="R103" t="n">
+        <v>6698971</v>
+      </c>
+      <c r="S103" t="n">
+        <v>10</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT103" t="inlineStr"/>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX103" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY103" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>112270962</v>
+      </c>
+      <c r="B104" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>664829</v>
+      </c>
+      <c r="R104" t="n">
+        <v>6699206</v>
+      </c>
+      <c r="S104" t="n">
+        <v>10</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>Karin Wiklund, Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>112332911</v>
+      </c>
+      <c r="B105" t="n">
+        <v>89317</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>664663</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6699476</v>
+      </c>
+      <c r="S105" t="n">
+        <v>15</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>112332905</v>
+      </c>
+      <c r="B106" t="n">
+        <v>103755</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>664571</v>
+      </c>
+      <c r="R106" t="n">
+        <v>6698997</v>
+      </c>
+      <c r="S106" t="n">
+        <v>15</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT106" t="inlineStr"/>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>112332912</v>
+      </c>
+      <c r="B107" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>664595</v>
+      </c>
+      <c r="R107" t="n">
+        <v>6699485</v>
+      </c>
+      <c r="S107" t="n">
+        <v>15</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>112332908</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4711</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>100299</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Cacotemnus thomsoni</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>(Kraatz, 1881)</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>664848</v>
+      </c>
+      <c r="R108" t="n">
+        <v>6699352</v>
+      </c>
+      <c r="S108" t="n">
+        <v>15</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>112332907</v>
+      </c>
+      <c r="B109" t="n">
+        <v>96741</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>219862</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Nästrot</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Neottia nidus-avis</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>664889</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6699284</v>
+      </c>
+      <c r="S109" t="n">
+        <v>15</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT109" t="inlineStr"/>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>112332909</v>
+      </c>
+      <c r="B110" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>664812</v>
+      </c>
+      <c r="R110" t="n">
+        <v>6699511</v>
+      </c>
+      <c r="S110" t="n">
+        <v>15</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT110" t="inlineStr"/>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>112332925</v>
+      </c>
+      <c r="B111" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>664667</v>
+      </c>
+      <c r="R111" t="n">
+        <v>6698981</v>
+      </c>
+      <c r="S111" t="n">
+        <v>15</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112332920</v>
+      </c>
+      <c r="B112" t="n">
+        <v>93320</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>664604</v>
+      </c>
+      <c r="R112" t="n">
+        <v>6699092</v>
+      </c>
+      <c r="S112" t="n">
+        <v>15</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT112" t="inlineStr"/>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112332913</v>
+      </c>
+      <c r="B113" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Frebbenbo-Galten, Upl</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>664454</v>
+      </c>
+      <c r="R113" t="n">
+        <v>6699431</v>
+      </c>
+      <c r="S113" t="n">
+        <v>15</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Forsmark</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT113" t="inlineStr"/>
+      <c r="AW113" t="inlineStr">
+        <is>
+          <t>Johan Lilja</t>
+        </is>
+      </c>
+      <c r="AX113" t="inlineStr">
+        <is>
+          <t>Johan Lilja, Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112332919</v>
+        <v>112332918</v>
       </c>
       <c r="B2" t="n">
-        <v>94287</v>
+        <v>96713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>219798</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664349</v>
+        <v>664391</v>
       </c>
       <c r="R2" t="n">
-        <v>6699380</v>
+        <v>6699402</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112332916</v>
+        <v>112332919</v>
       </c>
       <c r="B3" t="n">
-        <v>85374</v>
+        <v>94301</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3674</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664388</v>
+        <v>664349</v>
       </c>
       <c r="R3" t="n">
-        <v>6699417</v>
+        <v>6699380</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -895,7 +895,7 @@
         <v>112332914</v>
       </c>
       <c r="B4" t="n">
-        <v>90818</v>
+        <v>90832</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>112332917</v>
       </c>
       <c r="B5" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112332918</v>
+        <v>112332916</v>
       </c>
       <c r="B6" t="n">
-        <v>96698</v>
+        <v>85388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1120,21 +1120,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219798</v>
+        <v>3674</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664391</v>
+        <v>664388</v>
       </c>
       <c r="R6" t="n">
-        <v>6699402</v>
+        <v>6699417</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1213,7 +1213,7 @@
         <v>112332915</v>
       </c>
       <c r="B7" t="n">
-        <v>90802</v>
+        <v>90816</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -8675,10 +8675,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112271001</v>
+        <v>112270962</v>
       </c>
       <c r="B80" t="n">
-        <v>85374</v>
+        <v>99874</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -8691,21 +8691,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3674</v>
+        <v>221235</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -8715,10 +8715,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>664667</v>
+        <v>664829</v>
       </c>
       <c r="R80" t="n">
-        <v>6698997</v>
+        <v>6699206</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8781,10 +8781,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112270999</v>
+        <v>112270985</v>
       </c>
       <c r="B81" t="n">
-        <v>90818</v>
+        <v>90837</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -8797,21 +8797,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4368</v>
+        <v>5966</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8821,10 +8821,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>664662</v>
+        <v>664586</v>
       </c>
       <c r="R81" t="n">
-        <v>6698971</v>
+        <v>6698925</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8890,7 +8890,7 @@
         <v>112270970</v>
       </c>
       <c r="B82" t="n">
-        <v>108741</v>
+        <v>108774</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -8993,10 +8993,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112270968</v>
+        <v>112270999</v>
       </c>
       <c r="B83" t="n">
-        <v>98961</v>
+        <v>90832</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9005,25 +9005,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>222498</v>
+        <v>4368</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9033,10 +9033,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>664897</v>
+        <v>664662</v>
       </c>
       <c r="R83" t="n">
-        <v>6699389</v>
+        <v>6698971</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9099,10 +9099,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112271005</v>
+        <v>112270990</v>
       </c>
       <c r="B84" t="n">
-        <v>89317</v>
+        <v>94301</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9111,25 +9111,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3215</v>
+        <v>53</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>664709</v>
+        <v>664617</v>
       </c>
       <c r="R84" t="n">
-        <v>6698970</v>
+        <v>6698930</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112270975</v>
+        <v>112270969</v>
       </c>
       <c r="B85" t="n">
-        <v>90796</v>
+        <v>99874</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9221,21 +9221,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4363</v>
+        <v>221235</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9245,10 +9245,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>664465</v>
+        <v>664897</v>
       </c>
       <c r="R85" t="n">
-        <v>6699447</v>
+        <v>6699389</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9311,10 +9311,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112270963</v>
+        <v>112270986</v>
       </c>
       <c r="B86" t="n">
-        <v>96698</v>
+        <v>94621</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9323,25 +9323,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>219798</v>
+        <v>1841</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Vedflikmossa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lophozia guttulata</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Lindb. &amp; Arnell) A.Evans</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9351,10 +9351,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>664829</v>
+        <v>664617</v>
       </c>
       <c r="R86" t="n">
-        <v>6699206</v>
+        <v>6698930</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9417,10 +9417,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112271002</v>
+        <v>112271001</v>
       </c>
       <c r="B87" t="n">
-        <v>96698</v>
+        <v>85388</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9433,21 +9433,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>219798</v>
+        <v>3674</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9457,10 +9457,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>664703</v>
+        <v>664667</v>
       </c>
       <c r="R87" t="n">
-        <v>6698996</v>
+        <v>6698997</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9523,10 +9523,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112270996</v>
+        <v>112270966</v>
       </c>
       <c r="B88" t="n">
-        <v>89100</v>
+        <v>96713</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9535,25 +9535,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5754</v>
+        <v>219798</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9563,10 +9563,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>664649</v>
+        <v>664897</v>
       </c>
       <c r="R88" t="n">
-        <v>6698953</v>
+        <v>6699389</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9629,10 +9629,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112270981</v>
+        <v>112270974</v>
       </c>
       <c r="B89" t="n">
-        <v>90818</v>
+        <v>90480</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -9641,25 +9641,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9669,10 +9669,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>664533</v>
+        <v>664691</v>
       </c>
       <c r="R89" t="n">
-        <v>6699374</v>
+        <v>6699487</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9735,10 +9735,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112271003</v>
+        <v>112270972</v>
       </c>
       <c r="B90" t="n">
-        <v>89100</v>
+        <v>86291</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -9747,25 +9747,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5754</v>
+        <v>239209</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Kantarellvaxskivling</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hygrocybe cantharellus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -9775,10 +9775,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>664703</v>
+        <v>664776</v>
       </c>
       <c r="R90" t="n">
-        <v>6698996</v>
+        <v>6699508</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9841,10 +9841,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112270959</v>
+        <v>112271003</v>
       </c>
       <c r="B91" t="n">
-        <v>85374</v>
+        <v>89114</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -9853,25 +9853,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9881,10 +9881,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>664629</v>
+        <v>664703</v>
       </c>
       <c r="R91" t="n">
-        <v>6698863</v>
+        <v>6698996</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112270986</v>
+        <v>112270996</v>
       </c>
       <c r="B92" t="n">
-        <v>94607</v>
+        <v>89114</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -9963,21 +9963,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1841</v>
+        <v>5754</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vedflikmossa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lophozia guttulata</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Lindb. &amp; Arnell) A.Evans</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -9987,10 +9987,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>664617</v>
+        <v>664649</v>
       </c>
       <c r="R92" t="n">
-        <v>6698930</v>
+        <v>6698953</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10053,10 +10053,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112270990</v>
+        <v>112270975</v>
       </c>
       <c r="B93" t="n">
-        <v>94287</v>
+        <v>90810</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10065,25 +10065,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>53</v>
+        <v>4363</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10093,10 +10093,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>664617</v>
+        <v>664465</v>
       </c>
       <c r="R93" t="n">
-        <v>6698930</v>
+        <v>6699447</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10159,10 +10159,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112270972</v>
+        <v>112271002</v>
       </c>
       <c r="B94" t="n">
-        <v>86277</v>
+        <v>96713</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10175,21 +10175,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>239209</v>
+        <v>219798</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Kantarellvaxskivling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hygrocybe cantharellus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10199,10 +10199,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>664776</v>
+        <v>664703</v>
       </c>
       <c r="R94" t="n">
-        <v>6699508</v>
+        <v>6698996</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10265,10 +10265,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112270961</v>
+        <v>112271000</v>
       </c>
       <c r="B95" t="n">
-        <v>98961</v>
+        <v>90816</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10277,25 +10277,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>222498</v>
+        <v>788</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10305,10 +10305,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>664829</v>
+        <v>664662</v>
       </c>
       <c r="R95" t="n">
-        <v>6699206</v>
+        <v>6698971</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10371,10 +10371,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112270991</v>
+        <v>112270961</v>
       </c>
       <c r="B96" t="n">
-        <v>89068</v>
+        <v>98980</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10387,21 +10387,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5741</v>
+        <v>222498</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10411,10 +10411,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>664636</v>
+        <v>664829</v>
       </c>
       <c r="R96" t="n">
-        <v>6698934</v>
+        <v>6699206</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10477,10 +10477,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112270985</v>
+        <v>112270991</v>
       </c>
       <c r="B97" t="n">
-        <v>90823</v>
+        <v>89082</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -10489,25 +10489,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5966</v>
+        <v>5741</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10517,10 +10517,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>664586</v>
+        <v>664636</v>
       </c>
       <c r="R97" t="n">
-        <v>6698925</v>
+        <v>6698934</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -10583,10 +10583,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112270969</v>
+        <v>112271005</v>
       </c>
       <c r="B98" t="n">
-        <v>99850</v>
+        <v>89331</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -10599,21 +10599,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -10623,10 +10623,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>664897</v>
+        <v>664709</v>
       </c>
       <c r="R98" t="n">
-        <v>6699389</v>
+        <v>6698970</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -10689,10 +10689,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112270965</v>
+        <v>112270981</v>
       </c>
       <c r="B99" t="n">
-        <v>89053</v>
+        <v>90832</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -10701,25 +10701,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5745</v>
+        <v>4368</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -10729,13 +10729,13 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>664897</v>
+        <v>664533</v>
       </c>
       <c r="R99" t="n">
-        <v>6699389</v>
+        <v>6699374</v>
       </c>
       <c r="S99" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -10795,10 +10795,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112270974</v>
+        <v>112271004</v>
       </c>
       <c r="B100" t="n">
-        <v>90466</v>
+        <v>85224</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -10811,21 +10811,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -10835,10 +10835,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>664691</v>
+        <v>664703</v>
       </c>
       <c r="R100" t="n">
-        <v>6699487</v>
+        <v>6698996</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -10901,10 +10901,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112271004</v>
+        <v>112270965</v>
       </c>
       <c r="B101" t="n">
-        <v>85210</v>
+        <v>89066</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -10913,25 +10913,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3762</v>
+        <v>5745</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>664703</v>
+        <v>664897</v>
       </c>
       <c r="R101" t="n">
-        <v>6698996</v>
+        <v>6699389</v>
       </c>
       <c r="S101" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -11007,10 +11007,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112270966</v>
+        <v>112270959</v>
       </c>
       <c r="B102" t="n">
-        <v>96698</v>
+        <v>85388</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11023,21 +11023,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>219798</v>
+        <v>3674</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11047,10 +11047,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>664897</v>
+        <v>664629</v>
       </c>
       <c r="R102" t="n">
-        <v>6699389</v>
+        <v>6698863</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11113,10 +11113,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112271000</v>
+        <v>112270968</v>
       </c>
       <c r="B103" t="n">
-        <v>90802</v>
+        <v>98980</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11125,25 +11125,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>788</v>
+        <v>222498</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11153,10 +11153,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>664662</v>
+        <v>664897</v>
       </c>
       <c r="R103" t="n">
-        <v>6698971</v>
+        <v>6699389</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11219,10 +11219,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112270962</v>
+        <v>112270963</v>
       </c>
       <c r="B104" t="n">
-        <v>99850</v>
+        <v>96713</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11235,21 +11235,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>221235</v>
+        <v>219798</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112332911</v>
+        <v>112332905</v>
       </c>
       <c r="B105" t="n">
-        <v>89317</v>
+        <v>103781</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11341,21 +11341,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3215</v>
+        <v>221144</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -11365,10 +11365,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>664663</v>
+        <v>664571</v>
       </c>
       <c r="R105" t="n">
-        <v>6699476</v>
+        <v>6698997</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -11431,10 +11431,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112332905</v>
+        <v>112332925</v>
       </c>
       <c r="B106" t="n">
-        <v>103755</v>
+        <v>99874</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -11447,21 +11447,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -11471,10 +11471,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>664571</v>
+        <v>664667</v>
       </c>
       <c r="R106" t="n">
-        <v>6698997</v>
+        <v>6698981</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -11537,10 +11537,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112332912</v>
+        <v>112332913</v>
       </c>
       <c r="B107" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -11577,10 +11577,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>664595</v>
+        <v>664454</v>
       </c>
       <c r="R107" t="n">
-        <v>6699485</v>
+        <v>6699431</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -11643,10 +11643,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112332908</v>
+        <v>112332911</v>
       </c>
       <c r="B108" t="n">
-        <v>4711</v>
+        <v>89331</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -11659,39 +11659,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100299</v>
+        <v>3215</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>664848</v>
+        <v>664663</v>
       </c>
       <c r="R108" t="n">
-        <v>6699352</v>
+        <v>6699476</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -11754,10 +11749,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112332907</v>
+        <v>112332912</v>
       </c>
       <c r="B109" t="n">
-        <v>96741</v>
+        <v>90837</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -11766,54 +11761,38 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>219862</v>
+        <v>5966</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>vinterståndare</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
           <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>664889</v>
+        <v>664595</v>
       </c>
       <c r="R109" t="n">
-        <v>6699284</v>
+        <v>6699485</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -11854,7 +11833,6 @@
       <c r="AE109" t="b">
         <v>0</v>
       </c>
-      <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="b">
         <v>0</v>
       </c>
@@ -11877,10 +11855,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112332909</v>
+        <v>112332907</v>
       </c>
       <c r="B110" t="n">
-        <v>90823</v>
+        <v>96756</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -11889,38 +11867,54 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5966</v>
+        <v>219862</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>664812</v>
+        <v>664889</v>
       </c>
       <c r="R110" t="n">
-        <v>6699511</v>
+        <v>6699284</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -11961,6 +11955,7 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
+      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -11983,10 +11978,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112332925</v>
+        <v>112332908</v>
       </c>
       <c r="B111" t="n">
-        <v>99850</v>
+        <v>4711</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -11999,34 +11994,39 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>221235</v>
+        <v>100299</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr">
         <is>
           <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>664667</v>
+        <v>664848</v>
       </c>
       <c r="R111" t="n">
-        <v>6698981</v>
+        <v>6699352</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12092,7 +12092,7 @@
         <v>112332920</v>
       </c>
       <c r="B112" t="n">
-        <v>93320</v>
+        <v>93334</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12195,10 +12195,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112332913</v>
+        <v>112332909</v>
       </c>
       <c r="B113" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12235,10 +12235,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>664454</v>
+        <v>664812</v>
       </c>
       <c r="R113" t="n">
-        <v>6699431</v>
+        <v>6699511</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>

--- a/artfynd/A 27867-2023.xlsx
+++ b/artfynd/A 27867-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112332918</v>
+        <v>112332919</v>
       </c>
       <c r="B2" t="n">
-        <v>96713</v>
+        <v>94301</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219798</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>664391</v>
+        <v>664349</v>
       </c>
       <c r="R2" t="n">
-        <v>6699402</v>
+        <v>6699380</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112332919</v>
+        <v>112332918</v>
       </c>
       <c r="B3" t="n">
-        <v>94301</v>
+        <v>96713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>219798</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>664349</v>
+        <v>664391</v>
       </c>
       <c r="R3" t="n">
-        <v>6699380</v>
+        <v>6699402</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112332914</v>
+        <v>112332917</v>
       </c>
       <c r="B4" t="n">
-        <v>90832</v>
+        <v>99874</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -904,25 +904,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4368</v>
+        <v>221235</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>664401</v>
+        <v>664397</v>
       </c>
       <c r="R4" t="n">
-        <v>6699412</v>
+        <v>6699407</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112332917</v>
+        <v>112332916</v>
       </c>
       <c r="B5" t="n">
-        <v>99874</v>
+        <v>85388</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,21 +1014,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221235</v>
+        <v>3674</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>664397</v>
+        <v>664388</v>
       </c>
       <c r="R5" t="n">
-        <v>6699407</v>
+        <v>6699417</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112332916</v>
+        <v>112332915</v>
       </c>
       <c r="B6" t="n">
-        <v>85388</v>
+        <v>90816</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1116,25 +1116,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3674</v>
+        <v>788</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>664388</v>
+        <v>664402</v>
       </c>
       <c r="R6" t="n">
-        <v>6699417</v>
+        <v>6699412</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112332915</v>
+        <v>112332914</v>
       </c>
       <c r="B7" t="n">
-        <v>90816</v>
+        <v>90832</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1226,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>788</v>
+        <v>4368</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>664402</v>
+        <v>664401</v>
       </c>
       <c r="R7" t="n">
         <v>6699412</v>
@@ -8675,10 +8675,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112270962</v>
+        <v>112271005</v>
       </c>
       <c r="B80" t="n">
-        <v>99874</v>
+        <v>89331</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -8691,21 +8691,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -8715,10 +8715,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>664829</v>
+        <v>664709</v>
       </c>
       <c r="R80" t="n">
-        <v>6699206</v>
+        <v>6698970</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8781,10 +8781,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112270985</v>
+        <v>112270999</v>
       </c>
       <c r="B81" t="n">
-        <v>90837</v>
+        <v>90832</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -8797,21 +8797,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5966</v>
+        <v>4368</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8821,10 +8821,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>664586</v>
+        <v>664662</v>
       </c>
       <c r="R81" t="n">
-        <v>6698925</v>
+        <v>6698971</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112270970</v>
+        <v>112270985</v>
       </c>
       <c r="B82" t="n">
-        <v>108774</v>
+        <v>90837</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -8899,25 +8899,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>219711</v>
+        <v>5966</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8927,10 +8927,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>664897</v>
+        <v>664586</v>
       </c>
       <c r="R82" t="n">
-        <v>6699389</v>
+        <v>6698925</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8993,10 +8993,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112270999</v>
+        <v>112270970</v>
       </c>
       <c r="B83" t="n">
-        <v>90832</v>
+        <v>108774</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9005,25 +9005,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4368</v>
+        <v>219711</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9033,10 +9033,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>664662</v>
+        <v>664897</v>
       </c>
       <c r="R83" t="n">
-        <v>6698971</v>
+        <v>6699389</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9099,10 +9099,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112270990</v>
+        <v>112270991</v>
       </c>
       <c r="B84" t="n">
-        <v>94301</v>
+        <v>89082</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9111,25 +9111,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>53</v>
+        <v>5741</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9139,10 +9139,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>664617</v>
+        <v>664636</v>
       </c>
       <c r="R84" t="n">
-        <v>6698930</v>
+        <v>6698934</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112270969</v>
+        <v>112270972</v>
       </c>
       <c r="B85" t="n">
-        <v>99874</v>
+        <v>86291</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9221,21 +9221,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>221235</v>
+        <v>239209</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kantarellvaxskivling</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hygrocybe cantharellus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9245,10 +9245,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>664897</v>
+        <v>664776</v>
       </c>
       <c r="R85" t="n">
-        <v>6699389</v>
+        <v>6699508</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9311,10 +9311,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112270986</v>
+        <v>112270966</v>
       </c>
       <c r="B86" t="n">
-        <v>94621</v>
+        <v>96713</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9323,25 +9323,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1841</v>
+        <v>219798</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Vedflikmossa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lophozia guttulata</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Lindb. &amp; Arnell) A.Evans</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9351,10 +9351,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>664617</v>
+        <v>664897</v>
       </c>
       <c r="R86" t="n">
-        <v>6698930</v>
+        <v>6699389</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9417,10 +9417,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112271001</v>
+        <v>112270990</v>
       </c>
       <c r="B87" t="n">
-        <v>85388</v>
+        <v>94301</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9429,25 +9429,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3674</v>
+        <v>53</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9457,10 +9457,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>664667</v>
+        <v>664617</v>
       </c>
       <c r="R87" t="n">
-        <v>6698997</v>
+        <v>6698930</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9523,10 +9523,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112270966</v>
+        <v>112270965</v>
       </c>
       <c r="B88" t="n">
-        <v>96713</v>
+        <v>89066</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9535,25 +9535,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>219798</v>
+        <v>5745</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Gyllenfingersvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Ramaria brunneicontusa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9569,7 +9569,7 @@
         <v>6699389</v>
       </c>
       <c r="S88" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -9629,10 +9629,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112270974</v>
+        <v>112270961</v>
       </c>
       <c r="B89" t="n">
-        <v>90480</v>
+        <v>98980</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -9645,21 +9645,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9669,10 +9669,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>664691</v>
+        <v>664829</v>
       </c>
       <c r="R89" t="n">
-        <v>6699487</v>
+        <v>6699206</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9735,10 +9735,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112270972</v>
+        <v>112270969</v>
       </c>
       <c r="B90" t="n">
-        <v>86291</v>
+        <v>99874</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -9751,21 +9751,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>239209</v>
+        <v>221235</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kantarellvaxskivling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hygrocybe cantharellus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -9775,10 +9775,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>664776</v>
+        <v>664897</v>
       </c>
       <c r="R90" t="n">
-        <v>6699508</v>
+        <v>6699389</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9841,10 +9841,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112271003</v>
+        <v>112270968</v>
       </c>
       <c r="B91" t="n">
-        <v>89114</v>
+        <v>98980</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -9853,25 +9853,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9881,10 +9881,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>664703</v>
+        <v>664897</v>
       </c>
       <c r="R91" t="n">
-        <v>6698996</v>
+        <v>6699389</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112270996</v>
+        <v>112270962</v>
       </c>
       <c r="B92" t="n">
-        <v>89114</v>
+        <v>99874</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -9959,25 +9959,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5754</v>
+        <v>221235</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -9987,10 +9987,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>664649</v>
+        <v>664829</v>
       </c>
       <c r="R92" t="n">
-        <v>6698953</v>
+        <v>6699206</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10053,10 +10053,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112270975</v>
+        <v>112270981</v>
       </c>
       <c r="B93" t="n">
-        <v>90810</v>
+        <v>90832</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10065,25 +10065,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>4363</v>
+        <v>4368</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10093,10 +10093,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>664465</v>
+        <v>664533</v>
       </c>
       <c r="R93" t="n">
-        <v>6699447</v>
+        <v>6699374</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10159,10 +10159,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112271002</v>
+        <v>112271000</v>
       </c>
       <c r="B94" t="n">
-        <v>96713</v>
+        <v>90816</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10171,25 +10171,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>219798</v>
+        <v>788</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10199,10 +10199,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>664703</v>
+        <v>664662</v>
       </c>
       <c r="R94" t="n">
-        <v>6698996</v>
+        <v>6698971</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10265,10 +10265,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112271000</v>
+        <v>112270959</v>
       </c>
       <c r="B95" t="n">
-        <v>90816</v>
+        <v>85388</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10277,25 +10277,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>788</v>
+        <v>3674</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10305,10 +10305,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>664662</v>
+        <v>664629</v>
       </c>
       <c r="R95" t="n">
-        <v>6698971</v>
+        <v>6698863</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10371,10 +10371,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112270961</v>
+        <v>112270975</v>
       </c>
       <c r="B96" t="n">
-        <v>98980</v>
+        <v>90810</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10387,21 +10387,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>222498</v>
+        <v>4363</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10411,10 +10411,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>664829</v>
+        <v>664465</v>
       </c>
       <c r="R96" t="n">
-        <v>6699206</v>
+        <v>6699447</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10477,10 +10477,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112270991</v>
+        <v>112271002</v>
       </c>
       <c r="B97" t="n">
-        <v>89082</v>
+        <v>96713</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -10493,21 +10493,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5741</v>
+        <v>219798</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10517,10 +10517,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>664636</v>
+        <v>664703</v>
       </c>
       <c r="R97" t="n">
-        <v>6698934</v>
+        <v>6698996</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -10583,10 +10583,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112271005</v>
+        <v>112270974</v>
       </c>
       <c r="B98" t="n">
-        <v>89331</v>
+        <v>90480</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -10599,21 +10599,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -10623,10 +10623,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>664709</v>
+        <v>664691</v>
       </c>
       <c r="R98" t="n">
-        <v>6698970</v>
+        <v>6699487</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -10689,10 +10689,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112270981</v>
+        <v>112270986</v>
       </c>
       <c r="B99" t="n">
-        <v>90832</v>
+        <v>94621</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -10705,21 +10705,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4368</v>
+        <v>1841</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vedflikmossa</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lophozia guttulata</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Lindb. &amp; Arnell) A.Evans</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -10729,10 +10729,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>664533</v>
+        <v>664617</v>
       </c>
       <c r="R99" t="n">
-        <v>6699374</v>
+        <v>6698930</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -10795,10 +10795,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112271004</v>
+        <v>112271001</v>
       </c>
       <c r="B100" t="n">
-        <v>85224</v>
+        <v>85388</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -10811,21 +10811,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3762</v>
+        <v>3674</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -10835,10 +10835,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>664703</v>
+        <v>664667</v>
       </c>
       <c r="R100" t="n">
-        <v>6698996</v>
+        <v>6698997</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -10901,10 +10901,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112270965</v>
+        <v>112271003</v>
       </c>
       <c r="B101" t="n">
-        <v>89066</v>
+        <v>89114</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -10913,25 +10913,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5745</v>
+        <v>5754</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gyllenfingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ramaria brunneicontusa</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>664897</v>
+        <v>664703</v>
       </c>
       <c r="R101" t="n">
-        <v>6699389</v>
+        <v>6698996</v>
       </c>
       <c r="S101" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -11007,10 +11007,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112270959</v>
+        <v>112270996</v>
       </c>
       <c r="B102" t="n">
-        <v>85388</v>
+        <v>89114</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11019,25 +11019,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11047,10 +11047,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>664629</v>
+        <v>664649</v>
       </c>
       <c r="R102" t="n">
-        <v>6698863</v>
+        <v>6698953</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11113,10 +11113,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112270968</v>
+        <v>112270963</v>
       </c>
       <c r="B103" t="n">
-        <v>98980</v>
+        <v>96713</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11129,21 +11129,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>222498</v>
+        <v>219798</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11153,10 +11153,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>664897</v>
+        <v>664829</v>
       </c>
       <c r="R103" t="n">
-        <v>6699389</v>
+        <v>6699206</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11219,10 +11219,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112270963</v>
+        <v>112271004</v>
       </c>
       <c r="B104" t="n">
-        <v>96713</v>
+        <v>85224</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11235,21 +11235,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>219798</v>
+        <v>3762</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -11259,10 +11259,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>664829</v>
+        <v>664703</v>
       </c>
       <c r="R104" t="n">
-        <v>6699206</v>
+        <v>6698996</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11431,10 +11431,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112332925</v>
+        <v>112332908</v>
       </c>
       <c r="B106" t="n">
-        <v>99874</v>
+        <v>4711</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -11447,34 +11447,39 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>221235</v>
+        <v>100299</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>664667</v>
+        <v>664848</v>
       </c>
       <c r="R106" t="n">
-        <v>6698981</v>
+        <v>6699352</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -11537,10 +11542,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112332913</v>
+        <v>112332925</v>
       </c>
       <c r="B107" t="n">
-        <v>90837</v>
+        <v>99874</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -11549,25 +11554,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5966</v>
+        <v>221235</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -11577,10 +11582,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>664454</v>
+        <v>664667</v>
       </c>
       <c r="R107" t="n">
-        <v>6699431</v>
+        <v>6698981</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -11643,10 +11648,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112332911</v>
+        <v>112332913</v>
       </c>
       <c r="B108" t="n">
-        <v>89331</v>
+        <v>90837</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -11655,25 +11660,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3215</v>
+        <v>5966</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -11683,10 +11688,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>664663</v>
+        <v>664454</v>
       </c>
       <c r="R108" t="n">
-        <v>6699476</v>
+        <v>6699431</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -11749,7 +11754,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112332912</v>
+        <v>112332909</v>
       </c>
       <c r="B109" t="n">
         <v>90837</v>
@@ -11789,10 +11794,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>664595</v>
+        <v>664812</v>
       </c>
       <c r="R109" t="n">
-        <v>6699485</v>
+        <v>6699511</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -11855,10 +11860,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112332907</v>
+        <v>112332920</v>
       </c>
       <c r="B110" t="n">
-        <v>96756</v>
+        <v>93334</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -11871,50 +11876,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>219862</v>
+        <v>2818</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>vinterståndare</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>664889</v>
+        <v>664604</v>
       </c>
       <c r="R110" t="n">
-        <v>6699284</v>
+        <v>6699092</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -11955,7 +11944,6 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
-      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -11978,10 +11966,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112332908</v>
+        <v>112332912</v>
       </c>
       <c r="B111" t="n">
-        <v>4711</v>
+        <v>90837</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -11990,43 +11978,38 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>100299</v>
+        <v>5966</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P111" t="inlineStr">
         <is>
           <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>664848</v>
+        <v>664595</v>
       </c>
       <c r="R111" t="n">
-        <v>6699352</v>
+        <v>6699485</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12089,10 +12072,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112332920</v>
+        <v>112332907</v>
       </c>
       <c r="B112" t="n">
-        <v>93334</v>
+        <v>96756</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12105,34 +12088,50 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2818</v>
+        <v>219862</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Frebbenbo-Galten, Upl</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>664604</v>
+        <v>664889</v>
       </c>
       <c r="R112" t="n">
-        <v>6699092</v>
+        <v>6699284</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12173,6 +12172,7 @@
       <c r="AE112" t="b">
         <v>0</v>
       </c>
+      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
@@ -12195,10 +12195,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112332909</v>
+        <v>112332911</v>
       </c>
       <c r="B113" t="n">
-        <v>90837</v>
+        <v>89331</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12207,25 +12207,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5966</v>
+        <v>3215</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -12235,10 +12235,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>664812</v>
+        <v>664663</v>
       </c>
       <c r="R113" t="n">
-        <v>6699511</v>
+        <v>6699476</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
